--- a/tools/recipe/src/test/resources/配方报价管理系统需求清单.xlsx
+++ b/tools/recipe/src/test/resources/配方报价管理系统需求清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18187" windowHeight="8872" tabRatio="821" firstSheet="3" activeTab="4"/>
+    <workbookView windowHeight="18525" tabRatio="821" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="推优核算逻辑" sheetId="3" r:id="rId1"/>
@@ -412,7 +412,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="344">
   <si>
     <t>项目</t>
   </si>
@@ -681,25 +681,25 @@
     <t>液氨</t>
   </si>
   <si>
+    <t>氯化钾,喷浆硫基用95氯化钾</t>
+  </si>
+  <si>
+    <t>硫酸</t>
+  </si>
+  <si>
+    <t>15-15-15喷浆氯基</t>
+  </si>
+  <si>
+    <t>喷浆氯基</t>
+  </si>
+  <si>
+    <t>若需用普通尿素只能用喷浆专用尿素，不用大颗粒、多肽及缓释尿素</t>
+  </si>
+  <si>
+    <t>磷酸</t>
+  </si>
+  <si>
     <t>碳铵</t>
-  </si>
-  <si>
-    <t>氯化钾,喷浆硫基用95氯化钾</t>
-  </si>
-  <si>
-    <t>硫酸</t>
-  </si>
-  <si>
-    <t>15-15-15喷浆氯基</t>
-  </si>
-  <si>
-    <t>喷浆氯基</t>
-  </si>
-  <si>
-    <t>若需用普通尿素只能用喷浆专用尿素，不用大颗粒、多肽及缓释尿素</t>
-  </si>
-  <si>
-    <t>磷酸</t>
   </si>
   <si>
     <t>95%氯化钾烘干粉（国产）</t>
@@ -1451,17 +1451,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0.0%"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0.000%"/>
+    <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1568,106 +1568,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1684,7 +1584,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1695,6 +1657,44 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1778,13 +1778,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,7 +1796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1820,7 +1820,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,13 +1898,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,103 +1940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2036,15 +2036,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2064,32 +2055,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2110,6 +2075,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2124,99 +2109,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="41" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2228,49 +2228,49 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2300,29 +2300,29 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2351,7 +2351,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2389,13 +2389,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2409,13 +2409,13 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2455,34 +2455,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2490,20 +2490,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2514,19 +2514,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="182" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2716,8 +2716,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>168910</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>135255</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2735,7 +2735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="565785" y="635"/>
-          <a:ext cx="8253095" cy="5292090"/>
+          <a:ext cx="8786495" cy="5292090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3127,12 +3127,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="13.1" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.88495575221239" style="94" customWidth="1"/>
-    <col min="2" max="2" width="53.7433628318584" customWidth="1"/>
-    <col min="3" max="3" width="34.0442477876106" customWidth="1"/>
-    <col min="4" max="4" width="63.0088495575221" customWidth="1"/>
+    <col min="1" max="1" width="8.88333333333333" style="94" customWidth="1"/>
+    <col min="2" max="2" width="53.7416666666667" customWidth="1"/>
+    <col min="3" max="3" width="34.0416666666667" customWidth="1"/>
+    <col min="4" max="4" width="63.0083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:4">
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="108" t="s">
         <v>2</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="108"/>
       <c r="B3" s="109"/>
       <c r="C3" s="110" t="s">
@@ -3169,7 +3169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:4">
+    <row r="4" ht="14.25" spans="1:4">
       <c r="A4" s="108"/>
       <c r="B4" s="109" t="s">
         <v>8</v>
@@ -3181,7 +3181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:4">
+    <row r="5" ht="14.25" spans="1:4">
       <c r="A5" s="108"/>
       <c r="B5" s="110" t="s">
         <v>11</v>
@@ -3189,7 +3189,7 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
     </row>
-    <row r="6" ht="15" spans="1:4">
+    <row r="6" ht="14.25" spans="1:4">
       <c r="A6" s="108"/>
       <c r="B6" s="110" t="s">
         <v>12</v>
@@ -3197,7 +3197,7 @@
       <c r="C6" s="87"/>
       <c r="D6" s="87"/>
     </row>
-    <row r="7" ht="26.25" spans="1:4">
+    <row r="7" ht="27" spans="1:4">
       <c r="A7" s="111" t="s">
         <v>13</v>
       </c>
@@ -3228,7 +3228,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3245,13 +3245,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.0442477876106" customWidth="1"/>
-    <col min="3" max="3" width="9.46902654867257"/>
-    <col min="4" max="6" width="10.5486725663717"/>
-    <col min="10" max="10" width="8.61061946902655" style="82"/>
-    <col min="13" max="13" width="20.5398230088496" customWidth="1"/>
+    <col min="1" max="1" width="12.0416666666667" customWidth="1"/>
+    <col min="3" max="3" width="9.46666666666667"/>
+    <col min="4" max="6" width="10.55"/>
+    <col min="10" max="10" width="8.60833333333333" style="82"/>
+    <col min="13" max="13" width="20.5416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3268,7 +3268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="15" customFormat="1" ht="24.75" spans="1:14">
+    <row r="4" s="15" customFormat="1" ht="24" spans="1:14">
       <c r="A4" s="105" t="s">
         <v>0</v>
       </c>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" ht="15" spans="1:14">
+    <row r="9" ht="14.25" spans="1:14">
       <c r="A9" s="86" t="s">
         <v>36</v>
       </c>
@@ -3656,22 +3656,22 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="12.35"/>
+  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="12.0442477876106" style="82" customWidth="1"/>
-    <col min="2" max="2" width="8.61061946902655" style="82"/>
-    <col min="3" max="3" width="9.46902654867257" style="82"/>
-    <col min="4" max="4" width="8.80530973451327" style="82" customWidth="1"/>
-    <col min="5" max="5" width="8.48672566371681" style="82" customWidth="1"/>
-    <col min="6" max="6" width="8.17699115044248" style="82" customWidth="1"/>
-    <col min="7" max="12" width="8.61061946902655" style="82"/>
-    <col min="13" max="13" width="10.3451327433628" style="82" customWidth="1"/>
-    <col min="14" max="14" width="8.61061946902655" style="82"/>
-    <col min="15" max="15" width="10.5752212389381" style="82" customWidth="1"/>
-    <col min="16" max="16384" width="8.61061946902655" style="82"/>
+    <col min="1" max="1" width="12.0416666666667" style="82" customWidth="1"/>
+    <col min="2" max="2" width="8.60833333333333" style="82"/>
+    <col min="3" max="3" width="9.46666666666667" style="82"/>
+    <col min="4" max="4" width="8.80833333333333" style="82" customWidth="1"/>
+    <col min="5" max="5" width="8.48333333333333" style="82" customWidth="1"/>
+    <col min="6" max="6" width="8.175" style="82" customWidth="1"/>
+    <col min="7" max="12" width="8.60833333333333" style="82"/>
+    <col min="13" max="13" width="10.3416666666667" style="82" customWidth="1"/>
+    <col min="14" max="14" width="8.60833333333333" style="82"/>
+    <col min="15" max="15" width="10.575" style="82" customWidth="1"/>
+    <col min="16" max="16384" width="8.60833333333333" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" s="82" customFormat="1" ht="13.1" spans="1:5">
+    <row r="1" s="82" customFormat="1" ht="13.5" spans="1:5">
       <c r="A1" s="82" t="s">
         <v>16</v>
       </c>
@@ -3685,14 +3685,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="13.1" spans="1:10">
+    <row r="2" customFormat="1" ht="13.5" spans="1:10">
       <c r="A2" s="82"/>
       <c r="B2" s="82"/>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
       <c r="J2" s="82"/>
     </row>
-    <row r="4" s="83" customFormat="1" ht="49.5" spans="1:16">
+    <row r="4" s="83" customFormat="1" ht="36" spans="1:16">
       <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="P8" s="87"/>
     </row>
-    <row r="9" ht="15" spans="1:16">
+    <row r="9" ht="14.25" spans="1:16">
       <c r="A9" s="86" t="s">
         <v>36</v>
       </c>
@@ -4048,7 +4048,7 @@
       <c r="O11" s="87"/>
       <c r="P11" s="87"/>
     </row>
-    <row r="13" ht="13.1" spans="1:7">
+    <row r="13" ht="13.5" spans="1:7">
       <c r="A13" s="51" t="s">
         <v>38</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="13.1" spans="1:7">
+    <row r="14" ht="13.5" spans="1:7">
       <c r="A14" s="82" t="s">
         <v>52</v>
       </c>
@@ -4088,7 +4088,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" ht="13.1" spans="3:7">
+    <row r="15" ht="13.5" spans="3:7">
       <c r="C15" t="s">
         <v>46</v>
       </c>
@@ -4099,7 +4099,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" ht="13.1" spans="3:7">
+    <row r="16" ht="13.5" spans="3:7">
       <c r="C16" t="s">
         <v>47</v>
       </c>
@@ -4129,24 +4129,24 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="12.35"/>
+  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="12.0442477876106" style="82" customWidth="1"/>
-    <col min="2" max="2" width="8.61061946902655" style="82"/>
-    <col min="3" max="3" width="9.46902654867257" style="82"/>
-    <col min="4" max="4" width="8.80530973451327" style="82" customWidth="1"/>
-    <col min="5" max="5" width="8.48672566371681" style="82" customWidth="1"/>
-    <col min="6" max="6" width="8.17699115044248" style="82" customWidth="1"/>
-    <col min="7" max="12" width="8.61061946902655" style="82"/>
-    <col min="13" max="13" width="10.3451327433628" style="82" customWidth="1"/>
-    <col min="14" max="14" width="8.61061946902655" style="82"/>
-    <col min="15" max="18" width="10.5044247787611" style="82" customWidth="1"/>
-    <col min="19" max="19" width="12.7345132743363" style="82" customWidth="1"/>
-    <col min="20" max="20" width="11.9115044247788" style="82"/>
-    <col min="21" max="16384" width="8.61061946902655" style="82"/>
+    <col min="1" max="1" width="12.0416666666667" style="82" customWidth="1"/>
+    <col min="2" max="2" width="8.60833333333333" style="82"/>
+    <col min="3" max="3" width="9.46666666666667" style="82"/>
+    <col min="4" max="4" width="8.80833333333333" style="82" customWidth="1"/>
+    <col min="5" max="5" width="8.48333333333333" style="82" customWidth="1"/>
+    <col min="6" max="6" width="8.175" style="82" customWidth="1"/>
+    <col min="7" max="12" width="8.60833333333333" style="82"/>
+    <col min="13" max="13" width="10.3416666666667" style="82" customWidth="1"/>
+    <col min="14" max="14" width="8.60833333333333" style="82"/>
+    <col min="15" max="18" width="10.5083333333333" style="82" customWidth="1"/>
+    <col min="19" max="19" width="12.7333333333333" style="82" customWidth="1"/>
+    <col min="20" max="20" width="11.9083333333333" style="82"/>
+    <col min="21" max="16384" width="8.60833333333333" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" s="82" customFormat="1" ht="13.1" spans="1:5">
+    <row r="1" s="82" customFormat="1" ht="13.5" spans="1:5">
       <c r="A1" s="82" t="s">
         <v>16</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" s="82" customFormat="1" ht="13.1" spans="1:20">
+    <row r="2" s="82" customFormat="1" ht="13.5" spans="1:20">
       <c r="A2" s="82" t="s">
         <v>57</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="R3" s="99"/>
       <c r="S3" s="100"/>
     </row>
-    <row r="4" s="83" customFormat="1" ht="49.5" spans="1:19">
+    <row r="4" s="83" customFormat="1" ht="36" spans="1:19">
       <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>0.0172394366197183</v>
       </c>
     </row>
-    <row r="9" s="82" customFormat="1" ht="15" spans="1:19">
+    <row r="9" s="82" customFormat="1" ht="14.25" spans="1:19">
       <c r="A9" s="86" t="s">
         <v>36</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="R11" s="91"/>
       <c r="S11" s="91"/>
     </row>
-    <row r="13" ht="13.1" spans="1:8">
+    <row r="13" ht="13.5" spans="1:8">
       <c r="A13" s="51" t="s">
         <v>38</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" ht="13.1" spans="1:8">
+    <row r="14" ht="13.5" spans="1:8">
       <c r="A14" s="103" t="s">
         <v>52</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" ht="13.1" spans="1:7">
+    <row r="15" ht="13.5" spans="1:7">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" ht="13.1" spans="1:7">
+    <row r="16" ht="13.5" spans="1:7">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -4675,7 +4675,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" ht="13.1" spans="1:7">
+    <row r="17" ht="13.5" spans="1:7">
       <c r="A17" s="82" t="s">
         <v>71</v>
       </c>
@@ -4690,7 +4690,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" ht="13.1" spans="1:7">
+    <row r="18" ht="13.5" spans="1:7">
       <c r="A18" s="20" t="s">
         <v>73</v>
       </c>
@@ -4703,14 +4703,14 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" ht="13.1" spans="3:7">
+    <row r="19" ht="13.5" spans="3:7">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="3:7">
+    <row r="20" ht="13.5" spans="3:7">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -4741,29 +4741,29 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="12.35"/>
+  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="12.0442477876106" style="82" customWidth="1"/>
-    <col min="2" max="2" width="8.61061946902655" style="82"/>
-    <col min="3" max="3" width="9.46902654867257" style="82"/>
-    <col min="4" max="4" width="8.80530973451327" style="82" customWidth="1"/>
-    <col min="5" max="5" width="8.48672566371681" style="82" customWidth="1"/>
-    <col min="6" max="6" width="8.17699115044248" style="82" customWidth="1"/>
-    <col min="7" max="12" width="8.61061946902655" style="82"/>
-    <col min="13" max="13" width="10.3451327433628" style="82" customWidth="1"/>
-    <col min="14" max="14" width="8.61061946902655" style="82"/>
-    <col min="15" max="18" width="10.5044247787611" style="82" customWidth="1"/>
-    <col min="19" max="19" width="10.8053097345133" style="82" customWidth="1"/>
-    <col min="20" max="21" width="10.5044247787611" style="82" customWidth="1"/>
-    <col min="22" max="22" width="11.353982300885" style="82" customWidth="1"/>
-    <col min="23" max="25" width="11.9115044247788" style="82" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.61061946902655" style="82"/>
+    <col min="1" max="1" width="12.0416666666667" style="82" customWidth="1"/>
+    <col min="2" max="2" width="8.60833333333333" style="82"/>
+    <col min="3" max="3" width="9.46666666666667" style="82"/>
+    <col min="4" max="4" width="8.80833333333333" style="82" customWidth="1"/>
+    <col min="5" max="5" width="8.48333333333333" style="82" customWidth="1"/>
+    <col min="6" max="6" width="8.175" style="82" customWidth="1"/>
+    <col min="7" max="12" width="8.60833333333333" style="82"/>
+    <col min="13" max="13" width="10.3416666666667" style="82" customWidth="1"/>
+    <col min="14" max="14" width="8.60833333333333" style="82"/>
+    <col min="15" max="18" width="10.5083333333333" style="82" customWidth="1"/>
+    <col min="19" max="19" width="10.8083333333333" style="82" customWidth="1"/>
+    <col min="20" max="21" width="10.5083333333333" style="82" customWidth="1"/>
+    <col min="22" max="22" width="11.35" style="82" customWidth="1"/>
+    <col min="23" max="25" width="11.9083333333333" style="82" hidden="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.60833333333333" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" s="82" customFormat="1" ht="13.1" spans="1:22">
+    <row r="1" s="82" customFormat="1" ht="13.5" spans="1:22">
       <c r="A1" s="82" t="s">
         <v>16</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="U1" s="89"/>
       <c r="V1" s="89"/>
     </row>
-    <row r="2" s="82" customFormat="1" ht="13.1" spans="1:22">
+    <row r="2" s="82" customFormat="1" ht="13.5" spans="1:22">
       <c r="A2" s="82" t="s">
         <v>57</v>
       </c>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="V3" s="102"/>
     </row>
-    <row r="4" s="83" customFormat="1" ht="49.5" spans="1:22">
+    <row r="4" s="83" customFormat="1" ht="36" spans="1:22">
       <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>0.736141122969157</v>
       </c>
     </row>
-    <row r="9" s="82" customFormat="1" ht="15" spans="1:22">
+    <row r="9" s="82" customFormat="1" ht="14.25" spans="1:22">
       <c r="A9" s="86" t="s">
         <v>36</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="U11" s="91"/>
       <c r="V11" s="91"/>
     </row>
-    <row r="13" ht="26.25" spans="1:8">
+    <row r="13" ht="27" spans="1:8">
       <c r="A13" s="51" t="s">
         <v>38</v>
       </c>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="H13" s="95"/>
     </row>
-    <row r="14" ht="39.4" spans="1:22">
+    <row r="14" ht="40.5" spans="1:22">
       <c r="A14" s="95" t="s">
         <v>52</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="15" ht="52.5" spans="1:22">
+    <row r="15" ht="54" spans="1:22">
       <c r="A15" s="95" t="s">
         <v>88</v>
       </c>
@@ -5372,11 +5372,9 @@
       <c r="C15" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="96"/>
+      <c r="E15" s="94" t="s">
         <v>89</v>
-      </c>
-      <c r="E15" s="94" t="s">
-        <v>90</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="94"/>
@@ -5393,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="13.85" spans="1:21">
+    <row r="16" ht="15" spans="1:21">
       <c r="A16" s="95" t="s">
         <v>73</v>
       </c>
@@ -5413,9 +5411,9 @@
         <v>0.68929577878021</v>
       </c>
     </row>
-    <row r="17" ht="13.85" spans="1:21">
+    <row r="17" ht="15" spans="1:21">
       <c r="A17" s="95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="95">
         <v>220</v>
@@ -5433,7 +5431,7 @@
         <v>0.769602083104118</v>
       </c>
     </row>
-    <row r="18" ht="13.1" spans="1:22">
+    <row r="18" ht="13.5" spans="1:22">
       <c r="A18" s="95"/>
       <c r="B18" s="95"/>
       <c r="C18" s="94"/>
@@ -5451,33 +5449,33 @@
         <v>0.010330229303411</v>
       </c>
     </row>
-    <row r="19" ht="13.1" spans="3:7">
+    <row r="19" ht="13.5" spans="3:7">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" ht="13.1" spans="3:7">
+    <row r="20" ht="13.5" spans="3:7">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" ht="26.25" spans="6:6">
+    <row r="21" ht="13.5" spans="6:6">
       <c r="F21"/>
     </row>
-    <row r="22" ht="13.1" spans="6:6">
+    <row r="22" ht="13.5" spans="6:6">
       <c r="F22"/>
     </row>
-    <row r="23" ht="13.1" spans="6:6">
+    <row r="23" ht="13.5" spans="6:6">
       <c r="F23"/>
     </row>
-    <row r="24" ht="26.25" spans="6:6">
+    <row r="24" ht="13.5" spans="6:6">
       <c r="F24"/>
     </row>
-    <row r="25" ht="13.1" spans="6:6">
+    <row r="25" ht="13.5" spans="6:6">
       <c r="F25"/>
     </row>
   </sheetData>
@@ -5504,28 +5502,28 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="12.35"/>
+  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="12.0442477876106" style="82" customWidth="1"/>
-    <col min="2" max="2" width="8.61061946902655" style="82"/>
-    <col min="3" max="3" width="9.46902654867257" style="82"/>
-    <col min="4" max="4" width="8.80530973451327" style="82" customWidth="1"/>
-    <col min="5" max="5" width="8.48672566371681" style="82" customWidth="1"/>
-    <col min="6" max="6" width="8.17699115044248" style="82" customWidth="1"/>
-    <col min="7" max="12" width="8.61061946902655" style="82"/>
-    <col min="13" max="13" width="10.3451327433628" style="82" customWidth="1"/>
-    <col min="14" max="14" width="8.61061946902655" style="82"/>
-    <col min="15" max="19" width="10.5044247787611" style="82" customWidth="1"/>
-    <col min="20" max="20" width="11.9115044247788" style="82"/>
-    <col min="21" max="16384" width="8.61061946902655" style="82"/>
+    <col min="1" max="1" width="12.0416666666667" style="82" customWidth="1"/>
+    <col min="2" max="2" width="8.60833333333333" style="82"/>
+    <col min="3" max="3" width="9.46666666666667" style="82"/>
+    <col min="4" max="4" width="8.80833333333333" style="82" customWidth="1"/>
+    <col min="5" max="5" width="8.48333333333333" style="82" customWidth="1"/>
+    <col min="6" max="6" width="8.175" style="82" customWidth="1"/>
+    <col min="7" max="12" width="8.60833333333333" style="82"/>
+    <col min="13" max="13" width="10.3416666666667" style="82" customWidth="1"/>
+    <col min="14" max="14" width="8.60833333333333" style="82"/>
+    <col min="15" max="19" width="10.5083333333333" style="82" customWidth="1"/>
+    <col min="20" max="20" width="11.9083333333333" style="82"/>
+    <col min="21" max="16384" width="8.60833333333333" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" s="82" customFormat="1" ht="13.1" spans="1:5">
+    <row r="1" s="82" customFormat="1" ht="13.5" spans="1:5">
       <c r="A1" s="82" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
@@ -5534,12 +5532,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" s="82" customFormat="1" ht="13.1" spans="1:20">
+    <row r="2" s="82" customFormat="1" ht="13.5" spans="1:20">
       <c r="A2" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -5554,7 +5552,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P3" s="90" t="s">
         <v>79</v>
@@ -5563,7 +5561,7 @@
       <c r="R3" s="92"/>
       <c r="S3" s="93"/>
     </row>
-    <row r="4" s="83" customFormat="1" ht="49.5" spans="1:19">
+    <row r="4" s="83" customFormat="1" ht="36" spans="1:19">
       <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
@@ -5832,7 +5830,7 @@
         <v>0.0172394366197183</v>
       </c>
     </row>
-    <row r="9" s="82" customFormat="1" ht="15" spans="1:19">
+    <row r="9" s="82" customFormat="1" ht="14.25" spans="1:19">
       <c r="A9" s="86" t="s">
         <v>36</v>
       </c>
@@ -5975,7 +5973,7 @@
       <c r="R11" s="91"/>
       <c r="S11" s="91"/>
     </row>
-    <row r="13" ht="13.1" spans="1:7">
+    <row r="13" ht="13.5" spans="1:7">
       <c r="A13" s="51" t="s">
         <v>38</v>
       </c>
@@ -5998,7 +5996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="13.1" spans="1:9">
+    <row r="14" ht="13.5" spans="1:9">
       <c r="A14" s="82" t="s">
         <v>52</v>
       </c>
@@ -6019,9 +6017,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" ht="13.1" spans="1:9">
+    <row r="15" ht="13.5" spans="1:9">
       <c r="A15" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="82">
         <v>1050</v>
@@ -6038,12 +6036,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" ht="13.1" spans="3:9">
+    <row r="16" ht="13.5" spans="3:9">
       <c r="C16" t="s">
         <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E16"/>
       <c r="G16"/>
@@ -6051,7 +6049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" ht="13.1" spans="3:9">
+    <row r="17" ht="13.5" spans="3:9">
       <c r="C17" t="s">
         <v>72</v>
       </c>
@@ -6061,10 +6059,10 @@
       <c r="E17"/>
       <c r="G17"/>
       <c r="I17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" ht="13.1" spans="3:9">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" spans="3:9">
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -6073,7 +6071,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" ht="13.1" spans="3:9">
+    <row r="19" ht="13.5" spans="3:9">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -6082,7 +6080,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" ht="13.1" spans="3:9">
+    <row r="20" ht="13.5" spans="3:9">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -6091,7 +6089,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" ht="13.1" spans="3:9">
+    <row r="21" ht="13.5" spans="3:9">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -6122,18 +6120,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.72566371681416" defaultRowHeight="15.35"/>
+  <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.80530973451327" style="50" customWidth="1"/>
-    <col min="2" max="2" width="9.48672566371681" style="50" customWidth="1"/>
-    <col min="3" max="3" width="18.7345132743363" style="50" customWidth="1"/>
-    <col min="4" max="4" width="8.1858407079646" style="50" customWidth="1"/>
-    <col min="5" max="21" width="6.00884955752212" style="50" customWidth="1"/>
-    <col min="22" max="22" width="11.4159292035398" style="50" customWidth="1"/>
-    <col min="23" max="16384" width="9.72566371681416" style="50"/>
+    <col min="1" max="1" width="4.80833333333333" style="50" customWidth="1"/>
+    <col min="2" max="2" width="9.48333333333333" style="50" customWidth="1"/>
+    <col min="3" max="3" width="18.7333333333333" style="50" customWidth="1"/>
+    <col min="4" max="4" width="8.18333333333333" style="50" customWidth="1"/>
+    <col min="5" max="21" width="6.00833333333333" style="50" customWidth="1"/>
+    <col min="22" max="22" width="11.4166666666667" style="50" customWidth="1"/>
+    <col min="23" max="16384" width="9.725" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" s="49" customFormat="1" ht="10.9" spans="1:21">
+    <row r="1" s="49" customFormat="1" ht="11.25" spans="1:21">
       <c r="A1" s="51" t="s">
         <v>100</v>
       </c>
@@ -6198,7 +6196,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="1" ht="10.85" spans="1:22">
+    <row r="2" s="16" customFormat="1" ht="11.25" spans="1:22">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -6244,7 +6242,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="3" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -6291,7 +6289,7 @@
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
     </row>
-    <row r="4" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="4" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -6340,7 +6338,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="5" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -6385,7 +6383,7 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="6" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -6430,7 +6428,7 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="7" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -6469,7 +6467,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="8" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -6510,7 +6508,7 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="9" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -6551,7 +6549,7 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="10" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -6586,7 +6584,7 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="11" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -6629,7 +6627,7 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="12" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -6666,7 +6664,7 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="13" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -6705,7 +6703,7 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="14" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -6740,7 +6738,7 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="15" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -6748,7 +6746,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="54">
@@ -6781,7 +6779,7 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
     </row>
-    <row r="16" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="16" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -6812,7 +6810,7 @@
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
     </row>
-    <row r="17" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="17" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -6845,7 +6843,7 @@
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
     </row>
-    <row r="18" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="18" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -6882,7 +6880,7 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
     </row>
-    <row r="19" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="19" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -6923,7 +6921,7 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
     </row>
-    <row r="20" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="20" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -6964,7 +6962,7 @@
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
     </row>
-    <row r="21" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="21" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -6997,7 +6995,7 @@
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
     </row>
-    <row r="22" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="22" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -7038,7 +7036,7 @@
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
     </row>
-    <row r="23" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="23" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -7079,7 +7077,7 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
     </row>
-    <row r="24" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="24" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -7123,7 +7121,7 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
     </row>
-    <row r="25" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="25" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -7174,7 +7172,7 @@
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
     </row>
-    <row r="26" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="26" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -7213,7 +7211,7 @@
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
     </row>
-    <row r="27" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="27" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -7252,7 +7250,7 @@
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
     </row>
-    <row r="28" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="28" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -7293,7 +7291,7 @@
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
     </row>
-    <row r="29" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="29" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -7340,7 +7338,7 @@
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
     </row>
-    <row r="30" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="30" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -7383,7 +7381,7 @@
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
     </row>
-    <row r="31" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="31" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -7426,7 +7424,7 @@
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
     </row>
-    <row r="32" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="32" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -7469,7 +7467,7 @@
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
     </row>
-    <row r="33" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="33" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -7512,7 +7510,7 @@
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
     </row>
-    <row r="34" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="34" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -7547,7 +7545,7 @@
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
     </row>
-    <row r="35" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="35" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -7580,7 +7578,7 @@
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
     </row>
-    <row r="36" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="36" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -7621,7 +7619,7 @@
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
     </row>
-    <row r="37" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="37" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -7662,7 +7660,7 @@
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
     </row>
-    <row r="38" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="38" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -7697,7 +7695,7 @@
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
     </row>
-    <row r="39" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="39" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -7734,7 +7732,7 @@
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
     </row>
-    <row r="40" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="40" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -7771,7 +7769,7 @@
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
     </row>
-    <row r="41" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="41" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -7802,7 +7800,7 @@
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
     </row>
-    <row r="42" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="42" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -7835,7 +7833,7 @@
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
     </row>
-    <row r="43" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="43" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -7843,7 +7841,7 @@
         <v>148</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="60">
@@ -7868,7 +7866,7 @@
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
     </row>
-    <row r="44" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="44" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -7909,7 +7907,7 @@
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
     </row>
-    <row r="45" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="45" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -7952,7 +7950,7 @@
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
     </row>
-    <row r="46" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="46" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -7993,7 +7991,7 @@
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
     </row>
-    <row r="47" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="47" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A47" s="19">
         <v>46</v>
       </c>
@@ -8034,7 +8032,7 @@
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
     </row>
-    <row r="48" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="48" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A48" s="19">
         <v>47</v>
       </c>
@@ -8075,7 +8073,7 @@
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
     </row>
-    <row r="49" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="49" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A49" s="19">
         <v>48</v>
       </c>
@@ -8116,7 +8114,7 @@
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
     </row>
-    <row r="50" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="50" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A50" s="19">
         <v>49</v>
       </c>
@@ -8155,7 +8153,7 @@
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
     </row>
-    <row r="51" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="51" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A51" s="19">
         <v>50</v>
       </c>
@@ -8194,7 +8192,7 @@
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
     </row>
-    <row r="52" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="52" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -8235,7 +8233,7 @@
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
     </row>
-    <row r="53" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="53" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A53" s="19">
         <v>52</v>
       </c>
@@ -8307,7 +8305,7 @@
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
     </row>
-    <row r="55" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="55" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A55" s="19">
         <v>54</v>
       </c>
@@ -8315,7 +8313,7 @@
         <v>162</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="61">
@@ -8340,7 +8338,7 @@
       <c r="T55" s="20"/>
       <c r="U55" s="20"/>
     </row>
-    <row r="56" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="56" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A56" s="19">
         <v>55</v>
       </c>
@@ -8377,7 +8375,7 @@
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
     </row>
-    <row r="57" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="57" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A57" s="19">
         <v>56</v>
       </c>
@@ -8420,7 +8418,7 @@
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
     </row>
-    <row r="58" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="58" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A58" s="19">
         <v>57</v>
       </c>
@@ -8463,7 +8461,7 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
     </row>
-    <row r="59" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="59" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A59" s="19">
         <v>58</v>
       </c>
@@ -8506,7 +8504,7 @@
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
     </row>
-    <row r="60" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="60" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A60" s="19">
         <v>59</v>
       </c>
@@ -8549,7 +8547,7 @@
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
     </row>
-    <row r="61" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="61" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A61" s="19">
         <v>60</v>
       </c>
@@ -8592,7 +8590,7 @@
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
     </row>
-    <row r="62" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="62" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A62" s="19">
         <v>61</v>
       </c>
@@ -8635,7 +8633,7 @@
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
     </row>
-    <row r="63" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="63" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A63" s="19">
         <v>62</v>
       </c>
@@ -8672,7 +8670,7 @@
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
     </row>
-    <row r="64" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="64" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A64" s="19">
         <v>63</v>
       </c>
@@ -8711,7 +8709,7 @@
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
     </row>
-    <row r="65" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="65" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -8748,7 +8746,7 @@
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
     </row>
-    <row r="66" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="66" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -8785,7 +8783,7 @@
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
     </row>
-    <row r="67" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="67" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -8822,7 +8820,7 @@
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
     </row>
-    <row r="68" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="68" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -8861,7 +8859,7 @@
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
     </row>
-    <row r="69" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="69" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -8910,7 +8908,7 @@
       <c r="T69" s="20"/>
       <c r="U69" s="20"/>
     </row>
-    <row r="70" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="70" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -8953,7 +8951,7 @@
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
     </row>
-    <row r="71" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="71" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -8996,7 +8994,7 @@
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
     </row>
-    <row r="72" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="72" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -9039,7 +9037,7 @@
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
     </row>
-    <row r="73" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="73" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -9082,7 +9080,7 @@
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
     </row>
-    <row r="74" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="74" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -9125,7 +9123,7 @@
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
     </row>
-    <row r="75" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="75" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -9168,7 +9166,7 @@
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
     </row>
-    <row r="76" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="76" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -9209,7 +9207,7 @@
       <c r="T76" s="20"/>
       <c r="U76" s="20"/>
     </row>
-    <row r="77" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="77" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -9246,7 +9244,7 @@
       <c r="T77" s="20"/>
       <c r="U77" s="20"/>
     </row>
-    <row r="78" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="78" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -9283,7 +9281,7 @@
       <c r="T78" s="20"/>
       <c r="U78" s="20"/>
     </row>
-    <row r="79" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="79" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A79" s="19">
         <v>78</v>
       </c>
@@ -9320,7 +9318,7 @@
       <c r="T79" s="20"/>
       <c r="U79" s="20"/>
     </row>
-    <row r="80" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="80" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A80" s="19">
         <v>79</v>
       </c>
@@ -9353,7 +9351,7 @@
       <c r="T80" s="20"/>
       <c r="U80" s="20"/>
     </row>
-    <row r="81" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="81" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A81" s="19">
         <v>80</v>
       </c>
@@ -9388,7 +9386,7 @@
       <c r="T81" s="20"/>
       <c r="U81" s="20"/>
     </row>
-    <row r="82" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="82" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A82" s="19">
         <v>81</v>
       </c>
@@ -9429,7 +9427,7 @@
       <c r="T82" s="20"/>
       <c r="U82" s="20"/>
     </row>
-    <row r="83" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="83" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A83" s="19">
         <v>82</v>
       </c>
@@ -9470,7 +9468,7 @@
       <c r="T83" s="20"/>
       <c r="U83" s="20"/>
     </row>
-    <row r="84" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="84" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A84" s="19">
         <v>83</v>
       </c>
@@ -9511,7 +9509,7 @@
       <c r="T84" s="20"/>
       <c r="U84" s="20"/>
     </row>
-    <row r="85" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="85" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -9552,7 +9550,7 @@
       <c r="T85" s="20"/>
       <c r="U85" s="20"/>
     </row>
-    <row r="86" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="86" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A86" s="19">
         <v>85</v>
       </c>
@@ -9587,7 +9585,7 @@
       <c r="T86" s="20"/>
       <c r="U86" s="20"/>
     </row>
-    <row r="87" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="87" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A87" s="19">
         <v>86</v>
       </c>
@@ -9622,7 +9620,7 @@
       <c r="T87" s="20"/>
       <c r="U87" s="20"/>
     </row>
-    <row r="88" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="88" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A88" s="19">
         <v>87</v>
       </c>
@@ -9659,7 +9657,7 @@
       <c r="T88" s="20"/>
       <c r="U88" s="20"/>
     </row>
-    <row r="89" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="89" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A89" s="19">
         <v>88</v>
       </c>
@@ -9696,7 +9694,7 @@
       <c r="T89" s="20"/>
       <c r="U89" s="20"/>
     </row>
-    <row r="90" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="90" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A90" s="19">
         <v>89</v>
       </c>
@@ -9733,7 +9731,7 @@
       <c r="T90" s="20"/>
       <c r="U90" s="20"/>
     </row>
-    <row r="91" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="91" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A91" s="19">
         <v>90</v>
       </c>
@@ -9768,7 +9766,7 @@
       <c r="T91" s="20"/>
       <c r="U91" s="20"/>
     </row>
-    <row r="92" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="92" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A92" s="19">
         <v>91</v>
       </c>
@@ -9809,7 +9807,7 @@
       <c r="T92" s="20"/>
       <c r="U92" s="20"/>
     </row>
-    <row r="93" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="93" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A93" s="19">
         <v>92</v>
       </c>
@@ -9852,7 +9850,7 @@
       <c r="T93" s="20"/>
       <c r="U93" s="20"/>
     </row>
-    <row r="94" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="94" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -9893,7 +9891,7 @@
       <c r="T94" s="20"/>
       <c r="U94" s="20"/>
     </row>
-    <row r="95" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="95" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -9971,7 +9969,7 @@
       <c r="T96" s="20"/>
       <c r="U96" s="20"/>
     </row>
-    <row r="97" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="97" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -10014,7 +10012,7 @@
       <c r="T97" s="20"/>
       <c r="U97" s="20"/>
     </row>
-    <row r="98" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="98" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -10057,7 +10055,7 @@
       <c r="T98" s="20"/>
       <c r="U98" s="20"/>
     </row>
-    <row r="99" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="99" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -10090,7 +10088,7 @@
       <c r="T99" s="20"/>
       <c r="U99" s="20"/>
     </row>
-    <row r="100" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="100" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -10127,7 +10125,7 @@
       <c r="T100" s="20"/>
       <c r="U100" s="20"/>
     </row>
-    <row r="101" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="101" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -10170,7 +10168,7 @@
       <c r="T101" s="20"/>
       <c r="U101" s="20"/>
     </row>
-    <row r="102" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="102" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -10213,7 +10211,7 @@
       <c r="T102" s="20"/>
       <c r="U102" s="20"/>
     </row>
-    <row r="103" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="103" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -10256,7 +10254,7 @@
       <c r="T103" s="20"/>
       <c r="U103" s="20"/>
     </row>
-    <row r="104" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="104" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -10299,7 +10297,7 @@
       <c r="T104" s="20"/>
       <c r="U104" s="20"/>
     </row>
-    <row r="105" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="105" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -10342,7 +10340,7 @@
       <c r="T105" s="20"/>
       <c r="U105" s="20"/>
     </row>
-    <row r="106" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="106" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -10381,7 +10379,7 @@
       <c r="T106" s="20"/>
       <c r="U106" s="20"/>
     </row>
-    <row r="107" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="107" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A107" s="19">
         <v>106</v>
       </c>
@@ -10422,7 +10420,7 @@
       <c r="T107" s="20"/>
       <c r="U107" s="20"/>
     </row>
-    <row r="108" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="108" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -10463,7 +10461,7 @@
       <c r="T108" s="20"/>
       <c r="U108" s="20"/>
     </row>
-    <row r="109" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="109" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A109" s="19">
         <v>108</v>
       </c>
@@ -10500,7 +10498,7 @@
       <c r="T109" s="20"/>
       <c r="U109" s="20"/>
     </row>
-    <row r="110" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="110" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A110" s="19">
         <v>109</v>
       </c>
@@ -10541,7 +10539,7 @@
       <c r="T110" s="20"/>
       <c r="U110" s="20"/>
     </row>
-    <row r="111" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="111" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A111" s="19">
         <v>110</v>
       </c>
@@ -10577,7 +10575,7 @@
       <c r="T111" s="20"/>
       <c r="U111" s="20"/>
     </row>
-    <row r="112" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="112" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A112" s="19">
         <v>111</v>
       </c>
@@ -10613,7 +10611,7 @@
       <c r="T112" s="20"/>
       <c r="U112" s="20"/>
     </row>
-    <row r="113" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="113" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A113" s="19">
         <v>112</v>
       </c>
@@ -10646,7 +10644,7 @@
       <c r="T113" s="20"/>
       <c r="U113" s="20"/>
     </row>
-    <row r="114" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="114" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A114" s="19">
         <v>113</v>
       </c>
@@ -10683,7 +10681,7 @@
       <c r="T114" s="20"/>
       <c r="U114" s="20"/>
     </row>
-    <row r="115" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="115" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A115" s="19">
         <v>114</v>
       </c>
@@ -10720,7 +10718,7 @@
       <c r="T115" s="20"/>
       <c r="U115" s="20"/>
     </row>
-    <row r="116" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="116" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A116" s="19">
         <v>115</v>
       </c>
@@ -10757,7 +10755,7 @@
       <c r="T116" s="20"/>
       <c r="U116" s="20"/>
     </row>
-    <row r="117" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="117" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A117" s="19">
         <v>116</v>
       </c>
@@ -10798,7 +10796,7 @@
       <c r="T117" s="20"/>
       <c r="U117" s="20"/>
     </row>
-    <row r="118" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="118" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A118" s="19">
         <v>117</v>
       </c>
@@ -11014,7 +11012,7 @@
       <c r="T123" s="20"/>
       <c r="U123" s="20"/>
     </row>
-    <row r="124" s="16" customFormat="1" ht="10.85" hidden="1" spans="1:21">
+    <row r="124" s="16" customFormat="1" ht="11.25" hidden="1" spans="1:21">
       <c r="A124" s="19">
         <v>123</v>
       </c>
@@ -11039,7 +11037,7 @@
       <c r="T124" s="20"/>
       <c r="U124" s="20"/>
     </row>
-    <row r="125" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="125" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A125" s="19">
         <v>124</v>
       </c>
@@ -11072,7 +11070,7 @@
       <c r="T125" s="20"/>
       <c r="U125" s="20"/>
     </row>
-    <row r="126" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="126" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A126" s="19">
         <v>125</v>
       </c>
@@ -11103,7 +11101,7 @@
       <c r="T126" s="20"/>
       <c r="U126" s="20"/>
     </row>
-    <row r="127" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="127" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A127" s="19">
         <v>126</v>
       </c>
@@ -11138,7 +11136,7 @@
       <c r="T127" s="20"/>
       <c r="U127" s="20"/>
     </row>
-    <row r="128" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="128" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A128" s="19">
         <v>127</v>
       </c>
@@ -11173,7 +11171,7 @@
       <c r="T128" s="20"/>
       <c r="U128" s="20"/>
     </row>
-    <row r="129" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="129" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A129" s="19">
         <v>128</v>
       </c>
@@ -11204,7 +11202,7 @@
       <c r="T129" s="20"/>
       <c r="U129" s="20"/>
     </row>
-    <row r="130" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="130" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A130" s="19">
         <v>129</v>
       </c>
@@ -11229,7 +11227,7 @@
       <c r="T130" s="20"/>
       <c r="U130" s="20"/>
     </row>
-    <row r="131" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="131" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A131" s="19">
         <v>130</v>
       </c>
@@ -11254,7 +11252,7 @@
       <c r="T131" s="20"/>
       <c r="U131" s="20"/>
     </row>
-    <row r="132" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="132" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A132" s="19">
         <v>131</v>
       </c>
@@ -11279,7 +11277,7 @@
       <c r="T132" s="20"/>
       <c r="U132" s="20"/>
     </row>
-    <row r="133" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="133" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A133" s="19">
         <v>132</v>
       </c>
@@ -11304,7 +11302,7 @@
       <c r="T133" s="20"/>
       <c r="U133" s="20"/>
     </row>
-    <row r="134" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="134" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A134" s="19">
         <v>133</v>
       </c>
@@ -11329,7 +11327,7 @@
       <c r="T134" s="20"/>
       <c r="U134" s="20"/>
     </row>
-    <row r="135" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="135" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A135" s="19">
         <v>134</v>
       </c>
@@ -11354,7 +11352,7 @@
       <c r="T135" s="20"/>
       <c r="U135" s="20"/>
     </row>
-    <row r="136" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="136" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A136" s="19">
         <v>135</v>
       </c>
@@ -11379,7 +11377,7 @@
       <c r="T136" s="20"/>
       <c r="U136" s="20"/>
     </row>
-    <row r="137" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="137" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A137" s="19">
         <v>136</v>
       </c>
@@ -11404,7 +11402,7 @@
       <c r="T137" s="20"/>
       <c r="U137" s="20"/>
     </row>
-    <row r="138" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="138" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A138" s="19">
         <v>137</v>
       </c>
@@ -11435,7 +11433,7 @@
       <c r="T138" s="20"/>
       <c r="U138" s="20"/>
     </row>
-    <row r="139" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="139" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A139" s="19">
         <v>138</v>
       </c>
@@ -11466,7 +11464,7 @@
       <c r="T139" s="20"/>
       <c r="U139" s="20"/>
     </row>
-    <row r="140" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="140" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A140" s="19">
         <v>139</v>
       </c>
@@ -11497,7 +11495,7 @@
       <c r="T140" s="20"/>
       <c r="U140" s="20"/>
     </row>
-    <row r="141" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="141" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A141" s="19">
         <v>140</v>
       </c>
@@ -11528,7 +11526,7 @@
       <c r="T141" s="20"/>
       <c r="U141" s="20"/>
     </row>
-    <row r="142" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="142" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A142" s="19">
         <v>141</v>
       </c>
@@ -11559,7 +11557,7 @@
       <c r="T142" s="20"/>
       <c r="U142" s="20"/>
     </row>
-    <row r="143" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="143" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A143" s="19">
         <v>142</v>
       </c>
@@ -11590,7 +11588,7 @@
       <c r="T143" s="20"/>
       <c r="U143" s="20"/>
     </row>
-    <row r="144" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="144" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A144" s="19">
         <v>143</v>
       </c>
@@ -11621,7 +11619,7 @@
       <c r="T144" s="20"/>
       <c r="U144" s="20"/>
     </row>
-    <row r="145" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="145" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A145" s="19">
         <v>144</v>
       </c>
@@ -11652,7 +11650,7 @@
       <c r="T145" s="20"/>
       <c r="U145" s="20"/>
     </row>
-    <row r="146" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="146" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A146" s="19">
         <v>145</v>
       </c>
@@ -11683,7 +11681,7 @@
       <c r="T146" s="20"/>
       <c r="U146" s="20"/>
     </row>
-    <row r="147" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="147" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A147" s="19">
         <v>146</v>
       </c>
@@ -11714,7 +11712,7 @@
       <c r="T147" s="20"/>
       <c r="U147" s="20"/>
     </row>
-    <row r="148" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="148" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A148" s="19">
         <v>147</v>
       </c>
@@ -11745,7 +11743,7 @@
       <c r="T148" s="20"/>
       <c r="U148" s="20"/>
     </row>
-    <row r="149" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="149" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A149" s="19">
         <v>148</v>
       </c>
@@ -11776,7 +11774,7 @@
       <c r="T149" s="20"/>
       <c r="U149" s="20"/>
     </row>
-    <row r="150" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="150" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A150" s="19">
         <v>149</v>
       </c>
@@ -11807,7 +11805,7 @@
       <c r="T150" s="20"/>
       <c r="U150" s="20"/>
     </row>
-    <row r="151" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="151" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A151" s="19">
         <v>150</v>
       </c>
@@ -11838,7 +11836,7 @@
       <c r="T151" s="20"/>
       <c r="U151" s="20"/>
     </row>
-    <row r="152" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="152" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A152" s="19">
         <v>151</v>
       </c>
@@ -11869,7 +11867,7 @@
       <c r="T152" s="20"/>
       <c r="U152" s="20"/>
     </row>
-    <row r="153" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="153" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A153" s="19">
         <v>152</v>
       </c>
@@ -11900,7 +11898,7 @@
       <c r="T153" s="20"/>
       <c r="U153" s="20"/>
     </row>
-    <row r="154" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="154" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A154" s="19">
         <v>153</v>
       </c>
@@ -11931,7 +11929,7 @@
       <c r="T154" s="20"/>
       <c r="U154" s="20"/>
     </row>
-    <row r="155" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="155" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A155" s="19">
         <v>154</v>
       </c>
@@ -11962,7 +11960,7 @@
       <c r="T155" s="20"/>
       <c r="U155" s="20"/>
     </row>
-    <row r="156" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="156" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A156" s="19">
         <v>155</v>
       </c>
@@ -11993,7 +11991,7 @@
       <c r="T156" s="20"/>
       <c r="U156" s="20"/>
     </row>
-    <row r="157" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="157" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A157" s="19">
         <v>156</v>
       </c>
@@ -12024,7 +12022,7 @@
       <c r="T157" s="20"/>
       <c r="U157" s="20"/>
     </row>
-    <row r="158" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="158" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A158" s="19">
         <v>157</v>
       </c>
@@ -12055,7 +12053,7 @@
       <c r="T158" s="20"/>
       <c r="U158" s="20"/>
     </row>
-    <row r="159" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="159" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A159" s="19">
         <v>158</v>
       </c>
@@ -12086,7 +12084,7 @@
       <c r="T159" s="20"/>
       <c r="U159" s="20"/>
     </row>
-    <row r="160" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="160" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A160" s="19">
         <v>159</v>
       </c>
@@ -12117,7 +12115,7 @@
       <c r="T160" s="20"/>
       <c r="U160" s="20"/>
     </row>
-    <row r="161" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="161" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A161" s="19">
         <v>160</v>
       </c>
@@ -12148,7 +12146,7 @@
       <c r="T161" s="20"/>
       <c r="U161" s="20"/>
     </row>
-    <row r="162" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="162" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A162" s="19">
         <v>161</v>
       </c>
@@ -12179,7 +12177,7 @@
       <c r="T162" s="20"/>
       <c r="U162" s="20"/>
     </row>
-    <row r="163" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="163" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A163" s="19">
         <v>162</v>
       </c>
@@ -12210,7 +12208,7 @@
       <c r="T163" s="20"/>
       <c r="U163" s="20"/>
     </row>
-    <row r="164" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="164" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A164" s="19">
         <v>163</v>
       </c>
@@ -12241,7 +12239,7 @@
       <c r="T164" s="20"/>
       <c r="U164" s="20"/>
     </row>
-    <row r="165" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="165" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A165" s="19">
         <v>164</v>
       </c>
@@ -12272,7 +12270,7 @@
       <c r="T165" s="20"/>
       <c r="U165" s="20"/>
     </row>
-    <row r="166" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="166" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A166" s="19">
         <v>165</v>
       </c>
@@ -12297,7 +12295,7 @@
       <c r="T166" s="20"/>
       <c r="U166" s="20"/>
     </row>
-    <row r="167" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="167" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A167" s="19">
         <v>166</v>
       </c>
@@ -12322,7 +12320,7 @@
       <c r="T167" s="20"/>
       <c r="U167" s="20"/>
     </row>
-    <row r="168" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="168" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A168" s="19">
         <v>167</v>
       </c>
@@ -12347,7 +12345,7 @@
       <c r="T168" s="20"/>
       <c r="U168" s="20"/>
     </row>
-    <row r="169" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="169" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A169" s="19">
         <v>168</v>
       </c>
@@ -12372,7 +12370,7 @@
       <c r="T169" s="20"/>
       <c r="U169" s="20"/>
     </row>
-    <row r="170" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="170" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A170" s="19">
         <v>169</v>
       </c>
@@ -12397,7 +12395,7 @@
       <c r="T170" s="20"/>
       <c r="U170" s="20"/>
     </row>
-    <row r="171" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="171" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A171" s="19">
         <v>170</v>
       </c>
@@ -12422,7 +12420,7 @@
       <c r="T171" s="20"/>
       <c r="U171" s="20"/>
     </row>
-    <row r="172" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="172" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A172" s="19">
         <v>171</v>
       </c>
@@ -12447,7 +12445,7 @@
       <c r="T172" s="20"/>
       <c r="U172" s="20"/>
     </row>
-    <row r="173" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="173" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A173" s="19">
         <v>172</v>
       </c>
@@ -12472,7 +12470,7 @@
       <c r="T173" s="20"/>
       <c r="U173" s="20"/>
     </row>
-    <row r="174" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="174" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A174" s="19">
         <v>173</v>
       </c>
@@ -12497,7 +12495,7 @@
       <c r="T174" s="20"/>
       <c r="U174" s="20"/>
     </row>
-    <row r="175" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="175" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A175" s="19">
         <v>174</v>
       </c>
@@ -12522,7 +12520,7 @@
       <c r="T175" s="20"/>
       <c r="U175" s="20"/>
     </row>
-    <row r="176" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="176" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A176" s="19">
         <v>175</v>
       </c>
@@ -12547,7 +12545,7 @@
       <c r="T176" s="20"/>
       <c r="U176" s="20"/>
     </row>
-    <row r="177" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="177" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A177" s="19">
         <v>176</v>
       </c>
@@ -12572,7 +12570,7 @@
       <c r="T177" s="20"/>
       <c r="U177" s="20"/>
     </row>
-    <row r="178" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="178" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A178" s="19">
         <v>177</v>
       </c>
@@ -12597,7 +12595,7 @@
       <c r="T178" s="20"/>
       <c r="U178" s="20"/>
     </row>
-    <row r="179" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="179" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A179" s="19">
         <v>178</v>
       </c>
@@ -12622,7 +12620,7 @@
       <c r="T179" s="20"/>
       <c r="U179" s="20"/>
     </row>
-    <row r="180" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="180" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A180" s="19">
         <v>179</v>
       </c>
@@ -12647,7 +12645,7 @@
       <c r="T180" s="20"/>
       <c r="U180" s="20"/>
     </row>
-    <row r="181" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="181" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A181" s="19">
         <v>180</v>
       </c>
@@ -12672,7 +12670,7 @@
       <c r="T181" s="20"/>
       <c r="U181" s="20"/>
     </row>
-    <row r="182" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="182" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A182" s="19">
         <v>181</v>
       </c>
@@ -12697,7 +12695,7 @@
       <c r="T182" s="20"/>
       <c r="U182" s="20"/>
     </row>
-    <row r="183" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="183" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A183" s="19">
         <v>182</v>
       </c>
@@ -12722,7 +12720,7 @@
       <c r="T183" s="20"/>
       <c r="U183" s="20"/>
     </row>
-    <row r="184" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="184" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A184" s="19">
         <v>183</v>
       </c>
@@ -12747,7 +12745,7 @@
       <c r="T184" s="20"/>
       <c r="U184" s="20"/>
     </row>
-    <row r="185" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="185" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A185" s="19">
         <v>184</v>
       </c>
@@ -12772,7 +12770,7 @@
       <c r="T185" s="20"/>
       <c r="U185" s="20"/>
     </row>
-    <row r="186" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="186" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A186" s="19">
         <v>185</v>
       </c>
@@ -12797,7 +12795,7 @@
       <c r="T186" s="20"/>
       <c r="U186" s="20"/>
     </row>
-    <row r="187" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="187" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A187" s="19">
         <v>186</v>
       </c>
@@ -12822,7 +12820,7 @@
       <c r="T187" s="20"/>
       <c r="U187" s="20"/>
     </row>
-    <row r="188" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="188" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A188" s="19">
         <v>187</v>
       </c>
@@ -12847,7 +12845,7 @@
       <c r="T188" s="20"/>
       <c r="U188" s="20"/>
     </row>
-    <row r="189" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="189" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A189" s="19">
         <v>188</v>
       </c>
@@ -12872,7 +12870,7 @@
       <c r="T189" s="20"/>
       <c r="U189" s="20"/>
     </row>
-    <row r="190" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="190" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A190" s="19">
         <v>189</v>
       </c>
@@ -12897,7 +12895,7 @@
       <c r="T190" s="20"/>
       <c r="U190" s="20"/>
     </row>
-    <row r="191" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="191" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A191" s="19">
         <v>190</v>
       </c>
@@ -12922,7 +12920,7 @@
       <c r="T191" s="20"/>
       <c r="U191" s="20"/>
     </row>
-    <row r="192" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="192" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A192" s="19">
         <v>191</v>
       </c>
@@ -12947,7 +12945,7 @@
       <c r="T192" s="20"/>
       <c r="U192" s="20"/>
     </row>
-    <row r="193" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="193" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A193" s="19">
         <v>192</v>
       </c>
@@ -12972,7 +12970,7 @@
       <c r="T193" s="20"/>
       <c r="U193" s="20"/>
     </row>
-    <row r="194" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="194" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A194" s="19">
         <v>193</v>
       </c>
@@ -12997,7 +12995,7 @@
       <c r="T194" s="20"/>
       <c r="U194" s="20"/>
     </row>
-    <row r="195" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="195" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A195" s="19">
         <v>194</v>
       </c>
@@ -13022,7 +13020,7 @@
       <c r="T195" s="20"/>
       <c r="U195" s="20"/>
     </row>
-    <row r="196" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="196" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A196" s="19">
         <v>195</v>
       </c>
@@ -13047,7 +13045,7 @@
       <c r="T196" s="20"/>
       <c r="U196" s="20"/>
     </row>
-    <row r="197" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="197" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A197" s="19">
         <v>196</v>
       </c>
@@ -13072,7 +13070,7 @@
       <c r="T197" s="20"/>
       <c r="U197" s="20"/>
     </row>
-    <row r="198" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="198" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A198" s="19">
         <v>197</v>
       </c>
@@ -13097,7 +13095,7 @@
       <c r="T198" s="20"/>
       <c r="U198" s="20"/>
     </row>
-    <row r="199" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="199" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A199" s="19">
         <v>198</v>
       </c>
@@ -13122,7 +13120,7 @@
       <c r="T199" s="20"/>
       <c r="U199" s="20"/>
     </row>
-    <row r="200" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="200" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A200" s="19">
         <v>199</v>
       </c>
@@ -13147,7 +13145,7 @@
       <c r="T200" s="20"/>
       <c r="U200" s="20"/>
     </row>
-    <row r="201" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="201" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A201" s="19">
         <v>200</v>
       </c>
@@ -13172,7 +13170,7 @@
       <c r="T201" s="20"/>
       <c r="U201" s="20"/>
     </row>
-    <row r="202" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="202" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A202" s="19">
         <v>201</v>
       </c>
@@ -13197,7 +13195,7 @@
       <c r="T202" s="20"/>
       <c r="U202" s="20"/>
     </row>
-    <row r="203" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="203" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A203" s="19">
         <v>202</v>
       </c>
@@ -13222,7 +13220,7 @@
       <c r="T203" s="20"/>
       <c r="U203" s="20"/>
     </row>
-    <row r="204" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="204" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A204" s="19">
         <v>203</v>
       </c>
@@ -13247,7 +13245,7 @@
       <c r="T204" s="20"/>
       <c r="U204" s="20"/>
     </row>
-    <row r="205" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="205" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A205" s="19">
         <v>204</v>
       </c>
@@ -13272,7 +13270,7 @@
       <c r="T205" s="20"/>
       <c r="U205" s="20"/>
     </row>
-    <row r="206" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="206" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A206" s="19">
         <v>205</v>
       </c>
@@ -13297,7 +13295,7 @@
       <c r="T206" s="20"/>
       <c r="U206" s="20"/>
     </row>
-    <row r="207" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="207" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A207" s="19">
         <v>206</v>
       </c>
@@ -13322,7 +13320,7 @@
       <c r="T207" s="20"/>
       <c r="U207" s="20"/>
     </row>
-    <row r="208" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="208" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A208" s="19">
         <v>207</v>
       </c>
@@ -13347,7 +13345,7 @@
       <c r="T208" s="20"/>
       <c r="U208" s="20"/>
     </row>
-    <row r="209" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="209" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A209" s="19">
         <v>208</v>
       </c>
@@ -13372,7 +13370,7 @@
       <c r="T209" s="20"/>
       <c r="U209" s="20"/>
     </row>
-    <row r="210" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="210" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A210" s="19">
         <v>209</v>
       </c>
@@ -13397,7 +13395,7 @@
       <c r="T210" s="20"/>
       <c r="U210" s="20"/>
     </row>
-    <row r="211" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="211" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A211" s="19">
         <v>210</v>
       </c>
@@ -13422,7 +13420,7 @@
       <c r="T211" s="20"/>
       <c r="U211" s="20"/>
     </row>
-    <row r="212" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="212" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A212" s="19">
         <v>211</v>
       </c>
@@ -13447,7 +13445,7 @@
       <c r="T212" s="20"/>
       <c r="U212" s="20"/>
     </row>
-    <row r="213" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="213" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A213" s="19">
         <v>212</v>
       </c>
@@ -13472,7 +13470,7 @@
       <c r="T213" s="20"/>
       <c r="U213" s="20"/>
     </row>
-    <row r="214" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="214" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A214" s="19">
         <v>213</v>
       </c>
@@ -13497,7 +13495,7 @@
       <c r="T214" s="20"/>
       <c r="U214" s="20"/>
     </row>
-    <row r="215" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="215" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A215" s="19">
         <v>214</v>
       </c>
@@ -13522,7 +13520,7 @@
       <c r="T215" s="20"/>
       <c r="U215" s="20"/>
     </row>
-    <row r="216" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="216" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A216" s="19">
         <v>215</v>
       </c>
@@ -13547,7 +13545,7 @@
       <c r="T216" s="20"/>
       <c r="U216" s="20"/>
     </row>
-    <row r="217" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="217" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A217" s="19">
         <v>216</v>
       </c>
@@ -13572,7 +13570,7 @@
       <c r="T217" s="20"/>
       <c r="U217" s="20"/>
     </row>
-    <row r="218" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="218" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A218" s="19">
         <v>217</v>
       </c>
@@ -13597,7 +13595,7 @@
       <c r="T218" s="20"/>
       <c r="U218" s="20"/>
     </row>
-    <row r="219" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="219" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A219" s="19">
         <v>218</v>
       </c>
@@ -13622,7 +13620,7 @@
       <c r="T219" s="20"/>
       <c r="U219" s="20"/>
     </row>
-    <row r="220" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="220" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A220" s="19">
         <v>219</v>
       </c>
@@ -13647,7 +13645,7 @@
       <c r="T220" s="20"/>
       <c r="U220" s="20"/>
     </row>
-    <row r="221" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="221" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A221" s="19">
         <v>220</v>
       </c>
@@ -13672,7 +13670,7 @@
       <c r="T221" s="20"/>
       <c r="U221" s="20"/>
     </row>
-    <row r="222" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="222" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A222" s="19">
         <v>221</v>
       </c>
@@ -13697,7 +13695,7 @@
       <c r="T222" s="20"/>
       <c r="U222" s="20"/>
     </row>
-    <row r="223" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="223" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A223" s="19">
         <v>222</v>
       </c>
@@ -13722,7 +13720,7 @@
       <c r="T223" s="20"/>
       <c r="U223" s="20"/>
     </row>
-    <row r="224" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="224" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A224" s="19">
         <v>223</v>
       </c>
@@ -13747,7 +13745,7 @@
       <c r="T224" s="20"/>
       <c r="U224" s="20"/>
     </row>
-    <row r="225" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="225" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A225" s="19">
         <v>224</v>
       </c>
@@ -13772,7 +13770,7 @@
       <c r="T225" s="20"/>
       <c r="U225" s="20"/>
     </row>
-    <row r="226" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="226" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A226" s="19">
         <v>225</v>
       </c>
@@ -13797,7 +13795,7 @@
       <c r="T226" s="20"/>
       <c r="U226" s="20"/>
     </row>
-    <row r="227" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="227" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A227" s="19">
         <v>226</v>
       </c>
@@ -13822,7 +13820,7 @@
       <c r="T227" s="20"/>
       <c r="U227" s="20"/>
     </row>
-    <row r="228" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="228" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A228" s="19">
         <v>227</v>
       </c>
@@ -13847,7 +13845,7 @@
       <c r="T228" s="20"/>
       <c r="U228" s="20"/>
     </row>
-    <row r="229" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="229" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A229" s="19">
         <v>228</v>
       </c>
@@ -13872,7 +13870,7 @@
       <c r="T229" s="20"/>
       <c r="U229" s="20"/>
     </row>
-    <row r="230" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="230" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A230" s="19">
         <v>229</v>
       </c>
@@ -13897,7 +13895,7 @@
       <c r="T230" s="20"/>
       <c r="U230" s="20"/>
     </row>
-    <row r="231" s="44" customFormat="1" ht="10.85" spans="1:22">
+    <row r="231" s="44" customFormat="1" ht="11.25" spans="1:22">
       <c r="A231" s="19">
         <v>230</v>
       </c>
@@ -13923,7 +13921,7 @@
       <c r="U231" s="20"/>
       <c r="V231" s="16"/>
     </row>
-    <row r="232" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="232" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A232" s="19">
         <v>231</v>
       </c>
@@ -13948,7 +13946,7 @@
       <c r="T232" s="20"/>
       <c r="U232" s="20"/>
     </row>
-    <row r="233" s="16" customFormat="1" ht="10.85" spans="1:21">
+    <row r="233" s="16" customFormat="1" ht="11.25" spans="1:21">
       <c r="A233" s="19">
         <v>232</v>
       </c>
@@ -13973,7 +13971,7 @@
       <c r="T233" s="20"/>
       <c r="U233" s="20"/>
     </row>
-    <row r="234" s="44" customFormat="1" ht="10.85" spans="1:22">
+    <row r="234" s="44" customFormat="1" ht="11.25" spans="1:22">
       <c r="A234" s="19">
         <v>233</v>
       </c>
@@ -13999,7 +13997,7 @@
       <c r="U234" s="20"/>
       <c r="V234" s="16"/>
     </row>
-    <row r="235" s="44" customFormat="1" ht="10.85" spans="5:15">
+    <row r="235" s="44" customFormat="1" ht="11.25" spans="5:15">
       <c r="E235" s="81"/>
       <c r="F235" s="81"/>
       <c r="G235" s="81"/>
@@ -14052,24 +14050,24 @@
       <selection pane="bottomLeft" activeCell="A76" sqref="$A76:$XFD76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.72566371681416" defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.52212389380531" customWidth="1"/>
-    <col min="2" max="2" width="7.44247787610619" customWidth="1"/>
-    <col min="3" max="3" width="19.0973451327434" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.3451327433628" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.9646017699115" style="17" customWidth="1"/>
-    <col min="6" max="8" width="5.76991150442478" style="17" customWidth="1"/>
-    <col min="9" max="9" width="5.76991150442478" style="18" customWidth="1"/>
-    <col min="10" max="10" width="8.04424778761062" style="18" customWidth="1"/>
-    <col min="11" max="11" width="9.72566371681416" style="16"/>
-    <col min="12" max="21" width="5.76991150442478" style="18" customWidth="1"/>
-    <col min="22" max="24" width="6.9646017699115" style="18" customWidth="1"/>
-    <col min="25" max="49" width="9.72566371681416" style="16"/>
-    <col min="55" max="55" width="9.60176991150442" style="15"/>
+    <col min="1" max="1" width="5.525" customWidth="1"/>
+    <col min="2" max="2" width="7.44166666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.1" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.3416666666667" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.96666666666667" style="17" customWidth="1"/>
+    <col min="6" max="8" width="5.76666666666667" style="17" customWidth="1"/>
+    <col min="9" max="9" width="5.76666666666667" style="18" customWidth="1"/>
+    <col min="10" max="10" width="8.04166666666667" style="18" customWidth="1"/>
+    <col min="11" max="11" width="9.725" style="16"/>
+    <col min="12" max="21" width="5.76666666666667" style="18" customWidth="1"/>
+    <col min="22" max="24" width="6.96666666666667" style="18" customWidth="1"/>
+    <col min="25" max="49" width="9.725" style="16"/>
+    <col min="55" max="55" width="9.6" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="21.75" spans="1:55">
+    <row r="1" s="14" customFormat="1" ht="22.5" spans="1:55">
       <c r="A1" s="19" t="s">
         <v>100</v>
       </c>
@@ -15179,7 +15177,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>331</v>
@@ -17262,7 +17260,7 @@
         <v>148</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>333</v>
@@ -18148,7 +18146,7 @@
         <v>162</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D55" s="20" t="s">
         <v>333</v>
@@ -28331,11 +28329,11 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="13.1"/>
+  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="20.4513274336283" customWidth="1"/>
-    <col min="13" max="54" width="0.141592920353982" customWidth="1"/>
-    <col min="55" max="55" width="15.1327433628319" customWidth="1"/>
+    <col min="2" max="2" width="20.45" customWidth="1"/>
+    <col min="13" max="54" width="0.141666666666667" customWidth="1"/>
+    <col min="55" max="55" width="15.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/tools/recipe/src/test/resources/配方报价管理系统需求清单.xlsx
+++ b/tools/recipe/src/test/resources/配方报价管理系统需求清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="18525" tabRatio="821" firstSheet="3" activeTab="4"/>
+    <workbookView windowHeight="18525" tabRatio="821" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="推优核算逻辑" sheetId="3" r:id="rId1"/>
@@ -412,7 +412,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="343">
   <si>
     <t>项目</t>
   </si>
@@ -573,12 +573,12 @@
     <t>8-40-0再浆肥（粉）</t>
   </si>
   <si>
+    <t>低白肥（14%）</t>
+  </si>
+  <si>
     <t>中白肥（24%)</t>
   </si>
   <si>
-    <t>低白肥（14%）</t>
-  </si>
-  <si>
     <t>15-15-15常规氯基</t>
   </si>
   <si>
@@ -630,9 +630,6 @@
     <t>喷浆硫基用95氯化钾</t>
   </si>
   <si>
-    <t>碳铵,液氨</t>
-  </si>
-  <si>
     <t>氯化铵（湿）</t>
   </si>
   <si>
@@ -699,91 +696,91 @@
     <t>磷酸</t>
   </si>
   <si>
+    <t>95%氯化钾烘干粉（国产）</t>
+  </si>
+  <si>
+    <t>防结油（白色）</t>
+  </si>
+  <si>
+    <t>防结粉（白色）</t>
+  </si>
+  <si>
+    <t>喷浆专用尿素</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>大类</t>
+  </si>
+  <si>
+    <t>报价日期</t>
+  </si>
+  <si>
+    <t>宜城</t>
+  </si>
+  <si>
+    <t>宁陵</t>
+  </si>
+  <si>
+    <t>平原</t>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>铁岭</t>
+  </si>
+  <si>
+    <t>肇东</t>
+  </si>
+  <si>
+    <t>佳木斯</t>
+  </si>
+  <si>
+    <t>委外</t>
+  </si>
+  <si>
+    <t>氮肥</t>
+  </si>
+  <si>
+    <t>普通尿素</t>
+  </si>
+  <si>
+    <t>本列无法取数</t>
+  </si>
+  <si>
+    <t>大颗粒尿素</t>
+  </si>
+  <si>
+    <t>多肽尿素</t>
+  </si>
+  <si>
+    <t>普通</t>
+  </si>
+  <si>
+    <t>60天缓释尿素</t>
+  </si>
+  <si>
+    <t>90天缓释尿素</t>
+  </si>
+  <si>
+    <t>25颗粒氯化铵（黄）</t>
+  </si>
+  <si>
+    <t>21颗粒氯化铵</t>
+  </si>
+  <si>
+    <t>焦化硫铵</t>
+  </si>
+  <si>
+    <t>己内级硫铵</t>
+  </si>
+  <si>
+    <t>颗粒硫铵</t>
+  </si>
+  <si>
     <t>碳铵</t>
-  </si>
-  <si>
-    <t>95%氯化钾烘干粉（国产）</t>
-  </si>
-  <si>
-    <t>防结油（白色）</t>
-  </si>
-  <si>
-    <t>防结粉（白色）</t>
-  </si>
-  <si>
-    <t>喷浆专用尿素</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>大类</t>
-  </si>
-  <si>
-    <t>报价日期</t>
-  </si>
-  <si>
-    <t>宜城</t>
-  </si>
-  <si>
-    <t>宁陵</t>
-  </si>
-  <si>
-    <t>平原</t>
-  </si>
-  <si>
-    <t>新疆</t>
-  </si>
-  <si>
-    <t>铁岭</t>
-  </si>
-  <si>
-    <t>肇东</t>
-  </si>
-  <si>
-    <t>佳木斯</t>
-  </si>
-  <si>
-    <t>委外</t>
-  </si>
-  <si>
-    <t>氮肥</t>
-  </si>
-  <si>
-    <t>普通尿素</t>
-  </si>
-  <si>
-    <t>本列无法取数</t>
-  </si>
-  <si>
-    <t>大颗粒尿素</t>
-  </si>
-  <si>
-    <t>多肽尿素</t>
-  </si>
-  <si>
-    <t>普通</t>
-  </si>
-  <si>
-    <t>60天缓释尿素</t>
-  </si>
-  <si>
-    <t>90天缓释尿素</t>
-  </si>
-  <si>
-    <t>25颗粒氯化铵（黄）</t>
-  </si>
-  <si>
-    <t>21颗粒氯化铵</t>
-  </si>
-  <si>
-    <t>焦化硫铵</t>
-  </si>
-  <si>
-    <t>己内级硫铵</t>
-  </si>
-  <si>
-    <t>颗粒硫铵</t>
   </si>
   <si>
     <t>硝酸</t>
@@ -1451,17 +1448,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="0.000%"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.000%"/>
-    <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1568,10 +1565,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1584,7 +1605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1592,47 +1613,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1653,8 +1634,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1675,6 +1664,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1682,19 +1679,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1778,7 +1775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,13 +1793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1814,13 +1811,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1832,127 +1949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2036,6 +2033,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2051,35 +2066,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2110,16 +2107,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2129,148 +2126,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2300,29 +2297,29 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="182" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2351,7 +2348,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2389,13 +2386,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2409,13 +2406,13 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2455,34 +2452,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2490,20 +2487,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2514,19 +2511,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3241,7 +3238,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3650,10 +3647,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="12"/>
@@ -4092,9 +4089,6 @@
       <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -4107,6 +4101,11 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
+    </row>
+    <row r="19" ht="13.5" spans="17:17">
+      <c r="Q19" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4126,7 +4125,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="12"/>
@@ -4682,9 +4681,7 @@
       <c r="B17" s="82">
         <v>3550</v>
       </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
+      <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -4692,7 +4689,7 @@
     </row>
     <row r="18" ht="13.5" spans="1:7">
       <c r="A18" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="82">
         <v>1190</v>
@@ -4740,8 +4737,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="12"/>
@@ -4768,16 +4765,16 @@
         <v>16</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
       <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="89" t="s">
         <v>75</v>
-      </c>
-      <c r="P1" s="89" t="s">
-        <v>76</v>
       </c>
       <c r="Q1" s="89"/>
       <c r="R1" s="89"/>
@@ -4791,7 +4788,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -4808,17 +4805,17 @@
         <v>59</v>
       </c>
       <c r="B3" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="98" t="s">
         <v>78</v>
-      </c>
-      <c r="P3" s="98" t="s">
-        <v>79</v>
       </c>
       <c r="Q3" s="99"/>
       <c r="R3" s="99"/>
       <c r="S3" s="99"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V3" s="102"/>
     </row>
@@ -4864,7 +4861,7 @@
         <v>50</v>
       </c>
       <c r="O4" s="84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P4" s="84" t="s">
         <v>64</v>
@@ -4876,16 +4873,16 @@
         <v>67</v>
       </c>
       <c r="S4" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="T4" s="84" t="s">
+      <c r="U4" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="U4" s="84" t="s">
+      <c r="V4" s="84" t="s">
         <v>84</v>
-      </c>
-      <c r="V4" s="84" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" s="82" customFormat="1" spans="1:22">
@@ -5340,15 +5337,12 @@
       <c r="C14" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="94" t="s">
-        <v>70</v>
-      </c>
       <c r="E14" s="94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14"/>
       <c r="G14" s="94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H14" s="95"/>
       <c r="T14" s="82">
@@ -5364,7 +5358,7 @@
     </row>
     <row r="15" ht="54" spans="1:22">
       <c r="A15" s="95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="95">
         <v>3800</v>
@@ -5374,7 +5368,7 @@
       </c>
       <c r="D15" s="96"/>
       <c r="E15" s="94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15"/>
       <c r="G15" s="94"/>
@@ -5393,7 +5387,7 @@
     </row>
     <row r="16" ht="15" spans="1:21">
       <c r="A16" s="95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="95">
         <v>1150</v>
@@ -5413,14 +5407,12 @@
     </row>
     <row r="17" ht="15" spans="1:21">
       <c r="A17" s="95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" s="95">
         <v>220</v>
       </c>
-      <c r="C17" s="94" t="s">
-        <v>72</v>
-      </c>
+      <c r="C17" s="94"/>
       <c r="D17" s="97"/>
       <c r="E17" s="94"/>
       <c r="F17"/>
@@ -5472,8 +5464,9 @@
     <row r="23" ht="13.5" spans="6:6">
       <c r="F23"/>
     </row>
-    <row r="24" ht="13.5" spans="6:6">
+    <row r="24" ht="13.5" spans="6:15">
       <c r="F24"/>
+      <c r="O24" s="94"/>
     </row>
     <row r="25" ht="13.5" spans="6:6">
       <c r="F25"/>
@@ -5496,10 +5489,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T19" sqref="T19:T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="12"/>
@@ -5523,13 +5516,13 @@
         <v>16</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" s="82" customFormat="1" ht="13.5" spans="1:20">
@@ -5537,7 +5530,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -5552,10 +5545,10 @@
         <v>59</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P3" s="90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="92"/>
       <c r="R3" s="92"/>
@@ -5996,7 +5989,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="13.5" spans="1:9">
+    <row r="14" ht="13.5" spans="1:7">
       <c r="A14" s="82" t="s">
         <v>52</v>
       </c>
@@ -6010,16 +6003,13 @@
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G14"/>
-      <c r="I14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" spans="1:9">
+    </row>
+    <row r="15" ht="13.5" spans="1:7">
       <c r="A15" s="82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="82">
         <v>1050</v>
@@ -6027,75 +6017,79 @@
       <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
       <c r="E15"/>
       <c r="G15"/>
-      <c r="I15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" spans="3:9">
+    </row>
+    <row r="16" ht="13.5" spans="3:7">
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
-        <v>95</v>
-      </c>
       <c r="E16"/>
       <c r="G16"/>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" spans="3:9">
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
+    </row>
+    <row r="17" ht="13.5" spans="3:7">
+      <c r="C17"/>
       <c r="E17"/>
       <c r="G17"/>
-      <c r="I17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" spans="3:9">
+    </row>
+    <row r="18" ht="13.5" spans="3:7">
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
-      <c r="I18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" spans="3:9">
+    </row>
+    <row r="19" ht="13.5" spans="3:21">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
-      <c r="I19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" spans="3:9">
+      <c r="T19"/>
+      <c r="U19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" ht="13.5" spans="3:21">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="G20"/>
-      <c r="I20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" spans="3:9">
+      <c r="T20"/>
+      <c r="U20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" ht="13.5" spans="3:21">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21"/>
-      <c r="I21" t="s">
-        <v>99</v>
+      <c r="U21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" ht="13.5" spans="21:21">
+      <c r="U22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" ht="13.5" spans="21:21">
+      <c r="U23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" ht="13.5" spans="21:21">
+      <c r="U24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" ht="13.5" spans="21:21">
+      <c r="U25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" ht="13.5" spans="21:21">
+      <c r="U26" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -6133,67 +6127,67 @@
   <sheetData>
     <row r="1" s="49" customFormat="1" ht="11.25" spans="1:21">
       <c r="A1" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G1" s="53" t="s">
         <v>56</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I1" s="53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J1" s="53" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="N1" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="O1" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="62" t="s">
-        <v>110</v>
-      </c>
       <c r="P1" s="68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="R1" s="68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S1" s="68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T1" s="68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U1" s="68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" s="16" customFormat="1" ht="11.25" spans="1:22">
@@ -6201,10 +6195,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="52"/>
       <c r="E2" s="54">
@@ -6239,7 +6233,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
       <c r="V2" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" s="16" customFormat="1" ht="11.25" spans="1:21">
@@ -6247,10 +6241,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" s="52"/>
       <c r="E3" s="54">
@@ -6294,13 +6288,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" s="54">
         <v>3015</v>
@@ -6343,10 +6337,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="54">
@@ -6388,10 +6382,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="52"/>
       <c r="E6" s="54">
@@ -6433,10 +6427,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="54">
@@ -6472,7 +6466,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>69</v>
@@ -6513,10 +6507,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="52"/>
       <c r="E9" s="55"/>
@@ -6554,10 +6548,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="56"/>
@@ -6589,10 +6583,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="54">
@@ -6632,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="54">
@@ -6669,10 +6663,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="56"/>
@@ -6708,10 +6702,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="54">
@@ -6743,10 +6737,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="54">
@@ -6784,10 +6778,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="56"/>
@@ -6815,10 +6809,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="56"/>
@@ -6848,10 +6842,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>126</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>127</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="54">
@@ -6885,10 +6879,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="54">
@@ -6926,10 +6920,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="54">
@@ -6967,10 +6961,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="56"/>
@@ -7000,10 +6994,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="54">
@@ -7041,10 +7035,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="54">
@@ -7082,7 +7076,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>52</v>
@@ -7126,10 +7120,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="59">
@@ -7177,10 +7171,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="56"/>
@@ -7216,10 +7210,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="56"/>
@@ -7255,10 +7249,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="56"/>
@@ -7296,7 +7290,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>70</v>
@@ -7343,10 +7337,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="54">
@@ -7386,10 +7380,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="54">
@@ -7429,10 +7423,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="54">
@@ -7472,10 +7466,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="54">
@@ -7515,10 +7509,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="56"/>
@@ -7550,10 +7544,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="56"/>
@@ -7583,10 +7577,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="54">
@@ -7624,10 +7618,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="54">
@@ -7665,10 +7659,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="54">
@@ -7700,10 +7694,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="54">
@@ -7737,10 +7731,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="54">
@@ -7774,10 +7768,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>148</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="56"/>
@@ -7805,10 +7799,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="54">
@@ -7838,10 +7832,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="60">
@@ -7871,10 +7865,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="54">
@@ -7912,10 +7906,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>151</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>152</v>
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="54">
@@ -7955,10 +7949,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D46" s="20"/>
       <c r="E46" s="54">
@@ -7996,10 +7990,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="54">
@@ -8037,10 +8031,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="56"/>
@@ -8078,10 +8072,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="56"/>
@@ -8119,10 +8113,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="56"/>
@@ -8158,10 +8152,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="56"/>
@@ -8197,10 +8191,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="54">
@@ -8238,10 +8232,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="54">
@@ -8277,10 +8271,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="56"/>
@@ -8310,10 +8304,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="61">
@@ -8343,10 +8337,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>162</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>163</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="54">
@@ -8380,10 +8374,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="54">
@@ -8423,10 +8417,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="54">
@@ -8466,10 +8460,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="54">
@@ -8509,10 +8503,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="54">
@@ -8552,10 +8546,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="54">
@@ -8595,10 +8589,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="54">
@@ -8638,10 +8632,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="54">
@@ -8675,10 +8669,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>171</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="54">
@@ -8714,10 +8708,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="54">
@@ -8751,10 +8745,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="54">
@@ -8788,10 +8782,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="54">
@@ -8825,10 +8819,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="54">
@@ -8864,10 +8858,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="72">
@@ -8913,10 +8907,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="73">
@@ -8956,10 +8950,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="73">
@@ -8999,10 +8993,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="73">
@@ -9042,10 +9036,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="54">
@@ -9085,10 +9079,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="54">
@@ -9128,10 +9122,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="54">
@@ -9171,10 +9165,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>184</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>185</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="54">
@@ -9212,10 +9206,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="56"/>
@@ -9249,10 +9243,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D78" s="20"/>
       <c r="E78" s="56"/>
@@ -9286,10 +9280,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="54">
@@ -9323,10 +9317,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="59">
@@ -9356,10 +9350,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="59">
@@ -9391,10 +9385,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="59">
@@ -9432,10 +9426,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D83" s="20"/>
       <c r="E83" s="59">
@@ -9473,10 +9467,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="33" t="s">
         <v>191</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>192</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="59">
@@ -9514,10 +9508,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D85" s="20"/>
       <c r="E85" s="59">
@@ -9555,7 +9549,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="71" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C86" s="71" t="s">
         <v>71</v>
@@ -9590,10 +9584,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="71" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C87" s="71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D87" s="71"/>
       <c r="E87" s="59">
@@ -9625,10 +9619,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D88" s="20"/>
       <c r="E88" s="56"/>
@@ -9662,10 +9656,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D89" s="20"/>
       <c r="E89" s="56"/>
@@ -9699,10 +9693,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D90" s="20"/>
       <c r="E90" s="56"/>
@@ -9736,10 +9730,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D91" s="20"/>
       <c r="E91" s="54">
@@ -9771,10 +9765,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="20" t="s">
         <v>198</v>
-      </c>
-      <c r="C92" s="20" t="s">
-        <v>199</v>
       </c>
       <c r="D92" s="20"/>
       <c r="E92" s="54">
@@ -9812,10 +9806,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D93" s="20"/>
       <c r="E93" s="54">
@@ -9855,10 +9849,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D94" s="20"/>
       <c r="E94" s="54">
@@ -9896,10 +9890,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D95" s="20"/>
       <c r="E95" s="54">
@@ -9939,10 +9933,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D96" s="20"/>
       <c r="E96" s="56"/>
@@ -9974,10 +9968,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D97" s="20"/>
       <c r="E97" s="54">
@@ -10017,10 +10011,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D98" s="20"/>
       <c r="E98" s="54">
@@ -10060,10 +10054,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D99" s="20"/>
       <c r="E99" s="56"/>
@@ -10093,10 +10087,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D100" s="20"/>
       <c r="E100" s="56"/>
@@ -10130,10 +10124,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D101" s="20"/>
       <c r="E101" s="54">
@@ -10173,10 +10167,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D102" s="20"/>
       <c r="E102" s="54">
@@ -10216,10 +10210,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D103" s="20"/>
       <c r="E103" s="54">
@@ -10259,10 +10253,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D104" s="20"/>
       <c r="E104" s="54">
@@ -10302,10 +10296,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D105" s="20"/>
       <c r="E105" s="54">
@@ -10345,10 +10339,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D106" s="20"/>
       <c r="E106" s="54">
@@ -10384,10 +10378,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D107" s="20"/>
       <c r="E107" s="54">
@@ -10425,10 +10419,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D108" s="20"/>
       <c r="E108" s="54">
@@ -10466,10 +10460,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D109" s="20"/>
       <c r="E109" s="55"/>
@@ -10503,10 +10497,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D110" s="20"/>
       <c r="E110" s="54">
@@ -10544,10 +10538,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="56"/>
@@ -10580,10 +10574,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D112" s="20"/>
       <c r="E112" s="56"/>
@@ -10616,10 +10610,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" s="20" t="s">
         <v>220</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>221</v>
       </c>
       <c r="D113" s="20"/>
       <c r="E113" s="54">
@@ -10649,10 +10643,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D114" s="20"/>
       <c r="E114" s="55"/>
@@ -10686,10 +10680,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D115" s="20"/>
       <c r="E115" s="54">
@@ -10723,10 +10717,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D116" s="20"/>
       <c r="E116" s="54">
@@ -10760,10 +10754,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D117" s="20"/>
       <c r="E117" s="54">
@@ -10801,10 +10795,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D118" s="20"/>
       <c r="E118" s="54">
@@ -10842,10 +10836,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D119" s="20"/>
       <c r="E119" s="54">
@@ -10883,10 +10877,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D120" s="20"/>
       <c r="E120" s="54">
@@ -10918,10 +10912,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D121" s="20"/>
       <c r="E121" s="55"/>
@@ -10949,10 +10943,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D122" s="20"/>
       <c r="E122" s="55"/>
@@ -10980,10 +10974,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C123" s="35" t="s">
         <v>231</v>
-      </c>
-      <c r="C123" s="35" t="s">
-        <v>232</v>
       </c>
       <c r="D123" s="20"/>
       <c r="E123" s="54">
@@ -11042,10 +11036,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D125" s="20"/>
       <c r="E125" s="55"/>
@@ -11075,10 +11069,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C126" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D126" s="20"/>
       <c r="E126" s="55"/>
@@ -11106,10 +11100,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C127" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D127" s="20"/>
       <c r="E127" s="55"/>
@@ -11141,10 +11135,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D128" s="20"/>
       <c r="E128" s="55"/>
@@ -11176,10 +11170,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D129" s="20"/>
       <c r="E129" s="55"/>
@@ -11407,10 +11401,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C138" s="19" t="s">
         <v>238</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>239</v>
       </c>
       <c r="D138" s="75">
         <v>2.6</v>
@@ -11438,10 +11432,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D139" s="75">
         <v>2.4</v>
@@ -11469,10 +11463,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D140" s="75">
         <v>1.9</v>
@@ -11500,10 +11494,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D141" s="75">
         <v>2.8</v>
@@ -11531,13 +11525,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C142" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D142" s="75" t="s">
         <v>243</v>
-      </c>
-      <c r="D142" s="75" t="s">
-        <v>244</v>
       </c>
       <c r="E142" s="55"/>
       <c r="F142" s="58"/>
@@ -11562,13 +11556,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C143" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D143" s="75" t="s">
         <v>245</v>
-      </c>
-      <c r="D143" s="75" t="s">
-        <v>246</v>
       </c>
       <c r="E143" s="55"/>
       <c r="F143" s="58"/>
@@ -11593,13 +11587,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C144" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D144" s="75" t="s">
         <v>247</v>
-      </c>
-      <c r="D144" s="75" t="s">
-        <v>248</v>
       </c>
       <c r="E144" s="55"/>
       <c r="F144" s="58"/>
@@ -11624,13 +11618,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C145" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D145" s="75" t="s">
         <v>249</v>
-      </c>
-      <c r="D145" s="75" t="s">
-        <v>250</v>
       </c>
       <c r="E145" s="55"/>
       <c r="F145" s="58"/>
@@ -11655,13 +11649,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C146" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D146" s="75" t="s">
         <v>251</v>
-      </c>
-      <c r="D146" s="75" t="s">
-        <v>252</v>
       </c>
       <c r="E146" s="55"/>
       <c r="F146" s="58"/>
@@ -11686,13 +11680,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C147" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D147" s="75" t="s">
         <v>253</v>
-      </c>
-      <c r="D147" s="75" t="s">
-        <v>254</v>
       </c>
       <c r="E147" s="55"/>
       <c r="F147" s="58"/>
@@ -11717,13 +11711,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C148" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D148" s="75" t="s">
         <v>255</v>
-      </c>
-      <c r="D148" s="75" t="s">
-        <v>256</v>
       </c>
       <c r="E148" s="55"/>
       <c r="F148" s="58"/>
@@ -11748,13 +11742,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C149" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D149" s="75" t="s">
         <v>257</v>
-      </c>
-      <c r="D149" s="75" t="s">
-        <v>258</v>
       </c>
       <c r="E149" s="55"/>
       <c r="F149" s="58"/>
@@ -11779,13 +11773,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C150" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="D150" s="75" t="s">
         <v>259</v>
-      </c>
-      <c r="D150" s="75" t="s">
-        <v>260</v>
       </c>
       <c r="E150" s="55"/>
       <c r="F150" s="58"/>
@@ -11810,13 +11804,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C151" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D151" s="75" t="s">
         <v>261</v>
-      </c>
-      <c r="D151" s="75" t="s">
-        <v>262</v>
       </c>
       <c r="E151" s="55"/>
       <c r="F151" s="58"/>
@@ -11841,13 +11835,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C152" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D152" s="75" t="s">
         <v>263</v>
-      </c>
-      <c r="D152" s="75" t="s">
-        <v>264</v>
       </c>
       <c r="E152" s="55"/>
       <c r="F152" s="58"/>
@@ -11872,13 +11866,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C153" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D153" s="75" t="s">
         <v>265</v>
-      </c>
-      <c r="D153" s="75" t="s">
-        <v>266</v>
       </c>
       <c r="E153" s="55"/>
       <c r="F153" s="58"/>
@@ -11903,13 +11897,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D154" s="75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E154" s="55"/>
       <c r="F154" s="58"/>
@@ -11934,13 +11928,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C155" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D155" s="75" t="s">
         <v>268</v>
-      </c>
-      <c r="D155" s="75" t="s">
-        <v>269</v>
       </c>
       <c r="E155" s="55"/>
       <c r="F155" s="58"/>
@@ -11965,13 +11959,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C156" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D156" s="75" t="s">
         <v>270</v>
-      </c>
-      <c r="D156" s="75" t="s">
-        <v>271</v>
       </c>
       <c r="E156" s="55"/>
       <c r="F156" s="58"/>
@@ -11996,13 +11990,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C157" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D157" s="75" t="s">
         <v>272</v>
-      </c>
-      <c r="D157" s="75" t="s">
-        <v>273</v>
       </c>
       <c r="E157" s="55"/>
       <c r="F157" s="58"/>
@@ -12027,13 +12021,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D158" s="75" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E158" s="55"/>
       <c r="F158" s="58"/>
@@ -12058,13 +12052,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C159" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D159" s="76" t="s">
         <v>275</v>
-      </c>
-      <c r="D159" s="76" t="s">
-        <v>276</v>
       </c>
       <c r="E159" s="55"/>
       <c r="F159" s="58"/>
@@ -12089,13 +12083,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C160" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D160" s="76" t="s">
         <v>277</v>
-      </c>
-      <c r="D160" s="76" t="s">
-        <v>278</v>
       </c>
       <c r="E160" s="55"/>
       <c r="F160" s="58"/>
@@ -12120,13 +12114,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C161" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D161" s="75" t="s">
         <v>279</v>
-      </c>
-      <c r="D161" s="75" t="s">
-        <v>280</v>
       </c>
       <c r="E161" s="55"/>
       <c r="F161" s="58"/>
@@ -12151,13 +12145,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C162" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D162" s="75" t="s">
         <v>281</v>
-      </c>
-      <c r="D162" s="75" t="s">
-        <v>282</v>
       </c>
       <c r="E162" s="55"/>
       <c r="F162" s="58"/>
@@ -12182,13 +12176,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C163" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D163" s="76" t="s">
         <v>283</v>
-      </c>
-      <c r="D163" s="76" t="s">
-        <v>284</v>
       </c>
       <c r="E163" s="55"/>
       <c r="F163" s="58"/>
@@ -12213,13 +12207,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C164" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D164" s="75" t="s">
         <v>285</v>
-      </c>
-      <c r="D164" s="75" t="s">
-        <v>286</v>
       </c>
       <c r="E164" s="58"/>
       <c r="F164" s="58"/>
@@ -12244,10 +12238,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D165" s="77">
         <v>1.5</v>
@@ -14069,16 +14063,16 @@
   <sheetData>
     <row r="1" s="14" customFormat="1" ht="22.5" spans="1:55">
       <c r="A1" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>21</v>
@@ -14099,10 +14093,10 @@
         <v>23</v>
       </c>
       <c r="K1" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" s="26" t="s">
         <v>289</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>290</v>
       </c>
       <c r="M1" s="26" t="s">
         <v>28</v>
@@ -14111,124 +14105,124 @@
         <v>29</v>
       </c>
       <c r="O1" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="P1" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="Q1" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="R1" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="S1" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="T1" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="U1" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="V1" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="W1" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="X1" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="Y1" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Z1" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="AA1" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AB1" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AC1" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AE1" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AF1" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AG1" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AH1" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AI1" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AK1" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AL1" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AM1" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AN1" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AO1" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AP1" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AQ1" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AR1" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AS1" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="AS1" s="20" t="s">
+      <c r="AT1" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="AT1" s="20" t="s">
+      <c r="AU1" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="AU1" s="20" t="s">
+      <c r="AV1" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="AV1" s="20" t="s">
+      <c r="AW1" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="AW1" s="20" t="s">
+      <c r="AX1" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="AX1" s="30" t="s">
+      <c r="AY1" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="AY1" s="30" t="s">
+      <c r="AZ1" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="AZ1" s="30" t="s">
+      <c r="BA1" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="BA1" s="30" t="s">
+      <c r="BB1" s="30" t="s">
         <v>329</v>
-      </c>
-      <c r="BB1" s="30" t="s">
-        <v>330</v>
       </c>
       <c r="BC1" s="31"/>
     </row>
@@ -14237,13 +14231,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E2" s="24">
         <v>0.46</v>
@@ -14308,13 +14302,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E3" s="24">
         <v>0.46</v>
@@ -14379,13 +14373,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E4" s="24">
         <v>0.46</v>
@@ -14450,13 +14444,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E5" s="24">
         <v>0.45</v>
@@ -14521,13 +14515,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E6" s="24">
         <v>0.45</v>
@@ -14592,13 +14586,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E7" s="24">
         <v>0.235</v>
@@ -14665,13 +14659,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E8" s="25">
         <v>0.253</v>
@@ -14738,13 +14732,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E9" s="24">
         <v>0.25</v>
@@ -14811,13 +14805,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E10" s="24">
         <v>0.21</v>
@@ -14884,13 +14878,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E11" s="24">
         <v>0.205</v>
@@ -14957,13 +14951,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E12" s="24">
         <v>0.21</v>
@@ -15030,13 +15024,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E13" s="25">
         <v>0.205</v>
@@ -15103,13 +15097,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E14" s="24">
         <v>0.81</v>
@@ -15174,13 +15168,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E15" s="24">
         <v>0.17</v>
@@ -15245,13 +15239,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E16" s="24">
         <v>0.345</v>
@@ -15316,13 +15310,13 @@
     <row r="17" spans="1:54">
       <c r="A17" s="19"/>
       <c r="B17" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E17" s="24">
         <v>0.22</v>
@@ -15386,13 +15380,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>127</v>
-      </c>
       <c r="D18" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E18" s="24">
         <v>0.315</v>
@@ -15461,13 +15455,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E19" s="24">
         <v>0.1</v>
@@ -15536,13 +15530,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E20" s="24">
         <v>0.1</v>
@@ -15611,13 +15605,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E21" s="24">
         <v>0.1</v>
@@ -15686,13 +15680,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E22" s="24">
         <v>0.1</v>
@@ -15761,13 +15755,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E23" s="24">
         <v>0.1</v>
@@ -15836,13 +15830,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E24" s="26">
         <v>0.08</v>
@@ -15911,13 +15905,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E25" s="26">
         <v>0.08</v>
@@ -15986,13 +15980,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E26" s="24">
         <v>0.1</v>
@@ -16061,13 +16055,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E27" s="24">
         <v>0.1</v>
@@ -16136,13 +16130,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E28" s="26">
         <v>0.15</v>
@@ -16211,13 +16205,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>70</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E29" s="26">
         <v>0.18</v>
@@ -16286,13 +16280,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E30" s="26">
         <v>0.11</v>
@@ -16361,13 +16355,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E31" s="26">
         <v>0.11</v>
@@ -16436,13 +16430,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E32" s="26">
         <v>0.11</v>
@@ -16511,13 +16505,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E33" s="26">
         <v>0.11</v>
@@ -16590,13 +16584,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E34" s="26">
         <v>0.17</v>
@@ -16665,13 +16659,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E35" s="26">
         <v>0.23</v>
@@ -16740,13 +16734,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>144</v>
-      </c>
       <c r="D36" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E36" s="26"/>
       <c r="F36" s="26">
@@ -16815,13 +16809,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E37" s="26"/>
       <c r="F37" s="26">
@@ -16890,13 +16884,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>147</v>
-      </c>
       <c r="D38" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E38" s="26">
         <v>0.135</v>
@@ -16965,13 +16959,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E39" s="26"/>
       <c r="F39" s="26">
@@ -17038,13 +17032,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="26">
@@ -17111,13 +17105,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>149</v>
-      </c>
       <c r="D41" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E41" s="26"/>
       <c r="F41" s="26">
@@ -17184,13 +17178,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E42" s="26"/>
       <c r="F42" s="26">
@@ -17257,13 +17251,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="26">
@@ -17330,13 +17324,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="26"/>
@@ -17403,13 +17397,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>152</v>
-      </c>
       <c r="D45" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="26"/>
@@ -17476,13 +17470,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
@@ -17549,13 +17543,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="26"/>
@@ -17622,13 +17616,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
@@ -17695,13 +17689,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
@@ -17768,13 +17762,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="26"/>
@@ -17843,13 +17837,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
@@ -17918,13 +17912,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
@@ -17993,13 +17987,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="26"/>
@@ -18068,13 +18062,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="26"/>
@@ -18143,13 +18137,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
@@ -18214,13 +18208,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="20" t="s">
-        <v>163</v>
-      </c>
       <c r="D56" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
@@ -18285,13 +18279,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
@@ -18358,13 +18352,13 @@
         <v>56</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E58" s="26"/>
       <c r="F58" s="26"/>
@@ -18429,13 +18423,13 @@
     <row r="59" spans="1:54">
       <c r="A59" s="19"/>
       <c r="B59" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E59" s="26"/>
       <c r="F59" s="26"/>
@@ -18499,13 +18493,13 @@
         <v>57</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E60" s="26"/>
       <c r="F60" s="26"/>
@@ -18572,13 +18566,13 @@
         <v>58</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E61" s="26"/>
       <c r="F61" s="26"/>
@@ -18643,13 +18637,13 @@
         <v>59</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E62" s="26"/>
       <c r="F62" s="26"/>
@@ -18714,13 +18708,13 @@
         <v>60</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E63" s="26"/>
       <c r="F63" s="26"/>
@@ -18785,13 +18779,13 @@
         <v>61</v>
       </c>
       <c r="B64" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="C64" s="22" t="s">
-        <v>172</v>
-      </c>
       <c r="D64" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E64" s="26"/>
       <c r="F64" s="26"/>
@@ -18856,13 +18850,13 @@
         <v>62</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E65" s="26"/>
       <c r="F65" s="26"/>
@@ -18927,13 +18921,13 @@
         <v>63</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E66" s="26"/>
       <c r="F66" s="26"/>
@@ -18998,13 +18992,13 @@
         <v>64</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E67" s="26"/>
       <c r="F67" s="26"/>
@@ -19069,13 +19063,13 @@
         <v>65</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
@@ -19140,13 +19134,13 @@
         <v>66</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
@@ -19214,13 +19208,13 @@
         <v>67</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
@@ -19288,13 +19282,13 @@
         <v>68</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
@@ -19359,13 +19353,13 @@
         <v>69</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
@@ -19430,13 +19424,13 @@
         <v>70</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
@@ -19501,13 +19495,13 @@
         <v>71</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
@@ -19575,13 +19569,13 @@
         <v>72</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
@@ -19649,13 +19643,13 @@
         <v>73</v>
       </c>
       <c r="B76" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C76" s="19" t="s">
-        <v>185</v>
-      </c>
       <c r="D76" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
@@ -19718,13 +19712,13 @@
         <v>74</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E77" s="26"/>
       <c r="F77" s="26"/>
@@ -19787,13 +19781,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E78" s="26"/>
       <c r="F78" s="26"/>
@@ -19856,13 +19850,13 @@
         <v>76</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E79" s="26"/>
       <c r="F79" s="26"/>
@@ -19925,13 +19919,13 @@
         <v>77</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E80" s="26"/>
       <c r="F80" s="26"/>
@@ -19994,13 +19988,13 @@
         <v>78</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E81" s="26"/>
       <c r="F81" s="26"/>
@@ -20060,13 +20054,13 @@
         <v>79</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
@@ -20127,13 +20121,13 @@
         <v>80</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C83" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E83" s="26"/>
       <c r="F83" s="26"/>
@@ -20194,13 +20188,13 @@
         <v>81</v>
       </c>
       <c r="B84" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="C84" s="33" t="s">
-        <v>192</v>
-      </c>
       <c r="D84" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
@@ -20261,13 +20255,13 @@
         <v>82</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E85" s="26"/>
       <c r="F85" s="26"/>
@@ -20328,13 +20322,13 @@
         <v>83</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
@@ -20395,13 +20389,13 @@
         <v>84</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E87" s="26"/>
       <c r="F87" s="26"/>
@@ -20462,13 +20456,13 @@
         <v>85</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E88" s="26"/>
       <c r="F88" s="26"/>
@@ -20529,13 +20523,13 @@
         <v>86</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
@@ -20596,13 +20590,13 @@
         <v>87</v>
       </c>
       <c r="B90" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="C90" s="20" t="s">
-        <v>199</v>
-      </c>
       <c r="D90" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E90" s="26"/>
       <c r="F90" s="26"/>
@@ -20669,13 +20663,13 @@
         <v>88</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E91" s="26"/>
       <c r="F91" s="26"/>
@@ -20746,13 +20740,13 @@
         <v>89</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E92" s="26"/>
       <c r="F92" s="26"/>
@@ -20821,13 +20815,13 @@
         <v>90</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E93" s="26">
         <v>0.1</v>
@@ -20894,13 +20888,13 @@
         <v>91</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E94" s="26"/>
       <c r="F94" s="26"/>
@@ -20963,13 +20957,13 @@
         <v>92</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E95" s="26"/>
       <c r="F95" s="26"/>
@@ -21032,13 +21026,13 @@
         <v>93</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E96" s="26"/>
       <c r="F96" s="26"/>
@@ -21099,13 +21093,13 @@
         <v>94</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E97" s="26"/>
       <c r="F97" s="26"/>
@@ -21166,13 +21160,13 @@
         <v>95</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E98" s="26"/>
       <c r="F98" s="26"/>
@@ -21235,13 +21229,13 @@
         <v>96</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D99" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="26"/>
@@ -21302,13 +21296,13 @@
         <v>97</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="26"/>
@@ -21369,13 +21363,13 @@
         <v>98</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E101" s="26"/>
       <c r="F101" s="26"/>
@@ -21436,13 +21430,13 @@
         <v>99</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E102" s="26"/>
       <c r="F102" s="26"/>
@@ -21503,13 +21497,13 @@
         <v>100</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E103" s="26"/>
       <c r="F103" s="26"/>
@@ -21567,13 +21561,13 @@
         <v>101</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E104" s="26"/>
       <c r="F104" s="26"/>
@@ -21634,13 +21628,13 @@
         <v>102</v>
       </c>
       <c r="B105" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E105" s="26"/>
       <c r="F105" s="26"/>
@@ -21701,13 +21695,13 @@
         <v>103</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C106" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E106" s="26"/>
       <c r="F106" s="26"/>
@@ -21768,13 +21762,13 @@
         <v>104</v>
       </c>
       <c r="B107" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C107" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D107" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E107" s="26"/>
       <c r="F107" s="26"/>
@@ -21832,13 +21826,13 @@
         <v>105</v>
       </c>
       <c r="B108" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C108" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E108" s="26"/>
       <c r="F108" s="26"/>
@@ -21896,13 +21890,13 @@
         <v>106</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D109" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E109" s="26"/>
       <c r="F109" s="26"/>
@@ -21960,10 +21954,10 @@
         <v>107</v>
       </c>
       <c r="B110" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="35" t="s">
         <v>231</v>
-      </c>
-      <c r="C110" s="35" t="s">
-        <v>232</v>
       </c>
       <c r="D110" s="35"/>
       <c r="E110" s="26"/>
@@ -22025,10 +22019,10 @@
         <v>108</v>
       </c>
       <c r="B111" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C111" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="26"/>
@@ -22090,13 +22084,13 @@
         <v>109</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D112" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E112" s="26"/>
       <c r="F112" s="26"/>
@@ -22157,13 +22151,13 @@
         <v>110</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D113" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E113" s="26"/>
       <c r="F113" s="26"/>
@@ -22224,13 +22218,13 @@
         <v>111</v>
       </c>
       <c r="B114" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E114" s="26"/>
       <c r="F114" s="26"/>
@@ -22291,13 +22285,13 @@
         <v>112</v>
       </c>
       <c r="B115" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D115" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E115" s="26"/>
       <c r="F115" s="26"/>
@@ -22358,13 +22352,13 @@
         <v>113</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D116" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E116" s="26"/>
       <c r="F116" s="26"/>
@@ -22425,13 +22419,13 @@
         <v>114</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D117" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E117" s="26"/>
       <c r="F117" s="26"/>
@@ -22492,13 +22486,13 @@
         <v>115</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D118" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E118" s="26"/>
       <c r="F118" s="26"/>
@@ -22559,10 +22553,10 @@
         <v>116</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D119" s="20"/>
       <c r="E119" s="26"/>
@@ -22626,10 +22620,10 @@
         <v>117</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D120" s="20"/>
       <c r="E120" s="26"/>
@@ -22693,13 +22687,13 @@
         <v>118</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C121" s="33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D121" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E121" s="26"/>
       <c r="F121" s="26"/>
@@ -22760,13 +22754,13 @@
         <v>119</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D122" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E122" s="26"/>
       <c r="F122" s="26"/>
@@ -22827,13 +22821,13 @@
         <v>120</v>
       </c>
       <c r="B123" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C123" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C123" s="20" t="s">
-        <v>221</v>
-      </c>
       <c r="D123" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E123" s="26"/>
       <c r="F123" s="26"/>
@@ -22894,13 +22888,13 @@
         <v>121</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E124" s="26"/>
       <c r="F124" s="26"/>
@@ -22963,13 +22957,13 @@
         <v>122</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E125" s="26"/>
       <c r="F125" s="26"/>
@@ -23034,13 +23028,13 @@
         <v>123</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E126" s="26">
         <v>0.46</v>
@@ -23105,13 +23099,13 @@
         <v>124</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D127" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E127" s="36"/>
       <c r="F127" s="36"/>
@@ -28115,7 +28109,7 @@
         <v>199</v>
       </c>
       <c r="B209" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C209" s="43" t="s">
         <v>71</v>
@@ -28188,10 +28182,10 @@
         <v>200</v>
       </c>
       <c r="B210" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C210" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D210" s="43"/>
       <c r="E210" s="45">
@@ -28338,18 +28332,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -28428,14 +28422,14 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:55">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>20</v>
@@ -28459,10 +28453,10 @@
         <v>23</v>
       </c>
       <c r="K16" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>28</v>
@@ -28471,134 +28465,134 @@
         <v>29</v>
       </c>
       <c r="O16" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="S16" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="T16" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="U16" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="V16" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="X16" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="X16" s="4" t="s">
+      <c r="Y16" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="Z16" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="Z16" s="4" t="s">
+      <c r="AA16" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AA16" s="4" t="s">
+      <c r="AB16" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AC16" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="AC16" s="4" t="s">
+      <c r="AD16" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AE16" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AE16" s="4" t="s">
+      <c r="AF16" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="AF16" s="4" t="s">
+      <c r="AG16" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="AG16" s="4" t="s">
+      <c r="AH16" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="AH16" s="4" t="s">
+      <c r="AI16" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="AI16" s="4" t="s">
+      <c r="AJ16" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="AJ16" s="4" t="s">
+      <c r="AK16" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="AK16" s="4" t="s">
+      <c r="AL16" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="AL16" s="4" t="s">
+      <c r="AM16" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="AM16" s="4" t="s">
+      <c r="AN16" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="AN16" s="4" t="s">
+      <c r="AO16" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="AO16" s="4" t="s">
+      <c r="AP16" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="AP16" s="4" t="s">
+      <c r="AQ16" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="AQ16" s="4" t="s">
+      <c r="AR16" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="AR16" s="4" t="s">
+      <c r="AS16" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="AS16" s="4" t="s">
+      <c r="AT16" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="AT16" s="4" t="s">
+      <c r="AU16" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="AU16" s="4" t="s">
+      <c r="AV16" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="AV16" s="4" t="s">
+      <c r="AW16" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="AW16" s="4" t="s">
+      <c r="AX16" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="AX16" s="4" t="s">
+      <c r="AY16" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="AY16" s="4" t="s">
+      <c r="AZ16" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="AZ16" s="4" t="s">
+      <c r="BA16" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="BA16" s="4" t="s">
+      <c r="BB16" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="BB16" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="BC16" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:55">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D17" s="6">
         <v>0.51</v>
@@ -28669,7 +28663,7 @@
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D18" s="6">
         <v>0.510921843687375</v>
@@ -28831,7 +28825,7 @@
     <row r="19" spans="1:55">
       <c r="A19" s="8"/>
       <c r="B19" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="9">
         <v>57</v>
@@ -28994,7 +28988,7 @@
     <row r="20" spans="1:55">
       <c r="A20" s="8"/>
       <c r="B20" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C20" s="9">
         <v>0</v>
@@ -29157,7 +29151,7 @@
     <row r="21" spans="1:55">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="9">
         <v>182</v>
@@ -29483,7 +29477,7 @@
     <row r="23" spans="1:55">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="9">
         <v>185</v>
@@ -29646,7 +29640,7 @@
     <row r="24" spans="1:55">
       <c r="A24" s="8"/>
       <c r="B24" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="9">
         <v>574</v>

--- a/tools/recipe/src/test/resources/配方报价管理系统需求清单.xlsx
+++ b/tools/recipe/src/test/resources/配方报价管理系统需求清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="18525" tabRatio="821" activeTab="1"/>
+    <workbookView windowHeight="18525" tabRatio="821" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="推优核算逻辑" sheetId="3" r:id="rId1"/>
@@ -1448,17 +1448,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="0.0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="0.000%"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="0.000%"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1565,6 +1565,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1574,7 +1589,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1589,16 +1604,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1611,9 +1626,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1621,36 +1635,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1664,9 +1648,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1679,9 +1663,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1689,9 +1681,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1775,31 +1775,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,19 +1787,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,7 +1805,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,7 +1853,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,73 +1937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1943,13 +1949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2052,21 +2052,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2081,13 +2066,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2107,17 +2111,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2126,148 +2126,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2297,29 +2297,29 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2348,7 +2348,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2386,13 +2386,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2406,13 +2406,13 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2452,34 +2452,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2487,20 +2487,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2511,19 +2511,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="182" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3238,7 +3238,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -14038,10 +14038,10 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BC211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="$A76:$XFD76"/>
+      <selection pane="bottomLeft" activeCell="A75" sqref="A75:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="13.5"/>

--- a/tools/recipe/src/test/resources/配方报价管理系统需求清单.xlsx
+++ b/tools/recipe/src/test/resources/配方报价管理系统需求清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="18525" tabRatio="821" activeTab="7"/>
+    <workbookView windowWidth="18187" windowHeight="8872" tabRatio="821" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="推优核算逻辑" sheetId="3" r:id="rId1"/>
@@ -1448,17 +1448,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="181" formatCode="0.000%"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="0.000%"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -1566,17 +1566,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1588,76 +1580,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1680,8 +1605,75 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1692,6 +1684,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1775,7 +1775,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,7 +1835,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,7 +1907,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,13 +1919,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,127 +1943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,39 +2044,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2097,6 +2078,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2111,13 +2107,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2126,22 +2126,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2150,124 +2150,124 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2300,14 +2300,14 @@
     <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2348,7 +2348,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2386,13 +2386,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2406,13 +2406,13 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2452,34 +2452,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2487,20 +2487,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2511,19 +2511,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2713,8 +2713,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>168910</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2732,7 +2732,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="565785" y="635"/>
-          <a:ext cx="8786495" cy="5292090"/>
+          <a:ext cx="8253095" cy="5292090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3124,12 +3124,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="13.1" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="94" customWidth="1"/>
-    <col min="2" max="2" width="53.7416666666667" customWidth="1"/>
-    <col min="3" max="3" width="34.0416666666667" customWidth="1"/>
-    <col min="4" max="4" width="63.0083333333333" customWidth="1"/>
+    <col min="1" max="1" width="8.88495575221239" style="94" customWidth="1"/>
+    <col min="2" max="2" width="53.7433628318584" customWidth="1"/>
+    <col min="3" max="3" width="34.0442477876106" customWidth="1"/>
+    <col min="4" max="4" width="63.0088495575221" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" ht="15" spans="1:4">
       <c r="A2" s="108" t="s">
         <v>2</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" ht="15" spans="1:4">
       <c r="A3" s="108"/>
       <c r="B3" s="109"/>
       <c r="C3" s="110" t="s">
@@ -3166,7 +3166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" ht="15" spans="1:4">
       <c r="A4" s="108"/>
       <c r="B4" s="109" t="s">
         <v>8</v>
@@ -3178,7 +3178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" ht="15" spans="1:4">
       <c r="A5" s="108"/>
       <c r="B5" s="110" t="s">
         <v>11</v>
@@ -3186,7 +3186,7 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" ht="15" spans="1:4">
       <c r="A6" s="108"/>
       <c r="B6" s="110" t="s">
         <v>12</v>
@@ -3194,7 +3194,7 @@
       <c r="C6" s="87"/>
       <c r="D6" s="87"/>
     </row>
-    <row r="7" ht="27" spans="1:4">
+    <row r="7" ht="26.25" spans="1:4">
       <c r="A7" s="111" t="s">
         <v>13</v>
       </c>
@@ -3225,7 +3225,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="13.1"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3238,17 +3238,17 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="12.0416666666667" customWidth="1"/>
-    <col min="3" max="3" width="9.46666666666667"/>
-    <col min="4" max="6" width="10.55"/>
-    <col min="10" max="10" width="8.60833333333333" style="82"/>
-    <col min="13" max="13" width="20.5416666666667" customWidth="1"/>
+    <col min="1" max="1" width="12.0442477876106" customWidth="1"/>
+    <col min="3" max="3" width="9.46902654867257"/>
+    <col min="4" max="6" width="10.5486725663717"/>
+    <col min="10" max="10" width="8.61061946902655" style="82"/>
+    <col min="13" max="13" width="20.5398230088496" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3265,7 +3265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" s="15" customFormat="1" ht="24" spans="1:14">
+    <row r="4" s="15" customFormat="1" ht="24.75" spans="1:14">
       <c r="A4" s="105" t="s">
         <v>0</v>
       </c>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" ht="14.25" spans="1:14">
+    <row r="9" ht="15" spans="1:14">
       <c r="A9" s="86" t="s">
         <v>36</v>
       </c>
@@ -3536,7 +3536,9 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J10" s="88"/>
+      <c r="J10" s="88">
+        <v>1</v>
+      </c>
       <c r="K10" s="37">
         <f>IF((K5+K9)&gt;100%,100%,K5+K9)</f>
         <v>0</v>
@@ -3581,7 +3583,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="88"/>
+      <c r="J11" s="88">
+        <v>0</v>
+      </c>
       <c r="K11" s="37">
         <f>IF((K6+K9)&lt;0,0,K6+K9)</f>
         <v>0</v>
@@ -3650,25 +3654,25 @@
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J10" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="12.35"/>
   <cols>
-    <col min="1" max="1" width="12.0416666666667" style="82" customWidth="1"/>
-    <col min="2" max="2" width="8.60833333333333" style="82"/>
-    <col min="3" max="3" width="9.46666666666667" style="82"/>
-    <col min="4" max="4" width="8.80833333333333" style="82" customWidth="1"/>
-    <col min="5" max="5" width="8.48333333333333" style="82" customWidth="1"/>
-    <col min="6" max="6" width="8.175" style="82" customWidth="1"/>
-    <col min="7" max="12" width="8.60833333333333" style="82"/>
-    <col min="13" max="13" width="10.3416666666667" style="82" customWidth="1"/>
-    <col min="14" max="14" width="8.60833333333333" style="82"/>
-    <col min="15" max="15" width="10.575" style="82" customWidth="1"/>
-    <col min="16" max="16384" width="8.60833333333333" style="82"/>
+    <col min="1" max="1" width="12.0442477876106" style="82" customWidth="1"/>
+    <col min="2" max="2" width="8.61061946902655" style="82"/>
+    <col min="3" max="3" width="9.46902654867257" style="82"/>
+    <col min="4" max="4" width="8.80530973451327" style="82" customWidth="1"/>
+    <col min="5" max="5" width="8.48672566371681" style="82" customWidth="1"/>
+    <col min="6" max="6" width="8.17699115044248" style="82" customWidth="1"/>
+    <col min="7" max="12" width="8.61061946902655" style="82"/>
+    <col min="13" max="13" width="10.3451327433628" style="82" customWidth="1"/>
+    <col min="14" max="14" width="8.61061946902655" style="82"/>
+    <col min="15" max="15" width="10.5752212389381" style="82" customWidth="1"/>
+    <col min="16" max="16384" width="8.61061946902655" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" s="82" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="82" customFormat="1" ht="13.1" spans="1:5">
       <c r="A1" s="82" t="s">
         <v>16</v>
       </c>
@@ -3682,14 +3686,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="13.5" spans="1:10">
+    <row r="2" customFormat="1" ht="13.1" spans="1:10">
       <c r="A2" s="82"/>
       <c r="B2" s="82"/>
       <c r="D2" s="82"/>
       <c r="E2" s="82"/>
       <c r="J2" s="82"/>
     </row>
-    <row r="4" s="83" customFormat="1" ht="36" spans="1:16">
+    <row r="4" s="83" customFormat="1" ht="49.5" spans="1:16">
       <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
@@ -3911,7 +3915,7 @@
       </c>
       <c r="P8" s="87"/>
     </row>
-    <row r="9" ht="14.25" spans="1:16">
+    <row r="9" ht="15" spans="1:16">
       <c r="A9" s="86" t="s">
         <v>36</v>
       </c>
@@ -3984,7 +3988,9 @@
         <f t="shared" si="0"/>
         <v>0.012</v>
       </c>
-      <c r="J10" s="88"/>
+      <c r="J10" s="88">
+        <v>1</v>
+      </c>
       <c r="K10" s="88">
         <f>IF((K5+K9)&gt;100%,100%,K5+K9)</f>
         <v>0</v>
@@ -4031,7 +4037,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="88"/>
+      <c r="J11" s="88">
+        <v>0</v>
+      </c>
       <c r="K11" s="88">
         <f>IF((K6+K9)&lt;0,0,K6+K9)</f>
         <v>0</v>
@@ -4045,7 +4053,7 @@
       <c r="O11" s="87"/>
       <c r="P11" s="87"/>
     </row>
-    <row r="13" ht="13.5" spans="1:7">
+    <row r="13" ht="13.1" spans="1:7">
       <c r="A13" s="51" t="s">
         <v>38</v>
       </c>
@@ -4068,7 +4076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="13.5" spans="1:7">
+    <row r="14" ht="13.1" spans="1:7">
       <c r="A14" s="82" t="s">
         <v>52</v>
       </c>
@@ -4085,7 +4093,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" ht="13.5" spans="3:7">
+    <row r="15" ht="13.1" spans="3:7">
       <c r="C15" t="s">
         <v>46</v>
       </c>
@@ -4093,7 +4101,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" ht="13.5" spans="3:7">
+    <row r="16" ht="13.1" spans="3:7">
       <c r="C16" t="s">
         <v>47</v>
       </c>
@@ -4102,7 +4110,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="19" ht="13.5" spans="17:17">
+    <row r="19" ht="13.1" spans="17:17">
       <c r="Q19" t="s">
         <v>54</v>
       </c>
@@ -4125,27 +4133,27 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J10" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="12.35"/>
   <cols>
-    <col min="1" max="1" width="12.0416666666667" style="82" customWidth="1"/>
-    <col min="2" max="2" width="8.60833333333333" style="82"/>
-    <col min="3" max="3" width="9.46666666666667" style="82"/>
-    <col min="4" max="4" width="8.80833333333333" style="82" customWidth="1"/>
-    <col min="5" max="5" width="8.48333333333333" style="82" customWidth="1"/>
-    <col min="6" max="6" width="8.175" style="82" customWidth="1"/>
-    <col min="7" max="12" width="8.60833333333333" style="82"/>
-    <col min="13" max="13" width="10.3416666666667" style="82" customWidth="1"/>
-    <col min="14" max="14" width="8.60833333333333" style="82"/>
-    <col min="15" max="18" width="10.5083333333333" style="82" customWidth="1"/>
-    <col min="19" max="19" width="12.7333333333333" style="82" customWidth="1"/>
-    <col min="20" max="20" width="11.9083333333333" style="82"/>
-    <col min="21" max="16384" width="8.60833333333333" style="82"/>
+    <col min="1" max="1" width="12.0442477876106" style="82" customWidth="1"/>
+    <col min="2" max="2" width="8.61061946902655" style="82"/>
+    <col min="3" max="3" width="9.46902654867257" style="82"/>
+    <col min="4" max="4" width="8.80530973451327" style="82" customWidth="1"/>
+    <col min="5" max="5" width="8.48672566371681" style="82" customWidth="1"/>
+    <col min="6" max="6" width="8.17699115044248" style="82" customWidth="1"/>
+    <col min="7" max="12" width="8.61061946902655" style="82"/>
+    <col min="13" max="13" width="10.3451327433628" style="82" customWidth="1"/>
+    <col min="14" max="14" width="8.61061946902655" style="82"/>
+    <col min="15" max="18" width="10.5044247787611" style="82" customWidth="1"/>
+    <col min="19" max="19" width="12.7345132743363" style="82" customWidth="1"/>
+    <col min="20" max="20" width="11.9115044247788" style="82"/>
+    <col min="21" max="16384" width="8.61061946902655" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" s="82" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="82" customFormat="1" ht="13.1" spans="1:5">
       <c r="A1" s="82" t="s">
         <v>16</v>
       </c>
@@ -4159,7 +4167,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" s="82" customFormat="1" ht="13.5" spans="1:20">
+    <row r="2" s="82" customFormat="1" ht="13.1" spans="1:20">
       <c r="A2" s="82" t="s">
         <v>57</v>
       </c>
@@ -4188,7 +4196,7 @@
       <c r="R3" s="99"/>
       <c r="S3" s="100"/>
     </row>
-    <row r="4" s="83" customFormat="1" ht="36" spans="1:19">
+    <row r="4" s="83" customFormat="1" ht="49.5" spans="1:19">
       <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
@@ -4457,7 +4465,7 @@
         <v>0.0172394366197183</v>
       </c>
     </row>
-    <row r="9" s="82" customFormat="1" ht="14.25" spans="1:19">
+    <row r="9" s="82" customFormat="1" ht="15" spans="1:19">
       <c r="A9" s="86" t="s">
         <v>36</v>
       </c>
@@ -4533,7 +4541,9 @@
         <f t="shared" si="0"/>
         <v>0.015</v>
       </c>
-      <c r="J10" s="88"/>
+      <c r="J10" s="88">
+        <v>1</v>
+      </c>
       <c r="K10" s="88">
         <f>IF((K5+K9)&gt;100%,100%,K5+K9)</f>
         <v>0</v>
@@ -4583,7 +4593,9 @@
         <f t="shared" si="1"/>
         <v>0.015</v>
       </c>
-      <c r="J11" s="88"/>
+      <c r="J11" s="88">
+        <v>0</v>
+      </c>
       <c r="K11" s="88">
         <f>IF((K6+K9)&lt;0,0,K6+K9)</f>
         <v>0</v>
@@ -4600,7 +4612,7 @@
       <c r="R11" s="91"/>
       <c r="S11" s="91"/>
     </row>
-    <row r="13" ht="13.5" spans="1:8">
+    <row r="13" ht="13.1" spans="1:8">
       <c r="A13" s="51" t="s">
         <v>38</v>
       </c>
@@ -4626,7 +4638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" ht="13.5" spans="1:8">
+    <row r="14" ht="13.1" spans="1:8">
       <c r="A14" s="103" t="s">
         <v>52</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" ht="13.5" spans="1:7">
+    <row r="15" ht="13.1" spans="1:7">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -4659,7 +4671,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" ht="13.5" spans="1:7">
+    <row r="16" ht="13.1" spans="1:7">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -4674,7 +4686,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" ht="13.5" spans="1:7">
+    <row r="17" ht="13.1" spans="1:7">
       <c r="A17" s="82" t="s">
         <v>71</v>
       </c>
@@ -4687,7 +4699,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" ht="13.5" spans="1:7">
+    <row r="18" ht="13.1" spans="1:7">
       <c r="A18" s="20" t="s">
         <v>72</v>
       </c>
@@ -4700,14 +4712,14 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" ht="13.5" spans="3:7">
+    <row r="19" ht="13.1" spans="3:7">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" ht="13.5" spans="3:7">
+    <row r="20" ht="13.1" spans="3:7">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -4738,29 +4750,29 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="J10" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="12.35"/>
   <cols>
-    <col min="1" max="1" width="12.0416666666667" style="82" customWidth="1"/>
-    <col min="2" max="2" width="8.60833333333333" style="82"/>
-    <col min="3" max="3" width="9.46666666666667" style="82"/>
-    <col min="4" max="4" width="8.80833333333333" style="82" customWidth="1"/>
-    <col min="5" max="5" width="8.48333333333333" style="82" customWidth="1"/>
-    <col min="6" max="6" width="8.175" style="82" customWidth="1"/>
-    <col min="7" max="12" width="8.60833333333333" style="82"/>
-    <col min="13" max="13" width="10.3416666666667" style="82" customWidth="1"/>
-    <col min="14" max="14" width="8.60833333333333" style="82"/>
-    <col min="15" max="18" width="10.5083333333333" style="82" customWidth="1"/>
-    <col min="19" max="19" width="10.8083333333333" style="82" customWidth="1"/>
-    <col min="20" max="21" width="10.5083333333333" style="82" customWidth="1"/>
-    <col min="22" max="22" width="11.35" style="82" customWidth="1"/>
-    <col min="23" max="25" width="11.9083333333333" style="82" hidden="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.60833333333333" style="82"/>
+    <col min="1" max="1" width="12.0442477876106" style="82" customWidth="1"/>
+    <col min="2" max="2" width="8.61061946902655" style="82"/>
+    <col min="3" max="3" width="9.46902654867257" style="82"/>
+    <col min="4" max="4" width="8.80530973451327" style="82" customWidth="1"/>
+    <col min="5" max="5" width="8.48672566371681" style="82" customWidth="1"/>
+    <col min="6" max="6" width="8.17699115044248" style="82" customWidth="1"/>
+    <col min="7" max="12" width="8.61061946902655" style="82"/>
+    <col min="13" max="13" width="10.3451327433628" style="82" customWidth="1"/>
+    <col min="14" max="14" width="8.61061946902655" style="82"/>
+    <col min="15" max="18" width="10.5044247787611" style="82" customWidth="1"/>
+    <col min="19" max="19" width="10.8053097345133" style="82" customWidth="1"/>
+    <col min="20" max="21" width="10.5044247787611" style="82" customWidth="1"/>
+    <col min="22" max="22" width="11.353982300885" style="82" customWidth="1"/>
+    <col min="23" max="25" width="11.9115044247788" style="82" hidden="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.61061946902655" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" s="82" customFormat="1" ht="13.5" spans="1:22">
+    <row r="1" s="82" customFormat="1" ht="13.1" spans="1:22">
       <c r="A1" s="82" t="s">
         <v>16</v>
       </c>
@@ -4783,7 +4795,7 @@
       <c r="U1" s="89"/>
       <c r="V1" s="89"/>
     </row>
-    <row r="2" s="82" customFormat="1" ht="13.5" spans="1:22">
+    <row r="2" s="82" customFormat="1" ht="13.1" spans="1:22">
       <c r="A2" s="82" t="s">
         <v>57</v>
       </c>
@@ -4819,7 +4831,7 @@
       </c>
       <c r="V3" s="102"/>
     </row>
-    <row r="4" s="83" customFormat="1" ht="36" spans="1:22">
+    <row r="4" s="83" customFormat="1" ht="49.5" spans="1:22">
       <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
@@ -5151,7 +5163,7 @@
         <v>0.736141122969157</v>
       </c>
     </row>
-    <row r="9" s="82" customFormat="1" ht="14.25" spans="1:22">
+    <row r="9" s="82" customFormat="1" ht="15" spans="1:22">
       <c r="A9" s="86" t="s">
         <v>36</v>
       </c>
@@ -5230,7 +5242,9 @@
         <f t="shared" si="0"/>
         <v>0.012</v>
       </c>
-      <c r="J10" s="88"/>
+      <c r="J10" s="88">
+        <v>1</v>
+      </c>
       <c r="K10" s="88">
         <f>IF((K5+K9)&gt;100%,100%,K5+K9)</f>
         <v>0</v>
@@ -5283,7 +5297,9 @@
         <f t="shared" si="1"/>
         <v>0.012</v>
       </c>
-      <c r="J11" s="88"/>
+      <c r="J11" s="88">
+        <v>0</v>
+      </c>
       <c r="K11" s="88">
         <f>IF((K6+K9)&lt;0,0,K6+K9)</f>
         <v>0</v>
@@ -5303,7 +5319,7 @@
       <c r="U11" s="91"/>
       <c r="V11" s="91"/>
     </row>
-    <row r="13" ht="27" spans="1:8">
+    <row r="13" ht="26.25" spans="1:8">
       <c r="A13" s="51" t="s">
         <v>38</v>
       </c>
@@ -5327,7 +5343,7 @@
       </c>
       <c r="H13" s="95"/>
     </row>
-    <row r="14" ht="40.5" spans="1:22">
+    <row r="14" ht="39.4" spans="1:22">
       <c r="A14" s="95" t="s">
         <v>52</v>
       </c>
@@ -5356,7 +5372,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="15" ht="54" spans="1:22">
+    <row r="15" ht="52.5" spans="1:22">
       <c r="A15" s="95" t="s">
         <v>87</v>
       </c>
@@ -5385,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:21">
+    <row r="16" ht="13.85" spans="1:21">
       <c r="A16" s="95" t="s">
         <v>72</v>
       </c>
@@ -5405,7 +5421,7 @@
         <v>0.68929577878021</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:21">
+    <row r="17" ht="13.85" spans="1:21">
       <c r="A17" s="95" t="s">
         <v>89</v>
       </c>
@@ -5423,7 +5439,7 @@
         <v>0.769602083104118</v>
       </c>
     </row>
-    <row r="18" ht="13.5" spans="1:22">
+    <row r="18" ht="13.1" spans="1:22">
       <c r="A18" s="95"/>
       <c r="B18" s="95"/>
       <c r="C18" s="94"/>
@@ -5441,34 +5457,34 @@
         <v>0.010330229303411</v>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="3:7">
+    <row r="19" ht="13.1" spans="3:7">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" ht="13.5" spans="3:7">
+    <row r="20" ht="13.1" spans="3:7">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" ht="13.5" spans="6:6">
+    <row r="21" ht="13.1" spans="6:6">
       <c r="F21"/>
     </row>
-    <row r="22" ht="13.5" spans="6:6">
+    <row r="22" ht="13.1" spans="6:6">
       <c r="F22"/>
     </row>
-    <row r="23" ht="13.5" spans="6:6">
+    <row r="23" ht="13.1" spans="6:6">
       <c r="F23"/>
     </row>
-    <row r="24" ht="13.5" spans="6:15">
+    <row r="24" ht="13.1" spans="6:15">
       <c r="F24"/>
       <c r="O24" s="94"/>
     </row>
-    <row r="25" ht="13.5" spans="6:6">
+    <row r="25" ht="13.1" spans="6:6">
       <c r="F25"/>
     </row>
   </sheetData>
@@ -5492,26 +5508,26 @@
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T19" sqref="T19:T21"/>
+      <selection activeCell="J10" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="12.35"/>
   <cols>
-    <col min="1" max="1" width="12.0416666666667" style="82" customWidth="1"/>
-    <col min="2" max="2" width="8.60833333333333" style="82"/>
-    <col min="3" max="3" width="9.46666666666667" style="82"/>
-    <col min="4" max="4" width="8.80833333333333" style="82" customWidth="1"/>
-    <col min="5" max="5" width="8.48333333333333" style="82" customWidth="1"/>
-    <col min="6" max="6" width="8.175" style="82" customWidth="1"/>
-    <col min="7" max="12" width="8.60833333333333" style="82"/>
-    <col min="13" max="13" width="10.3416666666667" style="82" customWidth="1"/>
-    <col min="14" max="14" width="8.60833333333333" style="82"/>
-    <col min="15" max="19" width="10.5083333333333" style="82" customWidth="1"/>
-    <col min="20" max="20" width="11.9083333333333" style="82"/>
-    <col min="21" max="16384" width="8.60833333333333" style="82"/>
+    <col min="1" max="1" width="12.0442477876106" style="82" customWidth="1"/>
+    <col min="2" max="2" width="8.61061946902655" style="82"/>
+    <col min="3" max="3" width="9.46902654867257" style="82"/>
+    <col min="4" max="4" width="8.80530973451327" style="82" customWidth="1"/>
+    <col min="5" max="5" width="8.48672566371681" style="82" customWidth="1"/>
+    <col min="6" max="6" width="8.17699115044248" style="82" customWidth="1"/>
+    <col min="7" max="12" width="8.61061946902655" style="82"/>
+    <col min="13" max="13" width="10.3451327433628" style="82" customWidth="1"/>
+    <col min="14" max="14" width="8.61061946902655" style="82"/>
+    <col min="15" max="19" width="10.5044247787611" style="82" customWidth="1"/>
+    <col min="20" max="20" width="11.9115044247788" style="82"/>
+    <col min="21" max="16384" width="8.61061946902655" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" s="82" customFormat="1" ht="13.5" spans="1:5">
+    <row r="1" s="82" customFormat="1" ht="13.1" spans="1:5">
       <c r="A1" s="82" t="s">
         <v>16</v>
       </c>
@@ -5525,7 +5541,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" s="82" customFormat="1" ht="13.5" spans="1:20">
+    <row r="2" s="82" customFormat="1" ht="13.1" spans="1:20">
       <c r="A2" s="82" t="s">
         <v>57</v>
       </c>
@@ -5554,7 +5570,7 @@
       <c r="R3" s="92"/>
       <c r="S3" s="93"/>
     </row>
-    <row r="4" s="83" customFormat="1" ht="36" spans="1:19">
+    <row r="4" s="83" customFormat="1" ht="49.5" spans="1:19">
       <c r="A4" s="84" t="s">
         <v>0</v>
       </c>
@@ -5823,7 +5839,7 @@
         <v>0.0172394366197183</v>
       </c>
     </row>
-    <row r="9" s="82" customFormat="1" ht="14.25" spans="1:19">
+    <row r="9" s="82" customFormat="1" ht="15" spans="1:19">
       <c r="A9" s="86" t="s">
         <v>36</v>
       </c>
@@ -5899,7 +5915,9 @@
         <f t="shared" si="0"/>
         <v>0.012</v>
       </c>
-      <c r="J10" s="88"/>
+      <c r="J10" s="88">
+        <v>1</v>
+      </c>
       <c r="K10" s="88">
         <f>IF((K5+K9)&gt;100%,100%,K5+K9)</f>
         <v>0</v>
@@ -5949,7 +5967,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="88"/>
+      <c r="J11" s="88">
+        <v>0</v>
+      </c>
       <c r="K11" s="88">
         <f>IF((K6+K9)&lt;0,0,K6+K9)</f>
         <v>0</v>
@@ -5966,7 +5986,7 @@
       <c r="R11" s="91"/>
       <c r="S11" s="91"/>
     </row>
-    <row r="13" ht="13.5" spans="1:7">
+    <row r="13" ht="13.1" spans="1:7">
       <c r="A13" s="51" t="s">
         <v>38</v>
       </c>
@@ -5989,7 +6009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="13.5" spans="1:7">
+    <row r="14" ht="13.1" spans="1:7">
       <c r="A14" s="82" t="s">
         <v>52</v>
       </c>
@@ -6007,7 +6027,7 @@
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" ht="13.5" spans="1:7">
+    <row r="15" ht="13.1" spans="1:7">
       <c r="A15" s="82" t="s">
         <v>93</v>
       </c>
@@ -6020,25 +6040,25 @@
       <c r="E15"/>
       <c r="G15"/>
     </row>
-    <row r="16" ht="13.5" spans="3:7">
+    <row r="16" ht="13.1" spans="3:7">
       <c r="C16" t="s">
         <v>47</v>
       </c>
       <c r="E16"/>
       <c r="G16"/>
     </row>
-    <row r="17" ht="13.5" spans="3:7">
+    <row r="17" ht="13.1" spans="3:7">
       <c r="C17"/>
       <c r="E17"/>
       <c r="G17"/>
     </row>
-    <row r="18" ht="13.5" spans="3:7">
+    <row r="18" ht="13.1" spans="3:7">
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18"/>
     </row>
-    <row r="19" ht="13.5" spans="3:21">
+    <row r="19" ht="13.1" spans="3:21">
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -6048,7 +6068,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" ht="13.5" spans="3:21">
+    <row r="20" ht="13.1" spans="3:21">
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -6058,7 +6078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" ht="13.5" spans="3:21">
+    <row r="21" ht="13.1" spans="3:21">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -6067,27 +6087,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" ht="13.5" spans="21:21">
+    <row r="22" ht="13.1" spans="21:21">
       <c r="U22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" ht="13.5" spans="21:21">
+    <row r="23" ht="13.1" spans="21:21">
       <c r="U23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" ht="13.5" spans="21:21">
+    <row r="24" ht="13.1" spans="21:21">
       <c r="U24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" ht="13.5" spans="21:21">
+    <row r="25" ht="13.1" spans="21:21">
       <c r="U25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" ht="13.5" spans="21:21">
+    <row r="26" ht="13.1" spans="21:21">
       <c r="U26" t="s">
         <v>97</v>
       </c>
@@ -6114,18 +6134,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.72566371681416" defaultRowHeight="15.35"/>
   <cols>
-    <col min="1" max="1" width="4.80833333333333" style="50" customWidth="1"/>
-    <col min="2" max="2" width="9.48333333333333" style="50" customWidth="1"/>
-    <col min="3" max="3" width="18.7333333333333" style="50" customWidth="1"/>
-    <col min="4" max="4" width="8.18333333333333" style="50" customWidth="1"/>
-    <col min="5" max="21" width="6.00833333333333" style="50" customWidth="1"/>
-    <col min="22" max="22" width="11.4166666666667" style="50" customWidth="1"/>
-    <col min="23" max="16384" width="9.725" style="50"/>
+    <col min="1" max="1" width="4.80530973451327" style="50" customWidth="1"/>
+    <col min="2" max="2" width="9.48672566371681" style="50" customWidth="1"/>
+    <col min="3" max="3" width="18.7345132743363" style="50" customWidth="1"/>
+    <col min="4" max="4" width="8.1858407079646" style="50" customWidth="1"/>
+    <col min="5" max="21" width="6.00884955752212" style="50" customWidth="1"/>
+    <col min="22" max="22" width="11.4159292035398" style="50" customWidth="1"/>
+    <col min="23" max="16384" width="9.72566371681416" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" s="49" customFormat="1" ht="11.25" spans="1:21">
+    <row r="1" s="49" customFormat="1" ht="10.9" spans="1:21">
       <c r="A1" s="51" t="s">
         <v>98</v>
       </c>
@@ -6190,7 +6210,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" s="16" customFormat="1" ht="11.25" spans="1:22">
+    <row r="2" s="16" customFormat="1" ht="10.85" spans="1:22">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -6236,7 +6256,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="3" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -6283,7 +6303,7 @@
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
     </row>
-    <row r="4" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="4" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -6332,7 +6352,7 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
     </row>
-    <row r="5" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="5" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -6377,7 +6397,7 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
     </row>
-    <row r="6" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="6" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -6422,7 +6442,7 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
     </row>
-    <row r="7" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="7" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -6461,7 +6481,7 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="8" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -6502,7 +6522,7 @@
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="9" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -6543,7 +6563,7 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="10" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -6578,7 +6598,7 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="11" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -6621,7 +6641,7 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="12" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -6658,7 +6678,7 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="13" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -6697,7 +6717,7 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="14" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -6732,7 +6752,7 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="15" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -6773,7 +6793,7 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
     </row>
-    <row r="16" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="16" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -6804,7 +6824,7 @@
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
     </row>
-    <row r="17" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="17" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -6837,7 +6857,7 @@
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
     </row>
-    <row r="18" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="18" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -6874,7 +6894,7 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
     </row>
-    <row r="19" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="19" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -6915,7 +6935,7 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
     </row>
-    <row r="20" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="20" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -6956,7 +6976,7 @@
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
     </row>
-    <row r="21" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="21" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -6989,7 +7009,7 @@
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
     </row>
-    <row r="22" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="22" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -7030,7 +7050,7 @@
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
     </row>
-    <row r="23" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="23" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -7071,7 +7091,7 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
     </row>
-    <row r="24" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="24" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -7115,7 +7135,7 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
     </row>
-    <row r="25" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="25" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -7166,7 +7186,7 @@
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
     </row>
-    <row r="26" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="26" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -7205,7 +7225,7 @@
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
     </row>
-    <row r="27" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="27" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -7244,7 +7264,7 @@
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
     </row>
-    <row r="28" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="28" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -7285,7 +7305,7 @@
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
     </row>
-    <row r="29" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="29" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -7332,7 +7352,7 @@
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
     </row>
-    <row r="30" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="30" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -7375,7 +7395,7 @@
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
     </row>
-    <row r="31" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="31" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -7418,7 +7438,7 @@
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
     </row>
-    <row r="32" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="32" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -7461,7 +7481,7 @@
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
     </row>
-    <row r="33" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="33" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -7504,7 +7524,7 @@
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
     </row>
-    <row r="34" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="34" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -7539,7 +7559,7 @@
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
     </row>
-    <row r="35" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="35" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -7572,7 +7592,7 @@
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
     </row>
-    <row r="36" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="36" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -7613,7 +7633,7 @@
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
     </row>
-    <row r="37" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="37" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -7654,7 +7674,7 @@
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
     </row>
-    <row r="38" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="38" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -7689,7 +7709,7 @@
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
     </row>
-    <row r="39" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="39" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -7726,7 +7746,7 @@
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
     </row>
-    <row r="40" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="40" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -7763,7 +7783,7 @@
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
     </row>
-    <row r="41" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="41" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -7794,7 +7814,7 @@
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
     </row>
-    <row r="42" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="42" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -7827,7 +7847,7 @@
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
     </row>
-    <row r="43" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="43" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -7860,7 +7880,7 @@
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
     </row>
-    <row r="44" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="44" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A44" s="19">
         <v>43</v>
       </c>
@@ -7901,7 +7921,7 @@
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
     </row>
-    <row r="45" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="45" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A45" s="19">
         <v>44</v>
       </c>
@@ -7944,7 +7964,7 @@
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
     </row>
-    <row r="46" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="46" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A46" s="19">
         <v>45</v>
       </c>
@@ -7985,7 +8005,7 @@
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
     </row>
-    <row r="47" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="47" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A47" s="19">
         <v>46</v>
       </c>
@@ -8026,7 +8046,7 @@
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
     </row>
-    <row r="48" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="48" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A48" s="19">
         <v>47</v>
       </c>
@@ -8067,7 +8087,7 @@
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
     </row>
-    <row r="49" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="49" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A49" s="19">
         <v>48</v>
       </c>
@@ -8108,7 +8128,7 @@
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
     </row>
-    <row r="50" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="50" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A50" s="19">
         <v>49</v>
       </c>
@@ -8147,7 +8167,7 @@
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
     </row>
-    <row r="51" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="51" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A51" s="19">
         <v>50</v>
       </c>
@@ -8186,7 +8206,7 @@
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
     </row>
-    <row r="52" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="52" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -8227,7 +8247,7 @@
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
     </row>
-    <row r="53" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="53" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A53" s="19">
         <v>52</v>
       </c>
@@ -8299,7 +8319,7 @@
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
     </row>
-    <row r="55" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="55" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A55" s="19">
         <v>54</v>
       </c>
@@ -8332,7 +8352,7 @@
       <c r="T55" s="20"/>
       <c r="U55" s="20"/>
     </row>
-    <row r="56" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="56" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A56" s="19">
         <v>55</v>
       </c>
@@ -8369,7 +8389,7 @@
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
     </row>
-    <row r="57" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="57" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A57" s="19">
         <v>56</v>
       </c>
@@ -8412,7 +8432,7 @@
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
     </row>
-    <row r="58" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="58" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A58" s="19">
         <v>57</v>
       </c>
@@ -8455,7 +8475,7 @@
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
     </row>
-    <row r="59" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="59" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A59" s="19">
         <v>58</v>
       </c>
@@ -8498,7 +8518,7 @@
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
     </row>
-    <row r="60" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="60" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A60" s="19">
         <v>59</v>
       </c>
@@ -8541,7 +8561,7 @@
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
     </row>
-    <row r="61" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="61" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A61" s="19">
         <v>60</v>
       </c>
@@ -8584,7 +8604,7 @@
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
     </row>
-    <row r="62" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="62" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A62" s="19">
         <v>61</v>
       </c>
@@ -8627,7 +8647,7 @@
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
     </row>
-    <row r="63" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="63" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A63" s="19">
         <v>62</v>
       </c>
@@ -8664,7 +8684,7 @@
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
     </row>
-    <row r="64" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="64" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A64" s="19">
         <v>63</v>
       </c>
@@ -8703,7 +8723,7 @@
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
     </row>
-    <row r="65" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="65" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A65" s="19">
         <v>64</v>
       </c>
@@ -8740,7 +8760,7 @@
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
     </row>
-    <row r="66" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="66" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A66" s="19">
         <v>65</v>
       </c>
@@ -8777,7 +8797,7 @@
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
     </row>
-    <row r="67" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="67" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A67" s="19">
         <v>66</v>
       </c>
@@ -8814,7 +8834,7 @@
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
     </row>
-    <row r="68" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="68" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A68" s="19">
         <v>67</v>
       </c>
@@ -8853,7 +8873,7 @@
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
     </row>
-    <row r="69" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="69" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A69" s="19">
         <v>68</v>
       </c>
@@ -8902,7 +8922,7 @@
       <c r="T69" s="20"/>
       <c r="U69" s="20"/>
     </row>
-    <row r="70" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="70" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A70" s="19">
         <v>69</v>
       </c>
@@ -8945,7 +8965,7 @@
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
     </row>
-    <row r="71" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="71" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A71" s="19">
         <v>70</v>
       </c>
@@ -8988,7 +9008,7 @@
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
     </row>
-    <row r="72" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="72" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A72" s="19">
         <v>71</v>
       </c>
@@ -9031,7 +9051,7 @@
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
     </row>
-    <row r="73" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="73" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A73" s="19">
         <v>72</v>
       </c>
@@ -9074,7 +9094,7 @@
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
     </row>
-    <row r="74" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="74" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A74" s="19">
         <v>73</v>
       </c>
@@ -9117,7 +9137,7 @@
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
     </row>
-    <row r="75" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="75" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A75" s="19">
         <v>74</v>
       </c>
@@ -9160,7 +9180,7 @@
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
     </row>
-    <row r="76" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="76" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A76" s="19">
         <v>75</v>
       </c>
@@ -9201,7 +9221,7 @@
       <c r="T76" s="20"/>
       <c r="U76" s="20"/>
     </row>
-    <row r="77" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="77" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A77" s="19">
         <v>76</v>
       </c>
@@ -9238,7 +9258,7 @@
       <c r="T77" s="20"/>
       <c r="U77" s="20"/>
     </row>
-    <row r="78" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="78" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A78" s="19">
         <v>77</v>
       </c>
@@ -9275,7 +9295,7 @@
       <c r="T78" s="20"/>
       <c r="U78" s="20"/>
     </row>
-    <row r="79" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="79" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A79" s="19">
         <v>78</v>
       </c>
@@ -9312,7 +9332,7 @@
       <c r="T79" s="20"/>
       <c r="U79" s="20"/>
     </row>
-    <row r="80" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="80" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A80" s="19">
         <v>79</v>
       </c>
@@ -9345,7 +9365,7 @@
       <c r="T80" s="20"/>
       <c r="U80" s="20"/>
     </row>
-    <row r="81" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="81" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A81" s="19">
         <v>80</v>
       </c>
@@ -9380,7 +9400,7 @@
       <c r="T81" s="20"/>
       <c r="U81" s="20"/>
     </row>
-    <row r="82" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="82" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A82" s="19">
         <v>81</v>
       </c>
@@ -9421,7 +9441,7 @@
       <c r="T82" s="20"/>
       <c r="U82" s="20"/>
     </row>
-    <row r="83" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="83" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A83" s="19">
         <v>82</v>
       </c>
@@ -9462,7 +9482,7 @@
       <c r="T83" s="20"/>
       <c r="U83" s="20"/>
     </row>
-    <row r="84" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="84" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A84" s="19">
         <v>83</v>
       </c>
@@ -9503,7 +9523,7 @@
       <c r="T84" s="20"/>
       <c r="U84" s="20"/>
     </row>
-    <row r="85" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="85" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A85" s="19">
         <v>84</v>
       </c>
@@ -9544,7 +9564,7 @@
       <c r="T85" s="20"/>
       <c r="U85" s="20"/>
     </row>
-    <row r="86" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="86" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A86" s="19">
         <v>85</v>
       </c>
@@ -9579,7 +9599,7 @@
       <c r="T86" s="20"/>
       <c r="U86" s="20"/>
     </row>
-    <row r="87" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="87" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A87" s="19">
         <v>86</v>
       </c>
@@ -9614,7 +9634,7 @@
       <c r="T87" s="20"/>
       <c r="U87" s="20"/>
     </row>
-    <row r="88" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="88" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A88" s="19">
         <v>87</v>
       </c>
@@ -9651,7 +9671,7 @@
       <c r="T88" s="20"/>
       <c r="U88" s="20"/>
     </row>
-    <row r="89" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="89" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A89" s="19">
         <v>88</v>
       </c>
@@ -9688,7 +9708,7 @@
       <c r="T89" s="20"/>
       <c r="U89" s="20"/>
     </row>
-    <row r="90" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="90" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A90" s="19">
         <v>89</v>
       </c>
@@ -9725,7 +9745,7 @@
       <c r="T90" s="20"/>
       <c r="U90" s="20"/>
     </row>
-    <row r="91" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="91" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A91" s="19">
         <v>90</v>
       </c>
@@ -9760,7 +9780,7 @@
       <c r="T91" s="20"/>
       <c r="U91" s="20"/>
     </row>
-    <row r="92" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="92" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A92" s="19">
         <v>91</v>
       </c>
@@ -9801,7 +9821,7 @@
       <c r="T92" s="20"/>
       <c r="U92" s="20"/>
     </row>
-    <row r="93" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="93" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A93" s="19">
         <v>92</v>
       </c>
@@ -9844,7 +9864,7 @@
       <c r="T93" s="20"/>
       <c r="U93" s="20"/>
     </row>
-    <row r="94" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="94" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A94" s="19">
         <v>93</v>
       </c>
@@ -9885,7 +9905,7 @@
       <c r="T94" s="20"/>
       <c r="U94" s="20"/>
     </row>
-    <row r="95" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="95" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A95" s="19">
         <v>94</v>
       </c>
@@ -9963,7 +9983,7 @@
       <c r="T96" s="20"/>
       <c r="U96" s="20"/>
     </row>
-    <row r="97" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="97" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A97" s="19">
         <v>96</v>
       </c>
@@ -10006,7 +10026,7 @@
       <c r="T97" s="20"/>
       <c r="U97" s="20"/>
     </row>
-    <row r="98" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="98" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A98" s="19">
         <v>97</v>
       </c>
@@ -10049,7 +10069,7 @@
       <c r="T98" s="20"/>
       <c r="U98" s="20"/>
     </row>
-    <row r="99" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="99" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A99" s="19">
         <v>98</v>
       </c>
@@ -10082,7 +10102,7 @@
       <c r="T99" s="20"/>
       <c r="U99" s="20"/>
     </row>
-    <row r="100" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="100" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -10119,7 +10139,7 @@
       <c r="T100" s="20"/>
       <c r="U100" s="20"/>
     </row>
-    <row r="101" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="101" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -10162,7 +10182,7 @@
       <c r="T101" s="20"/>
       <c r="U101" s="20"/>
     </row>
-    <row r="102" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="102" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -10205,7 +10225,7 @@
       <c r="T102" s="20"/>
       <c r="U102" s="20"/>
     </row>
-    <row r="103" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="103" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -10248,7 +10268,7 @@
       <c r="T103" s="20"/>
       <c r="U103" s="20"/>
     </row>
-    <row r="104" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="104" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -10291,7 +10311,7 @@
       <c r="T104" s="20"/>
       <c r="U104" s="20"/>
     </row>
-    <row r="105" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="105" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -10334,7 +10354,7 @@
       <c r="T105" s="20"/>
       <c r="U105" s="20"/>
     </row>
-    <row r="106" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="106" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -10373,7 +10393,7 @@
       <c r="T106" s="20"/>
       <c r="U106" s="20"/>
     </row>
-    <row r="107" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="107" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A107" s="19">
         <v>106</v>
       </c>
@@ -10414,7 +10434,7 @@
       <c r="T107" s="20"/>
       <c r="U107" s="20"/>
     </row>
-    <row r="108" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="108" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -10455,7 +10475,7 @@
       <c r="T108" s="20"/>
       <c r="U108" s="20"/>
     </row>
-    <row r="109" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="109" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A109" s="19">
         <v>108</v>
       </c>
@@ -10492,7 +10512,7 @@
       <c r="T109" s="20"/>
       <c r="U109" s="20"/>
     </row>
-    <row r="110" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="110" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A110" s="19">
         <v>109</v>
       </c>
@@ -10533,7 +10553,7 @@
       <c r="T110" s="20"/>
       <c r="U110" s="20"/>
     </row>
-    <row r="111" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="111" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A111" s="19">
         <v>110</v>
       </c>
@@ -10569,7 +10589,7 @@
       <c r="T111" s="20"/>
       <c r="U111" s="20"/>
     </row>
-    <row r="112" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="112" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A112" s="19">
         <v>111</v>
       </c>
@@ -10605,7 +10625,7 @@
       <c r="T112" s="20"/>
       <c r="U112" s="20"/>
     </row>
-    <row r="113" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="113" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A113" s="19">
         <v>112</v>
       </c>
@@ -10638,7 +10658,7 @@
       <c r="T113" s="20"/>
       <c r="U113" s="20"/>
     </row>
-    <row r="114" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="114" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A114" s="19">
         <v>113</v>
       </c>
@@ -10675,7 +10695,7 @@
       <c r="T114" s="20"/>
       <c r="U114" s="20"/>
     </row>
-    <row r="115" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="115" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A115" s="19">
         <v>114</v>
       </c>
@@ -10712,7 +10732,7 @@
       <c r="T115" s="20"/>
       <c r="U115" s="20"/>
     </row>
-    <row r="116" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="116" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A116" s="19">
         <v>115</v>
       </c>
@@ -10749,7 +10769,7 @@
       <c r="T116" s="20"/>
       <c r="U116" s="20"/>
     </row>
-    <row r="117" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="117" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A117" s="19">
         <v>116</v>
       </c>
@@ -10790,7 +10810,7 @@
       <c r="T117" s="20"/>
       <c r="U117" s="20"/>
     </row>
-    <row r="118" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="118" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A118" s="19">
         <v>117</v>
       </c>
@@ -11006,7 +11026,7 @@
       <c r="T123" s="20"/>
       <c r="U123" s="20"/>
     </row>
-    <row r="124" s="16" customFormat="1" ht="11.25" hidden="1" spans="1:21">
+    <row r="124" s="16" customFormat="1" ht="10.85" hidden="1" spans="1:21">
       <c r="A124" s="19">
         <v>123</v>
       </c>
@@ -11031,7 +11051,7 @@
       <c r="T124" s="20"/>
       <c r="U124" s="20"/>
     </row>
-    <row r="125" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="125" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A125" s="19">
         <v>124</v>
       </c>
@@ -11064,7 +11084,7 @@
       <c r="T125" s="20"/>
       <c r="U125" s="20"/>
     </row>
-    <row r="126" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="126" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A126" s="19">
         <v>125</v>
       </c>
@@ -11095,7 +11115,7 @@
       <c r="T126" s="20"/>
       <c r="U126" s="20"/>
     </row>
-    <row r="127" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="127" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A127" s="19">
         <v>126</v>
       </c>
@@ -11130,7 +11150,7 @@
       <c r="T127" s="20"/>
       <c r="U127" s="20"/>
     </row>
-    <row r="128" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="128" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A128" s="19">
         <v>127</v>
       </c>
@@ -11165,7 +11185,7 @@
       <c r="T128" s="20"/>
       <c r="U128" s="20"/>
     </row>
-    <row r="129" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="129" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A129" s="19">
         <v>128</v>
       </c>
@@ -11196,7 +11216,7 @@
       <c r="T129" s="20"/>
       <c r="U129" s="20"/>
     </row>
-    <row r="130" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="130" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A130" s="19">
         <v>129</v>
       </c>
@@ -11221,7 +11241,7 @@
       <c r="T130" s="20"/>
       <c r="U130" s="20"/>
     </row>
-    <row r="131" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="131" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A131" s="19">
         <v>130</v>
       </c>
@@ -11246,7 +11266,7 @@
       <c r="T131" s="20"/>
       <c r="U131" s="20"/>
     </row>
-    <row r="132" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="132" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A132" s="19">
         <v>131</v>
       </c>
@@ -11271,7 +11291,7 @@
       <c r="T132" s="20"/>
       <c r="U132" s="20"/>
     </row>
-    <row r="133" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="133" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A133" s="19">
         <v>132</v>
       </c>
@@ -11296,7 +11316,7 @@
       <c r="T133" s="20"/>
       <c r="U133" s="20"/>
     </row>
-    <row r="134" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="134" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A134" s="19">
         <v>133</v>
       </c>
@@ -11321,7 +11341,7 @@
       <c r="T134" s="20"/>
       <c r="U134" s="20"/>
     </row>
-    <row r="135" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="135" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A135" s="19">
         <v>134</v>
       </c>
@@ -11346,7 +11366,7 @@
       <c r="T135" s="20"/>
       <c r="U135" s="20"/>
     </row>
-    <row r="136" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="136" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A136" s="19">
         <v>135</v>
       </c>
@@ -11371,7 +11391,7 @@
       <c r="T136" s="20"/>
       <c r="U136" s="20"/>
     </row>
-    <row r="137" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="137" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A137" s="19">
         <v>136</v>
       </c>
@@ -11396,7 +11416,7 @@
       <c r="T137" s="20"/>
       <c r="U137" s="20"/>
     </row>
-    <row r="138" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="138" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A138" s="19">
         <v>137</v>
       </c>
@@ -11427,7 +11447,7 @@
       <c r="T138" s="20"/>
       <c r="U138" s="20"/>
     </row>
-    <row r="139" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="139" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A139" s="19">
         <v>138</v>
       </c>
@@ -11458,7 +11478,7 @@
       <c r="T139" s="20"/>
       <c r="U139" s="20"/>
     </row>
-    <row r="140" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="140" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A140" s="19">
         <v>139</v>
       </c>
@@ -11489,7 +11509,7 @@
       <c r="T140" s="20"/>
       <c r="U140" s="20"/>
     </row>
-    <row r="141" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="141" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A141" s="19">
         <v>140</v>
       </c>
@@ -11520,7 +11540,7 @@
       <c r="T141" s="20"/>
       <c r="U141" s="20"/>
     </row>
-    <row r="142" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="142" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A142" s="19">
         <v>141</v>
       </c>
@@ -11551,7 +11571,7 @@
       <c r="T142" s="20"/>
       <c r="U142" s="20"/>
     </row>
-    <row r="143" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="143" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A143" s="19">
         <v>142</v>
       </c>
@@ -11582,7 +11602,7 @@
       <c r="T143" s="20"/>
       <c r="U143" s="20"/>
     </row>
-    <row r="144" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="144" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A144" s="19">
         <v>143</v>
       </c>
@@ -11613,7 +11633,7 @@
       <c r="T144" s="20"/>
       <c r="U144" s="20"/>
     </row>
-    <row r="145" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="145" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A145" s="19">
         <v>144</v>
       </c>
@@ -11644,7 +11664,7 @@
       <c r="T145" s="20"/>
       <c r="U145" s="20"/>
     </row>
-    <row r="146" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="146" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A146" s="19">
         <v>145</v>
       </c>
@@ -11675,7 +11695,7 @@
       <c r="T146" s="20"/>
       <c r="U146" s="20"/>
     </row>
-    <row r="147" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="147" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A147" s="19">
         <v>146</v>
       </c>
@@ -11706,7 +11726,7 @@
       <c r="T147" s="20"/>
       <c r="U147" s="20"/>
     </row>
-    <row r="148" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="148" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A148" s="19">
         <v>147</v>
       </c>
@@ -11737,7 +11757,7 @@
       <c r="T148" s="20"/>
       <c r="U148" s="20"/>
     </row>
-    <row r="149" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="149" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A149" s="19">
         <v>148</v>
       </c>
@@ -11768,7 +11788,7 @@
       <c r="T149" s="20"/>
       <c r="U149" s="20"/>
     </row>
-    <row r="150" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="150" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A150" s="19">
         <v>149</v>
       </c>
@@ -11799,7 +11819,7 @@
       <c r="T150" s="20"/>
       <c r="U150" s="20"/>
     </row>
-    <row r="151" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="151" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A151" s="19">
         <v>150</v>
       </c>
@@ -11830,7 +11850,7 @@
       <c r="T151" s="20"/>
       <c r="U151" s="20"/>
     </row>
-    <row r="152" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="152" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A152" s="19">
         <v>151</v>
       </c>
@@ -11861,7 +11881,7 @@
       <c r="T152" s="20"/>
       <c r="U152" s="20"/>
     </row>
-    <row r="153" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="153" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A153" s="19">
         <v>152</v>
       </c>
@@ -11892,7 +11912,7 @@
       <c r="T153" s="20"/>
       <c r="U153" s="20"/>
     </row>
-    <row r="154" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="154" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A154" s="19">
         <v>153</v>
       </c>
@@ -11923,7 +11943,7 @@
       <c r="T154" s="20"/>
       <c r="U154" s="20"/>
     </row>
-    <row r="155" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="155" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A155" s="19">
         <v>154</v>
       </c>
@@ -11954,7 +11974,7 @@
       <c r="T155" s="20"/>
       <c r="U155" s="20"/>
     </row>
-    <row r="156" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="156" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A156" s="19">
         <v>155</v>
       </c>
@@ -11985,7 +12005,7 @@
       <c r="T156" s="20"/>
       <c r="U156" s="20"/>
     </row>
-    <row r="157" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="157" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A157" s="19">
         <v>156</v>
       </c>
@@ -12016,7 +12036,7 @@
       <c r="T157" s="20"/>
       <c r="U157" s="20"/>
     </row>
-    <row r="158" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="158" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A158" s="19">
         <v>157</v>
       </c>
@@ -12047,7 +12067,7 @@
       <c r="T158" s="20"/>
       <c r="U158" s="20"/>
     </row>
-    <row r="159" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="159" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A159" s="19">
         <v>158</v>
       </c>
@@ -12078,7 +12098,7 @@
       <c r="T159" s="20"/>
       <c r="U159" s="20"/>
     </row>
-    <row r="160" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="160" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A160" s="19">
         <v>159</v>
       </c>
@@ -12109,7 +12129,7 @@
       <c r="T160" s="20"/>
       <c r="U160" s="20"/>
     </row>
-    <row r="161" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="161" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A161" s="19">
         <v>160</v>
       </c>
@@ -12140,7 +12160,7 @@
       <c r="T161" s="20"/>
       <c r="U161" s="20"/>
     </row>
-    <row r="162" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="162" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A162" s="19">
         <v>161</v>
       </c>
@@ -12171,7 +12191,7 @@
       <c r="T162" s="20"/>
       <c r="U162" s="20"/>
     </row>
-    <row r="163" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="163" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A163" s="19">
         <v>162</v>
       </c>
@@ -12202,7 +12222,7 @@
       <c r="T163" s="20"/>
       <c r="U163" s="20"/>
     </row>
-    <row r="164" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="164" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A164" s="19">
         <v>163</v>
       </c>
@@ -12233,7 +12253,7 @@
       <c r="T164" s="20"/>
       <c r="U164" s="20"/>
     </row>
-    <row r="165" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="165" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A165" s="19">
         <v>164</v>
       </c>
@@ -12264,7 +12284,7 @@
       <c r="T165" s="20"/>
       <c r="U165" s="20"/>
     </row>
-    <row r="166" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="166" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A166" s="19">
         <v>165</v>
       </c>
@@ -12289,7 +12309,7 @@
       <c r="T166" s="20"/>
       <c r="U166" s="20"/>
     </row>
-    <row r="167" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="167" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A167" s="19">
         <v>166</v>
       </c>
@@ -12314,7 +12334,7 @@
       <c r="T167" s="20"/>
       <c r="U167" s="20"/>
     </row>
-    <row r="168" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="168" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A168" s="19">
         <v>167</v>
       </c>
@@ -12339,7 +12359,7 @@
       <c r="T168" s="20"/>
       <c r="U168" s="20"/>
     </row>
-    <row r="169" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="169" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A169" s="19">
         <v>168</v>
       </c>
@@ -12364,7 +12384,7 @@
       <c r="T169" s="20"/>
       <c r="U169" s="20"/>
     </row>
-    <row r="170" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="170" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A170" s="19">
         <v>169</v>
       </c>
@@ -12389,7 +12409,7 @@
       <c r="T170" s="20"/>
       <c r="U170" s="20"/>
     </row>
-    <row r="171" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="171" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A171" s="19">
         <v>170</v>
       </c>
@@ -12414,7 +12434,7 @@
       <c r="T171" s="20"/>
       <c r="U171" s="20"/>
     </row>
-    <row r="172" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="172" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A172" s="19">
         <v>171</v>
       </c>
@@ -12439,7 +12459,7 @@
       <c r="T172" s="20"/>
       <c r="U172" s="20"/>
     </row>
-    <row r="173" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="173" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A173" s="19">
         <v>172</v>
       </c>
@@ -12464,7 +12484,7 @@
       <c r="T173" s="20"/>
       <c r="U173" s="20"/>
     </row>
-    <row r="174" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="174" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A174" s="19">
         <v>173</v>
       </c>
@@ -12489,7 +12509,7 @@
       <c r="T174" s="20"/>
       <c r="U174" s="20"/>
     </row>
-    <row r="175" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="175" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A175" s="19">
         <v>174</v>
       </c>
@@ -12514,7 +12534,7 @@
       <c r="T175" s="20"/>
       <c r="U175" s="20"/>
     </row>
-    <row r="176" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="176" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A176" s="19">
         <v>175</v>
       </c>
@@ -12539,7 +12559,7 @@
       <c r="T176" s="20"/>
       <c r="U176" s="20"/>
     </row>
-    <row r="177" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="177" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A177" s="19">
         <v>176</v>
       </c>
@@ -12564,7 +12584,7 @@
       <c r="T177" s="20"/>
       <c r="U177" s="20"/>
     </row>
-    <row r="178" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="178" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A178" s="19">
         <v>177</v>
       </c>
@@ -12589,7 +12609,7 @@
       <c r="T178" s="20"/>
       <c r="U178" s="20"/>
     </row>
-    <row r="179" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="179" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A179" s="19">
         <v>178</v>
       </c>
@@ -12614,7 +12634,7 @@
       <c r="T179" s="20"/>
       <c r="U179" s="20"/>
     </row>
-    <row r="180" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="180" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A180" s="19">
         <v>179</v>
       </c>
@@ -12639,7 +12659,7 @@
       <c r="T180" s="20"/>
       <c r="U180" s="20"/>
     </row>
-    <row r="181" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="181" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A181" s="19">
         <v>180</v>
       </c>
@@ -12664,7 +12684,7 @@
       <c r="T181" s="20"/>
       <c r="U181" s="20"/>
     </row>
-    <row r="182" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="182" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A182" s="19">
         <v>181</v>
       </c>
@@ -12689,7 +12709,7 @@
       <c r="T182" s="20"/>
       <c r="U182" s="20"/>
     </row>
-    <row r="183" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="183" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A183" s="19">
         <v>182</v>
       </c>
@@ -12714,7 +12734,7 @@
       <c r="T183" s="20"/>
       <c r="U183" s="20"/>
     </row>
-    <row r="184" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="184" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A184" s="19">
         <v>183</v>
       </c>
@@ -12739,7 +12759,7 @@
       <c r="T184" s="20"/>
       <c r="U184" s="20"/>
     </row>
-    <row r="185" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="185" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A185" s="19">
         <v>184</v>
       </c>
@@ -12764,7 +12784,7 @@
       <c r="T185" s="20"/>
       <c r="U185" s="20"/>
     </row>
-    <row r="186" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="186" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A186" s="19">
         <v>185</v>
       </c>
@@ -12789,7 +12809,7 @@
       <c r="T186" s="20"/>
       <c r="U186" s="20"/>
     </row>
-    <row r="187" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="187" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A187" s="19">
         <v>186</v>
       </c>
@@ -12814,7 +12834,7 @@
       <c r="T187" s="20"/>
       <c r="U187" s="20"/>
     </row>
-    <row r="188" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="188" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A188" s="19">
         <v>187</v>
       </c>
@@ -12839,7 +12859,7 @@
       <c r="T188" s="20"/>
       <c r="U188" s="20"/>
     </row>
-    <row r="189" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="189" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A189" s="19">
         <v>188</v>
       </c>
@@ -12864,7 +12884,7 @@
       <c r="T189" s="20"/>
       <c r="U189" s="20"/>
     </row>
-    <row r="190" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="190" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A190" s="19">
         <v>189</v>
       </c>
@@ -12889,7 +12909,7 @@
       <c r="T190" s="20"/>
       <c r="U190" s="20"/>
     </row>
-    <row r="191" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="191" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A191" s="19">
         <v>190</v>
       </c>
@@ -12914,7 +12934,7 @@
       <c r="T191" s="20"/>
       <c r="U191" s="20"/>
     </row>
-    <row r="192" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="192" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A192" s="19">
         <v>191</v>
       </c>
@@ -12939,7 +12959,7 @@
       <c r="T192" s="20"/>
       <c r="U192" s="20"/>
     </row>
-    <row r="193" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="193" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A193" s="19">
         <v>192</v>
       </c>
@@ -12964,7 +12984,7 @@
       <c r="T193" s="20"/>
       <c r="U193" s="20"/>
     </row>
-    <row r="194" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="194" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A194" s="19">
         <v>193</v>
       </c>
@@ -12989,7 +13009,7 @@
       <c r="T194" s="20"/>
       <c r="U194" s="20"/>
     </row>
-    <row r="195" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="195" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A195" s="19">
         <v>194</v>
       </c>
@@ -13014,7 +13034,7 @@
       <c r="T195" s="20"/>
       <c r="U195" s="20"/>
     </row>
-    <row r="196" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="196" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A196" s="19">
         <v>195</v>
       </c>
@@ -13039,7 +13059,7 @@
       <c r="T196" s="20"/>
       <c r="U196" s="20"/>
     </row>
-    <row r="197" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="197" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A197" s="19">
         <v>196</v>
       </c>
@@ -13064,7 +13084,7 @@
       <c r="T197" s="20"/>
       <c r="U197" s="20"/>
     </row>
-    <row r="198" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="198" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A198" s="19">
         <v>197</v>
       </c>
@@ -13089,7 +13109,7 @@
       <c r="T198" s="20"/>
       <c r="U198" s="20"/>
     </row>
-    <row r="199" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="199" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A199" s="19">
         <v>198</v>
       </c>
@@ -13114,7 +13134,7 @@
       <c r="T199" s="20"/>
       <c r="U199" s="20"/>
     </row>
-    <row r="200" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="200" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A200" s="19">
         <v>199</v>
       </c>
@@ -13139,7 +13159,7 @@
       <c r="T200" s="20"/>
       <c r="U200" s="20"/>
     </row>
-    <row r="201" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="201" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A201" s="19">
         <v>200</v>
       </c>
@@ -13164,7 +13184,7 @@
       <c r="T201" s="20"/>
       <c r="U201" s="20"/>
     </row>
-    <row r="202" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="202" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A202" s="19">
         <v>201</v>
       </c>
@@ -13189,7 +13209,7 @@
       <c r="T202" s="20"/>
       <c r="U202" s="20"/>
     </row>
-    <row r="203" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="203" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A203" s="19">
         <v>202</v>
       </c>
@@ -13214,7 +13234,7 @@
       <c r="T203" s="20"/>
       <c r="U203" s="20"/>
     </row>
-    <row r="204" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="204" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A204" s="19">
         <v>203</v>
       </c>
@@ -13239,7 +13259,7 @@
       <c r="T204" s="20"/>
       <c r="U204" s="20"/>
     </row>
-    <row r="205" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="205" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A205" s="19">
         <v>204</v>
       </c>
@@ -13264,7 +13284,7 @@
       <c r="T205" s="20"/>
       <c r="U205" s="20"/>
     </row>
-    <row r="206" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="206" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A206" s="19">
         <v>205</v>
       </c>
@@ -13289,7 +13309,7 @@
       <c r="T206" s="20"/>
       <c r="U206" s="20"/>
     </row>
-    <row r="207" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="207" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A207" s="19">
         <v>206</v>
       </c>
@@ -13314,7 +13334,7 @@
       <c r="T207" s="20"/>
       <c r="U207" s="20"/>
     </row>
-    <row r="208" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="208" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A208" s="19">
         <v>207</v>
       </c>
@@ -13339,7 +13359,7 @@
       <c r="T208" s="20"/>
       <c r="U208" s="20"/>
     </row>
-    <row r="209" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="209" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A209" s="19">
         <v>208</v>
       </c>
@@ -13364,7 +13384,7 @@
       <c r="T209" s="20"/>
       <c r="U209" s="20"/>
     </row>
-    <row r="210" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="210" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A210" s="19">
         <v>209</v>
       </c>
@@ -13389,7 +13409,7 @@
       <c r="T210" s="20"/>
       <c r="U210" s="20"/>
     </row>
-    <row r="211" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="211" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A211" s="19">
         <v>210</v>
       </c>
@@ -13414,7 +13434,7 @@
       <c r="T211" s="20"/>
       <c r="U211" s="20"/>
     </row>
-    <row r="212" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="212" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A212" s="19">
         <v>211</v>
       </c>
@@ -13439,7 +13459,7 @@
       <c r="T212" s="20"/>
       <c r="U212" s="20"/>
     </row>
-    <row r="213" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="213" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A213" s="19">
         <v>212</v>
       </c>
@@ -13464,7 +13484,7 @@
       <c r="T213" s="20"/>
       <c r="U213" s="20"/>
     </row>
-    <row r="214" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="214" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A214" s="19">
         <v>213</v>
       </c>
@@ -13489,7 +13509,7 @@
       <c r="T214" s="20"/>
       <c r="U214" s="20"/>
     </row>
-    <row r="215" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="215" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A215" s="19">
         <v>214</v>
       </c>
@@ -13514,7 +13534,7 @@
       <c r="T215" s="20"/>
       <c r="U215" s="20"/>
     </row>
-    <row r="216" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="216" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A216" s="19">
         <v>215</v>
       </c>
@@ -13539,7 +13559,7 @@
       <c r="T216" s="20"/>
       <c r="U216" s="20"/>
     </row>
-    <row r="217" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="217" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A217" s="19">
         <v>216</v>
       </c>
@@ -13564,7 +13584,7 @@
       <c r="T217" s="20"/>
       <c r="U217" s="20"/>
     </row>
-    <row r="218" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="218" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A218" s="19">
         <v>217</v>
       </c>
@@ -13589,7 +13609,7 @@
       <c r="T218" s="20"/>
       <c r="U218" s="20"/>
     </row>
-    <row r="219" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="219" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A219" s="19">
         <v>218</v>
       </c>
@@ -13614,7 +13634,7 @@
       <c r="T219" s="20"/>
       <c r="U219" s="20"/>
     </row>
-    <row r="220" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="220" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A220" s="19">
         <v>219</v>
       </c>
@@ -13639,7 +13659,7 @@
       <c r="T220" s="20"/>
       <c r="U220" s="20"/>
     </row>
-    <row r="221" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="221" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A221" s="19">
         <v>220</v>
       </c>
@@ -13664,7 +13684,7 @@
       <c r="T221" s="20"/>
       <c r="U221" s="20"/>
     </row>
-    <row r="222" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="222" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A222" s="19">
         <v>221</v>
       </c>
@@ -13689,7 +13709,7 @@
       <c r="T222" s="20"/>
       <c r="U222" s="20"/>
     </row>
-    <row r="223" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="223" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A223" s="19">
         <v>222</v>
       </c>
@@ -13714,7 +13734,7 @@
       <c r="T223" s="20"/>
       <c r="U223" s="20"/>
     </row>
-    <row r="224" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="224" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A224" s="19">
         <v>223</v>
       </c>
@@ -13739,7 +13759,7 @@
       <c r="T224" s="20"/>
       <c r="U224" s="20"/>
     </row>
-    <row r="225" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="225" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A225" s="19">
         <v>224</v>
       </c>
@@ -13764,7 +13784,7 @@
       <c r="T225" s="20"/>
       <c r="U225" s="20"/>
     </row>
-    <row r="226" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="226" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A226" s="19">
         <v>225</v>
       </c>
@@ -13789,7 +13809,7 @@
       <c r="T226" s="20"/>
       <c r="U226" s="20"/>
     </row>
-    <row r="227" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="227" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A227" s="19">
         <v>226</v>
       </c>
@@ -13814,7 +13834,7 @@
       <c r="T227" s="20"/>
       <c r="U227" s="20"/>
     </row>
-    <row r="228" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="228" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A228" s="19">
         <v>227</v>
       </c>
@@ -13839,7 +13859,7 @@
       <c r="T228" s="20"/>
       <c r="U228" s="20"/>
     </row>
-    <row r="229" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="229" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A229" s="19">
         <v>228</v>
       </c>
@@ -13864,7 +13884,7 @@
       <c r="T229" s="20"/>
       <c r="U229" s="20"/>
     </row>
-    <row r="230" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="230" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A230" s="19">
         <v>229</v>
       </c>
@@ -13889,7 +13909,7 @@
       <c r="T230" s="20"/>
       <c r="U230" s="20"/>
     </row>
-    <row r="231" s="44" customFormat="1" ht="11.25" spans="1:22">
+    <row r="231" s="44" customFormat="1" ht="10.85" spans="1:22">
       <c r="A231" s="19">
         <v>230</v>
       </c>
@@ -13915,7 +13935,7 @@
       <c r="U231" s="20"/>
       <c r="V231" s="16"/>
     </row>
-    <row r="232" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="232" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A232" s="19">
         <v>231</v>
       </c>
@@ -13940,7 +13960,7 @@
       <c r="T232" s="20"/>
       <c r="U232" s="20"/>
     </row>
-    <row r="233" s="16" customFormat="1" ht="11.25" spans="1:21">
+    <row r="233" s="16" customFormat="1" ht="10.85" spans="1:21">
       <c r="A233" s="19">
         <v>232</v>
       </c>
@@ -13965,7 +13985,7 @@
       <c r="T233" s="20"/>
       <c r="U233" s="20"/>
     </row>
-    <row r="234" s="44" customFormat="1" ht="11.25" spans="1:22">
+    <row r="234" s="44" customFormat="1" ht="10.85" spans="1:22">
       <c r="A234" s="19">
         <v>233</v>
       </c>
@@ -13991,7 +14011,7 @@
       <c r="U234" s="20"/>
       <c r="V234" s="16"/>
     </row>
-    <row r="235" s="44" customFormat="1" ht="11.25" spans="5:15">
+    <row r="235" s="44" customFormat="1" ht="10.85" spans="5:15">
       <c r="E235" s="81"/>
       <c r="F235" s="81"/>
       <c r="G235" s="81"/>
@@ -14038,30 +14058,30 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:BC211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75:A76"/>
+      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.725" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.72566371681416" defaultRowHeight="13.1"/>
   <cols>
-    <col min="1" max="1" width="5.525" customWidth="1"/>
-    <col min="2" max="2" width="7.44166666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.1" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.3416666666667" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.96666666666667" style="17" customWidth="1"/>
-    <col min="6" max="8" width="5.76666666666667" style="17" customWidth="1"/>
-    <col min="9" max="9" width="5.76666666666667" style="18" customWidth="1"/>
-    <col min="10" max="10" width="8.04166666666667" style="18" customWidth="1"/>
-    <col min="11" max="11" width="9.725" style="16"/>
-    <col min="12" max="21" width="5.76666666666667" style="18" customWidth="1"/>
-    <col min="22" max="24" width="6.96666666666667" style="18" customWidth="1"/>
-    <col min="25" max="49" width="9.725" style="16"/>
-    <col min="55" max="55" width="9.6" style="15"/>
+    <col min="1" max="1" width="5.52212389380531" customWidth="1"/>
+    <col min="2" max="2" width="7.44247787610619" customWidth="1"/>
+    <col min="3" max="3" width="19.0973451327434" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.3451327433628" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.9646017699115" style="17" customWidth="1"/>
+    <col min="6" max="8" width="5.76991150442478" style="17" customWidth="1"/>
+    <col min="9" max="9" width="5.76991150442478" style="18" customWidth="1"/>
+    <col min="10" max="10" width="8.04424778761062" style="18" customWidth="1"/>
+    <col min="11" max="11" width="9.72566371681416" style="16"/>
+    <col min="12" max="21" width="5.76991150442478" style="18" customWidth="1"/>
+    <col min="22" max="24" width="6.9646017699115" style="18" customWidth="1"/>
+    <col min="25" max="49" width="9.72566371681416" style="16"/>
+    <col min="55" max="55" width="9.60176991150442" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="1" ht="22.5" spans="1:55">
+    <row r="1" s="14" customFormat="1" ht="21.75" spans="1:55">
       <c r="A1" s="19" t="s">
         <v>98</v>
       </c>
@@ -28323,11 +28343,11 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.60833333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="13.1"/>
   <cols>
-    <col min="2" max="2" width="20.45" customWidth="1"/>
-    <col min="13" max="54" width="0.141666666666667" customWidth="1"/>
-    <col min="55" max="55" width="15.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.4513274336283" customWidth="1"/>
+    <col min="13" max="54" width="0.141592920353982" customWidth="1"/>
+    <col min="55" max="55" width="15.1327433628319" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/tools/recipe/src/test/resources/配方报价管理系统需求清单.xlsx
+++ b/tools/recipe/src/test/resources/配方报价管理系统需求清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18187" windowHeight="8872" tabRatio="821" activeTab="1"/>
+    <workbookView windowWidth="18187" windowHeight="8872" tabRatio="821" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="推优核算逻辑" sheetId="3" r:id="rId1"/>
@@ -1448,16 +1448,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
-    <numFmt numFmtId="181" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.000%"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
@@ -1589,10 +1589,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1601,22 +1601,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1635,8 +1619,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1644,14 +1629,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1666,6 +1643,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1673,14 +1657,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1781,19 +1781,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,13 +1811,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1829,25 +1853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,7 +1883,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1883,43 +1925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1937,19 +1943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2044,35 +2044,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2088,6 +2062,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2121,96 +2106,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2219,7 +2219,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2228,28 +2228,28 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2258,10 +2258,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2277,7 +2277,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2297,29 +2297,29 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2348,7 +2348,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2386,13 +2386,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2406,13 +2406,13 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2452,34 +2452,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2487,20 +2487,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="182" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2511,19 +2511,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="182" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2568,6 +2568,12 @@
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3126,14 +3132,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="13.1" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="8.88495575221239" style="94" customWidth="1"/>
+    <col min="1" max="1" width="8.88495575221239" style="96" customWidth="1"/>
     <col min="2" max="2" width="53.7433628318584" customWidth="1"/>
     <col min="3" max="3" width="34.0442477876106" customWidth="1"/>
     <col min="4" max="4" width="63.0088495575221" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="107"/>
+      <c r="A1" s="109"/>
       <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
@@ -3143,59 +3149,59 @@
       </c>
     </row>
     <row r="2" ht="15" spans="1:4">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="112" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:4">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="110" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="112" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="15" spans="1:4">
-      <c r="A4" s="108"/>
-      <c r="B4" s="109" t="s">
+      <c r="A4" s="110"/>
+      <c r="B4" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="112" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="15" spans="1:4">
-      <c r="A5" s="108"/>
-      <c r="B5" s="110" t="s">
+      <c r="A5" s="110"/>
+      <c r="B5" s="112" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
     </row>
     <row r="6" ht="15" spans="1:4">
-      <c r="A6" s="108"/>
-      <c r="B6" s="110" t="s">
+      <c r="A6" s="110"/>
+      <c r="B6" s="112" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="87"/>
     </row>
     <row r="7" ht="26.25" spans="1:4">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="113" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3238,14 +3244,14 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="13.1"/>
   <cols>
     <col min="1" max="1" width="12.0442477876106" customWidth="1"/>
-    <col min="3" max="3" width="9.46902654867257"/>
+    <col min="3" max="3" width="12.6814159292035" customWidth="1"/>
     <col min="4" max="6" width="10.5486725663717"/>
     <col min="10" max="10" width="8.61061946902655" style="82"/>
     <col min="13" max="13" width="20.5398230088496" customWidth="1"/>
@@ -3266,44 +3272,44 @@
       </c>
     </row>
     <row r="4" s="15" customFormat="1" ht="24.75" spans="1:14">
-      <c r="A4" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105" t="s">
+      <c r="A4" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="108" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="106" t="s">
+      <c r="K4" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="106" t="s">
+      <c r="L4" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="105"/>
+      <c r="N4" s="107"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="86" t="s">
@@ -3661,8 +3667,8 @@
   <cols>
     <col min="1" max="1" width="12.0442477876106" style="82" customWidth="1"/>
     <col min="2" max="2" width="8.61061946902655" style="82"/>
-    <col min="3" max="3" width="9.46902654867257" style="82"/>
-    <col min="4" max="4" width="8.80530973451327" style="82" customWidth="1"/>
+    <col min="3" max="3" width="12.4778761061947" style="82" customWidth="1"/>
+    <col min="4" max="4" width="13.0796460176991" style="82" customWidth="1"/>
     <col min="5" max="5" width="8.48672566371681" style="82" customWidth="1"/>
     <col min="6" max="6" width="8.17699115044248" style="82" customWidth="1"/>
     <col min="7" max="12" width="8.61061946902655" style="82"/>
@@ -4140,11 +4146,13 @@
   <cols>
     <col min="1" max="1" width="12.0442477876106" style="82" customWidth="1"/>
     <col min="2" max="2" width="8.61061946902655" style="82"/>
-    <col min="3" max="3" width="9.46902654867257" style="82"/>
+    <col min="3" max="3" width="11.353982300885" style="82" customWidth="1"/>
     <col min="4" max="4" width="8.80530973451327" style="82" customWidth="1"/>
     <col min="5" max="5" width="8.48672566371681" style="82" customWidth="1"/>
     <col min="6" max="6" width="8.17699115044248" style="82" customWidth="1"/>
-    <col min="7" max="12" width="8.61061946902655" style="82"/>
+    <col min="7" max="7" width="8.61061946902655" style="82"/>
+    <col min="8" max="8" width="17" style="82" customWidth="1"/>
+    <col min="9" max="12" width="8.61061946902655" style="82"/>
     <col min="13" max="13" width="10.3451327433628" style="82" customWidth="1"/>
     <col min="14" max="14" width="8.61061946902655" style="82"/>
     <col min="15" max="18" width="10.5044247787611" style="82" customWidth="1"/>
@@ -4176,11 +4184,11 @@
       </c>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
     </row>
     <row r="3" s="82" customFormat="1" ht="39" customHeight="1" spans="1:19">
       <c r="A3" s="82" t="s">
@@ -4189,12 +4197,12 @@
       <c r="B3" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="98" t="s">
+      <c r="P3" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="100"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="102"/>
     </row>
     <row r="4" s="83" customFormat="1" ht="49.5" spans="1:19">
       <c r="A4" s="84" t="s">
@@ -4293,10 +4301,10 @@
       <c r="M5" s="88"/>
       <c r="N5" s="88"/>
       <c r="O5" s="87"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
     </row>
     <row r="6" s="82" customFormat="1" spans="1:19">
       <c r="A6" s="86"/>
@@ -4336,10 +4344,10 @@
       <c r="M6" s="88"/>
       <c r="N6" s="88"/>
       <c r="O6" s="87"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
     </row>
     <row r="7" s="82" customFormat="1" spans="1:19">
       <c r="A7" s="86" t="s">
@@ -4387,19 +4395,19 @@
       <c r="O7" s="87">
         <v>15</v>
       </c>
-      <c r="P7" s="91">
+      <c r="P7" s="93">
         <f>17/71*0.85*1.35/0.99*0.2</f>
         <v>0.05550576184379</v>
       </c>
-      <c r="Q7" s="91">
+      <c r="Q7" s="93">
         <f>17/(98/2)/0.99</f>
         <v>0.350443207586065</v>
       </c>
-      <c r="R7" s="91">
+      <c r="R7" s="93">
         <f>34/142*0.2*0.4*0.55</f>
         <v>0.0105352112676056</v>
       </c>
-      <c r="S7" s="91">
+      <c r="S7" s="93">
         <f>34/142*0.2*0.8*0.5</f>
         <v>0.0191549295774648</v>
       </c>
@@ -4448,19 +4456,19 @@
       <c r="O8" s="87">
         <v>0</v>
       </c>
-      <c r="P8" s="91">
+      <c r="P8" s="93">
         <f>17/71*0.85*1.2/0.99*0.2</f>
         <v>0.0493384549722578</v>
       </c>
-      <c r="Q8" s="91">
+      <c r="Q8" s="93">
         <f>17/(98/2)/0.99</f>
         <v>0.350443207586065</v>
       </c>
-      <c r="R8" s="91">
+      <c r="R8" s="93">
         <f>34/142*0.2*0.4*0.45</f>
         <v>0.00861971830985916</v>
       </c>
-      <c r="S8" s="91">
+      <c r="S8" s="93">
         <f>34/142*0.2*0.8*0.45</f>
         <v>0.0172394366197183</v>
       </c>
@@ -4501,10 +4509,10 @@
       <c r="M9" s="87"/>
       <c r="N9" s="87"/>
       <c r="O9" s="87"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
     </row>
     <row r="10" s="82" customFormat="1" spans="1:19">
       <c r="A10" s="86" t="s">
@@ -4555,10 +4563,10 @@
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
       <c r="O10" s="87"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
     </row>
     <row r="11" s="82" customFormat="1" spans="1:19">
       <c r="A11" s="86"/>
@@ -4607,10 +4615,10 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="87"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
     </row>
     <row r="13" ht="13.1" spans="1:8">
       <c r="A13" s="51" t="s">
@@ -4639,10 +4647,10 @@
       </c>
     </row>
     <row r="14" ht="13.1" spans="1:8">
-      <c r="A14" s="103" t="s">
+      <c r="A14" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="104">
+      <c r="B14" s="106">
         <v>1800</v>
       </c>
       <c r="C14" t="s">
@@ -4785,15 +4793,15 @@
       <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
     </row>
     <row r="2" s="82" customFormat="1" ht="13.1" spans="1:22">
       <c r="A2" s="82" t="s">
@@ -4804,13 +4812,13 @@
       </c>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
     </row>
     <row r="3" s="82" customFormat="1" spans="1:22">
       <c r="A3" s="82" t="s">
@@ -4819,17 +4827,17 @@
       <c r="B3" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="98" t="s">
+      <c r="P3" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="101" t="s">
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="V3" s="102"/>
+      <c r="V3" s="104"/>
     </row>
     <row r="4" s="83" customFormat="1" ht="49.5" spans="1:22">
       <c r="A4" s="84" t="s">
@@ -4937,13 +4945,13 @@
       <c r="M5" s="88"/>
       <c r="N5" s="88"/>
       <c r="O5" s="87"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
     </row>
     <row r="6" s="82" customFormat="1" spans="1:22">
       <c r="A6" s="86"/>
@@ -4983,13 +4991,13 @@
       <c r="M6" s="88"/>
       <c r="N6" s="88"/>
       <c r="O6" s="87"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="91"/>
-      <c r="V6" s="91"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
+      <c r="T6" s="93"/>
+      <c r="U6" s="93"/>
+      <c r="V6" s="93"/>
     </row>
     <row r="7" s="82" customFormat="1" spans="1:25">
       <c r="A7" s="86" t="s">
@@ -5037,31 +5045,31 @@
       <c r="O7" s="87">
         <v>5</v>
       </c>
-      <c r="P7" s="91">
+      <c r="P7" s="93">
         <f>17/71*0.85*1.35/0.99*0.2</f>
         <v>0.05550576184379</v>
       </c>
-      <c r="Q7" s="91">
+      <c r="Q7" s="93">
         <f>34/142*0.2*0.4*0.55</f>
         <v>0.0105352112676056</v>
       </c>
-      <c r="R7" s="91">
+      <c r="R7" s="93">
         <f>34/142*0.2*0.8*0.5</f>
         <v>0.0191549295774648</v>
       </c>
-      <c r="S7" s="91">
+      <c r="S7" s="93">
         <f>17/98/0.99</f>
         <v>0.175221603793032</v>
       </c>
-      <c r="T7" s="91">
+      <c r="T7" s="93">
         <f>17/(98/2)/0.99</f>
         <v>0.350443207586065</v>
       </c>
-      <c r="U7" s="91">
+      <c r="U7" s="93">
         <f>98/74.5*0.98*0.95</f>
         <v>1.2246711409396</v>
       </c>
-      <c r="V7" s="91">
+      <c r="V7" s="93">
         <f>U7*0.25</f>
         <v>0.306167785234899</v>
       </c>
@@ -5122,31 +5130,31 @@
       <c r="O8" s="87">
         <v>5</v>
       </c>
-      <c r="P8" s="91">
+      <c r="P8" s="93">
         <f>17/71*0.85*1.2/0.99*0.2</f>
         <v>0.0493384549722578</v>
       </c>
-      <c r="Q8" s="91">
+      <c r="Q8" s="93">
         <f>34/142*0.2*0.4*0.45</f>
         <v>0.00861971830985916</v>
       </c>
-      <c r="R8" s="91">
+      <c r="R8" s="93">
         <f>34/142*0.2*0.8*0.45</f>
         <v>0.0172394366197183</v>
       </c>
-      <c r="S8" s="91">
+      <c r="S8" s="93">
         <f>17/98/0.99</f>
         <v>0.175221603793032</v>
       </c>
-      <c r="T8" s="91">
+      <c r="T8" s="93">
         <f>17/(98/2)/0.99</f>
         <v>0.350443207586065</v>
       </c>
-      <c r="U8" s="91">
+      <c r="U8" s="93">
         <f>98/74.5*0.95*0.98</f>
         <v>1.2246711409396</v>
       </c>
-      <c r="V8" s="91">
+      <c r="V8" s="93">
         <f>U8*0.1</f>
         <v>0.12246711409396</v>
       </c>
@@ -5199,13 +5207,13 @@
       <c r="M9" s="87"/>
       <c r="N9" s="87"/>
       <c r="O9" s="87"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
     </row>
     <row r="10" s="82" customFormat="1" spans="1:22">
       <c r="A10" s="86" t="s">
@@ -5256,13 +5264,13 @@
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
       <c r="O10" s="87"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
-      <c r="T10" s="91"/>
-      <c r="U10" s="91"/>
-      <c r="V10" s="91"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
     </row>
     <row r="11" s="82" customFormat="1" spans="1:22">
       <c r="A11" s="86"/>
@@ -5311,56 +5319,56 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="87"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
     </row>
     <row r="13" ht="26.25" spans="1:8">
       <c r="A13" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="94" t="s">
+      <c r="E13" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="94" t="s">
+      <c r="G13" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="95"/>
+      <c r="H13" s="97"/>
     </row>
     <row r="14" ht="39.4" spans="1:22">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="95">
+      <c r="B14" s="97">
         <v>2000</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="94" t="s">
+      <c r="E14" s="96" t="s">
         <v>85</v>
       </c>
       <c r="F14"/>
-      <c r="G14" s="94" t="s">
+      <c r="G14" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="95"/>
+      <c r="H14" s="97"/>
       <c r="T14" s="82">
         <f>235*T8</f>
         <v>82.3541537827252</v>
@@ -5373,22 +5381,22 @@
       </c>
     </row>
     <row r="15" ht="52.5" spans="1:22">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="95">
+      <c r="B15" s="97">
         <v>3800</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="94" t="s">
+      <c r="D15" s="98"/>
+      <c r="E15" s="96" t="s">
         <v>88</v>
       </c>
       <c r="F15"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="97"/>
       <c r="T15" s="82">
         <f>235*V8</f>
         <v>28.7797718120805</v>
@@ -5402,52 +5410,52 @@
       </c>
     </row>
     <row r="16" ht="13.85" spans="1:21">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="95">
+      <c r="B16" s="97">
         <v>1150</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="94"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="96"/>
       <c r="F16"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
       <c r="U16" s="82">
         <f>U15/1.83*1.03</f>
         <v>0.68929577878021</v>
       </c>
     </row>
     <row r="17" ht="13.85" spans="1:21">
-      <c r="A17" s="95" t="s">
+      <c r="A17" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="95">
+      <c r="B17" s="97">
         <v>220</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="94"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="96"/>
       <c r="F17"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="95"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="97"/>
       <c r="U17" s="82">
         <f>U15/1.83*1.15</f>
         <v>0.769602083104118</v>
       </c>
     </row>
     <row r="18" ht="13.1" spans="1:22">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="94"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="96"/>
       <c r="D18"/>
-      <c r="E18" s="94"/>
+      <c r="E18" s="96"/>
       <c r="F18"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="95"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="97"/>
       <c r="U18" s="82">
         <f>U16/V14</f>
         <v>0.00925229233262027</v>
@@ -5482,7 +5490,7 @@
     </row>
     <row r="24" ht="13.1" spans="6:15">
       <c r="F24"/>
-      <c r="O24" s="94"/>
+      <c r="O24" s="96"/>
     </row>
     <row r="25" ht="13.1" spans="6:6">
       <c r="F25"/>
@@ -5507,15 +5515,15 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.61061946902655" defaultRowHeight="12.35"/>
   <cols>
     <col min="1" max="1" width="12.0442477876106" style="82" customWidth="1"/>
     <col min="2" max="2" width="8.61061946902655" style="82"/>
-    <col min="3" max="3" width="9.46902654867257" style="82"/>
+    <col min="3" max="3" width="12.4159292035398" style="82" customWidth="1"/>
     <col min="4" max="4" width="8.80530973451327" style="82" customWidth="1"/>
     <col min="5" max="5" width="8.48672566371681" style="82" customWidth="1"/>
     <col min="6" max="6" width="8.17699115044248" style="82" customWidth="1"/>
@@ -5550,11 +5558,11 @@
       </c>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
     </row>
     <row r="3" s="82" customFormat="1" spans="1:19">
       <c r="A3" s="82" t="s">
@@ -5563,12 +5571,12 @@
       <c r="B3" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="90" t="s">
+      <c r="P3" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="93"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="95"/>
     </row>
     <row r="4" s="83" customFormat="1" ht="49.5" spans="1:19">
       <c r="A4" s="84" t="s">
@@ -5667,10 +5675,10 @@
       <c r="M5" s="88"/>
       <c r="N5" s="88"/>
       <c r="O5" s="87"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="93"/>
+      <c r="R5" s="93"/>
+      <c r="S5" s="93"/>
     </row>
     <row r="6" s="82" customFormat="1" spans="1:19">
       <c r="A6" s="86"/>
@@ -5710,10 +5718,10 @@
       <c r="M6" s="88"/>
       <c r="N6" s="88"/>
       <c r="O6" s="87"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="93"/>
+      <c r="S6" s="93"/>
     </row>
     <row r="7" s="82" customFormat="1" spans="1:19">
       <c r="A7" s="86" t="s">
@@ -5761,19 +5769,19 @@
       <c r="O7" s="87">
         <v>15</v>
       </c>
-      <c r="P7" s="91">
+      <c r="P7" s="93">
         <f>17/71*0.85*1.35/0.99*0.2</f>
         <v>0.05550576184379</v>
       </c>
-      <c r="Q7" s="91">
+      <c r="Q7" s="93">
         <f>17/(98/2)/0.99</f>
         <v>0.350443207586065</v>
       </c>
-      <c r="R7" s="91">
+      <c r="R7" s="93">
         <f>34/142*0.2*0.4*0.55</f>
         <v>0.0105352112676056</v>
       </c>
-      <c r="S7" s="91">
+      <c r="S7" s="93">
         <f>34/142*0.2*0.8*0.5</f>
         <v>0.0191549295774648</v>
       </c>
@@ -5822,19 +5830,19 @@
       <c r="O8" s="87">
         <v>0</v>
       </c>
-      <c r="P8" s="91">
+      <c r="P8" s="93">
         <f>17/71*0.85*1.2/0.99*0.2</f>
         <v>0.0493384549722578</v>
       </c>
-      <c r="Q8" s="91">
+      <c r="Q8" s="93">
         <f>17/(98/2)/0.99</f>
         <v>0.350443207586065</v>
       </c>
-      <c r="R8" s="91">
+      <c r="R8" s="93">
         <f>34/142*0.2*0.4*0.45</f>
         <v>0.00861971830985916</v>
       </c>
-      <c r="S8" s="91">
+      <c r="S8" s="93">
         <f>34/142*0.2*0.8*0.45</f>
         <v>0.0172394366197183</v>
       </c>
@@ -5875,10 +5883,10 @@
       <c r="M9" s="87"/>
       <c r="N9" s="87"/>
       <c r="O9" s="87"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
     </row>
     <row r="10" s="82" customFormat="1" spans="1:19">
       <c r="A10" s="86" t="s">
@@ -5929,10 +5937,10 @@
       <c r="M10" s="88"/>
       <c r="N10" s="88"/>
       <c r="O10" s="87"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
     </row>
     <row r="11" s="82" customFormat="1" spans="1:19">
       <c r="A11" s="86"/>
@@ -5981,10 +5989,10 @@
       <c r="M11" s="88"/>
       <c r="N11" s="88"/>
       <c r="O11" s="87"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
     </row>
     <row r="13" ht="13.1" spans="1:7">
       <c r="A13" s="51" t="s">
@@ -6009,80 +6017,127 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="13.1" spans="1:7">
-      <c r="A14" s="82" t="s">
+    <row r="14" ht="39.4" spans="1:10">
+      <c r="A14" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B14" s="89">
         <v>1800</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="G14"/>
-    </row>
-    <row r="15" ht="13.1" spans="1:7">
-      <c r="A15" s="82" t="s">
+      <c r="F14" s="89"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+    </row>
+    <row r="15" ht="13.15" spans="1:10">
+      <c r="A15" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="89">
         <v>1050</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="E15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" ht="13.1" spans="3:7">
-      <c r="C16" t="s">
+      <c r="D15" s="89"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+    </row>
+    <row r="16" ht="13.15" spans="1:10">
+      <c r="A16" s="89"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="E16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" ht="13.1" spans="3:7">
-      <c r="C17"/>
-      <c r="E17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" ht="13.1" spans="3:7">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" ht="13.1" spans="3:21">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="G19"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+    </row>
+    <row r="17" ht="13.1" spans="1:10">
+      <c r="A17" s="89"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+    </row>
+    <row r="18" ht="13.1" spans="1:10">
+      <c r="A18" s="89"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+    </row>
+    <row r="19" ht="13.1" spans="1:21">
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
       <c r="T19"/>
       <c r="U19" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" ht="13.1" spans="3:21">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="G20"/>
+    <row r="20" ht="13.1" spans="1:21">
+      <c r="A20" s="89"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
       <c r="T20"/>
       <c r="U20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" ht="13.1" spans="3:21">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="G21"/>
+    <row r="21" ht="13.1" spans="1:21">
+      <c r="A21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
       <c r="U21" t="s">
         <v>52</v>
       </c>
